--- a/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
@@ -439,8 +439,10 @@
           <t>Year</t>
         </is>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>0</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -448,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>1870196.675048712</v>
+        <v>1793470.002260888</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>2252.27625394889</v>
+        <v>2159.874387626451</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>2288.006859520725</v>
+        <v>2194.139109679831</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>2324.515162812671</v>
+        <v>2229.149623633313</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>2361.82796772782</v>
+        <v>2264.931633733287</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>2399.973161255775</v>
+        <v>2301.511882877962</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>2438.979745075486</v>
+        <v>2338.918182923654</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>2478.877866842471</v>
+        <v>2377.179444688422</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>2519.698851048273</v>
+        <v>2416.325707545491</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>2561.475229300444</v>
+        <v>2456.388168460956</v>
       </c>
     </row>
     <row r="12">
@@ -528,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>2604.240769921961</v>
+        <v>2497.399210378867</v>
       </c>
     </row>
     <row r="13">
@@ -536,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>2648.030506735</v>
+        <v>2539.39242982411</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>2692.880766852829</v>
+        <v>2582.402663554116</v>
       </c>
     </row>
     <row r="15">
@@ -552,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>2738.829197377716</v>
+        <v>2626.466014161456</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>2785.914790801473</v>
+        <v>2671.619874432308</v>
       </c>
     </row>
     <row r="17">
@@ -568,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>2834.177908989806</v>
+        <v>2717.902950346819</v>
       </c>
     </row>
     <row r="18">
@@ -576,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>2883.660305543719</v>
+        <v>2765.355282523118</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>2934.405146388435</v>
+        <v>2814.018265961548</v>
       </c>
     </row>
     <row r="20">
@@ -592,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>2986.457028404807</v>
+        <v>2863.934667911708</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>3039.861995900001</v>
+        <v>2915.148643667414</v>
       </c>
     </row>
     <row r="22">
@@ -608,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>3094.667554761815</v>
+        <v>2967.70575014032</v>
       </c>
     </row>
     <row r="23">
@@ -616,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>3150.922684063777</v>
+        <v>3021.652956988898</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>3208.677844946351</v>
+        <v>3077.038655135297</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>3267.984986573489</v>
+        <v>3133.912662477514</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>3328.897548935663</v>
+        <v>3192.326226577428</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>3391.470462325578</v>
+        <v>3252.332024158026</v>
       </c>
     </row>
     <row r="28">
@@ -656,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>3455.760143249877</v>
+        <v>3313.984157182833</v>
       </c>
     </row>
     <row r="29">
@@ -664,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>3521.82448658114</v>
+        <v>3377.338145329881</v>
       </c>
     </row>
     <row r="30">
@@ -672,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>3589.72285374787</v>
+        <v>3442.450914666216</v>
       </c>
     </row>
     <row r="31">
@@ -680,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>3659.516056732547</v>
+        <v>3509.380782302443</v>
       </c>
     </row>
     <row r="32">
@@ -688,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>3731.266337693885</v>
+        <v>3578.187436851008</v>
       </c>
     </row>
     <row r="33">
@@ -696,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>3805.037344000524</v>
+        <v>3648.931914484147</v>
       </c>
     </row>
     <row r="34">
@@ -704,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>3880.894098473056</v>
+        <v>3721.676570396773</v>
       </c>
     </row>
     <row r="35">
@@ -712,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>3958.902964650646</v>
+        <v>3796.485045498061</v>
       </c>
     </row>
     <row r="36">
@@ -720,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>4039.131606880478</v>
+        <v>3873.422228138263</v>
       </c>
     </row>
     <row r="37">
@@ -728,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>4121.648945064991</v>
+        <v>3952.554210712496</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>4206.525103870017</v>
+        <v>4033.948240952647</v>
       </c>
     </row>
     <row r="39">
@@ -744,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>4293.831356259452</v>
+        <v>4117.672667778608</v>
       </c>
     </row>
     <row r="40">
@@ -752,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>4383.640061181139</v>
+        <v>4203.796881540644</v>
       </c>
     </row>
     <row r="41">
@@ -760,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>4476.024595272814</v>
+        <v>4292.39124852718</v>
       </c>
     </row>
     <row r="42">
@@ -768,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>4571.059278446171</v>
+        <v>4383.527039601851</v>
       </c>
     </row>
     <row r="43">
@@ -776,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>4668.819293272422</v>
+        <v>4477.276352896345</v>
       </c>
     </row>
     <row r="44">
@@ -784,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>4769.380598015836</v>
+        <v>4573.712030411829</v>
       </c>
     </row>
     <row r="45">
@@ -792,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>4872.819833288784</v>
+        <v>4672.907568503569</v>
       </c>
     </row>
     <row r="46">
@@ -800,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>4979.214222229773</v>
+        <v>4774.93702215425</v>
       </c>
     </row>
     <row r="47">
@@ -808,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>5088.641464167918</v>
+        <v>4879.874903000978</v>
       </c>
     </row>
     <row r="48">
@@ -816,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>5201.179621778987</v>
+        <v>4987.796071120851</v>
       </c>
     </row>
     <row r="49">
@@ -824,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>5316.907001686274</v>
+        <v>5098.775620530307</v>
       </c>
     </row>
     <row r="50">
@@ -832,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>5435.902028563908</v>
+        <v>5212.888758453465</v>
       </c>
     </row>
     <row r="51">
@@ -840,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>5558.243112787111</v>
+        <v>5330.210678402163</v>
       </c>
     </row>
     <row r="52">
@@ -848,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>5684.008511680583</v>
+        <v>5450.816427116769</v>
       </c>
     </row>
     <row r="53">
@@ -856,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>5813.276184489253</v>
+        <v>5574.780765486896</v>
       </c>
     </row>
     <row r="54">
@@ -864,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>5946.12364117331</v>
+        <v>5702.178023549769</v>
       </c>
     </row>
     <row r="55">
@@ -872,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>6082.627785216298</v>
+        <v>5833.081949747277</v>
       </c>
     </row>
     <row r="56">
@@ -880,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>6222.864750584927</v>
+        <v>5967.565554574658</v>
       </c>
     </row>
     <row r="57">
@@ -888,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>6366.909733088915</v>
+        <v>6105.700948858988</v>
       </c>
     </row>
     <row r="58">
@@ -896,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>6514.836816385246</v>
+        <v>6247.559176901772</v>
       </c>
     </row>
     <row r="59">
@@ -904,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>6666.718792865511</v>
+        <v>6393.210044714568</v>
       </c>
     </row>
     <row r="60">
@@ -912,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>6822.626979772488</v>
+        <v>6542.721943679559</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>6982.631030869284</v>
+        <v>6696.161669945166</v>
       </c>
     </row>
     <row r="62">
@@ -928,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>7146.798744021672</v>
+        <v>6853.594239902499</v>
       </c>
     </row>
     <row r="63">
@@ -936,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>7315.195865096945</v>
+        <v>7015.082702129463</v>
       </c>
     </row>
     <row r="64">
@@ -944,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>7487.885888639536</v>
+        <v>7180.687946243853</v>
       </c>
     </row>
     <row r="65">
@@ -952,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>7664.929855726012</v>
+        <v>7350.468509051553</v>
       </c>
     </row>
     <row r="66">
@@ -960,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>7846.386149575163</v>
+        <v>7524.480378541918</v>
       </c>
     </row>
     <row r="67">
@@ -968,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>8032.310289356684</v>
+        <v>7702.776796155658</v>
       </c>
     </row>
     <row r="68">
@@ -976,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>8222.754722809803</v>
+        <v>7885.408057911507</v>
       </c>
     </row>
     <row r="69">
@@ -984,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>8417.768618237214</v>
+        <v>8072.421314933791</v>
       </c>
     </row>
     <row r="70">
@@ -992,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>8617.397656473433</v>
+        <v>8263.860373955498</v>
       </c>
     </row>
     <row r="71">
@@ -1000,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>8821.683823469219</v>
+        <v>8459.765498412131</v>
       </c>
     </row>
     <row r="72">
@@ -1008,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>9030.665204173678</v>
+        <v>8660.173210780002</v>
       </c>
     </row>
     <row r="73">
@@ -1016,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>9244.375778357426</v>
+        <v>8865.116096775946</v>
       </c>
     </row>
     <row r="74">
@@ -1024,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>9462.84521912194</v>
+        <v>9074.622612133035</v>
       </c>
     </row>
     <row r="75">
@@ -1032,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>9686.098694794307</v>
+        <v>9288.716892622782</v>
       </c>
     </row>
     <row r="76">
@@ -1040,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>9914.156674957852</v>
+        <v>9507.418568043562</v>
       </c>
     </row>
     <row r="77">
@@ -1048,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>10147.03474137198</v>
+        <v>9730.742580897655</v>
       </c>
     </row>
     <row r="78">
@@ -1056,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>10384.74340455889</v>
+        <v>9958.699010502656</v>
       </c>
     </row>
     <row r="79">
@@ -1064,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>10627.28792681703</v>
+        <v>10191.29290326601</v>
       </c>
     </row>
     <row r="80">
@@ -1072,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>10874.66815247013</v>
+        <v>10428.52410989823</v>
       </c>
     </row>
     <row r="81">
@@ -1080,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>11126.87834612269</v>
+        <v>10670.3871303041</v>
       </c>
     </row>
     <row r="82">
@@ -1088,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>11383.90703972241</v>
+        <v>10916.87096691951</v>
       </c>
     </row>
     <row r="83">
@@ -1096,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>11645.73688921599</v>
+        <v>11167.95898724817</v>
       </c>
     </row>
     <row r="84">
@@ -1104,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>11912.34454158532</v>
+        <v>11423.62879635268</v>
       </c>
     </row>
     <row r="85">
@@ -1112,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>12183.70051303352</v>
+        <v>11683.85212003816</v>
       </c>
     </row>
     <row r="86">
@@ -1120,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>12459.76907909642</v>
+        <v>11948.59469947199</v>
       </c>
     </row>
     <row r="87">
@@ -1128,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>12740.50817739737</v>
+        <v>12217.81619792825</v>
       </c>
     </row>
     <row r="88">
@@ -1136,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>13025.86932382195</v>
+        <v>12491.47012040137</v>
       </c>
     </row>
     <row r="89">
@@ -1144,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>13315.79754279069</v>
+        <v>12769.50374673954</v>
       </c>
     </row>
     <row r="90">
@@ -1152,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>13610.23131228643</v>
+        <v>13051.85807892732</v>
       </c>
     </row>
     <row r="91">
@@ -1160,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>13909.10252435031</v>
+        <v>13338.46780320242</v>
       </c>
     </row>
     <row r="92">
@@ -1168,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>14212.33646161456</v>
+        <v>13629.26126755116</v>
       </c>
     </row>
     <row r="93">
@@ -1176,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>14519.85179045987</v>
+        <v>13924.16047514658</v>
       </c>
     </row>
     <row r="94">
@@ -1184,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>14831.56057136172</v>
+        <v>14223.08109427035</v>
       </c>
     </row>
     <row r="95">
@@ -1192,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>15147.36828690906</v>
+        <v>14525.93248518192</v>
       </c>
     </row>
     <row r="96">
@@ -1200,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>15467.1738879333</v>
+        <v>14832.61774435502</v>
       </c>
     </row>
     <row r="97">
@@ -1208,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>15790.86985817755</v>
+        <v>15143.0337664938</v>
       </c>
     </row>
     <row r="98">
@@ -1216,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>16118.34229783202</v>
+        <v>15457.07132464109</v>
       </c>
     </row>
     <row r="99">
@@ -1224,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>16449.47102623902</v>
+        <v>15774.61516866983</v>
       </c>
     </row>
     <row r="100">
@@ -1232,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>16784.12970399808</v>
+        <v>16095.54414237873</v>
       </c>
     </row>
     <row r="101">
@@ -1240,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>17122.18597463026</v>
+        <v>16419.7313193446</v>
       </c>
     </row>
     <row r="102">
@@ -1248,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>17463.50162595011</v>
+        <v>16747.04415767395</v>
       </c>
     </row>
     <row r="103">
@@ -1256,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>17807.93277113913</v>
+        <v>17077.34467364763</v>
       </c>
     </row>
     <row r="104">
@@ -1264,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>18155.33004951671</v>
+        <v>17410.48963425507</v>
       </c>
     </row>
     <row r="105">
@@ -1272,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>18505.53884694675</v>
+        <v>17746.33076855837</v>
       </c>
     </row>
     <row r="106">
@@ -1280,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>18858.39953564752</v>
+        <v>18084.71499766384</v>
       </c>
     </row>
     <row r="107">
@@ -1288,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>19213.74773324269</v>
+        <v>18425.48468314508</v>
       </c>
     </row>
     <row r="108">
@@ -1296,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>19571.41458068153</v>
+        <v>18768.47789356135</v>
       </c>
     </row>
     <row r="109">
@@ -1304,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>19931.22703869562</v>
+        <v>19113.52868875175</v>
       </c>
     </row>
     <row r="110">
@@ -1312,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>20293.00820231349</v>
+        <v>19460.46742144669</v>
       </c>
     </row>
     <row r="111">
@@ -1320,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>20656.57763290306</v>
+        <v>19809.12105568785</v>
       </c>
     </row>
     <row r="112">
@@ -1328,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>21021.75170716378</v>
+        <v>20159.31350150264</v>
       </c>
     </row>
     <row r="113">
@@ -1336,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>21388.34398236478</v>
+        <v>20510.86596515806</v>
       </c>
     </row>
     <row r="114">
@@ -1344,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>21756.16557712525</v>
+        <v>20863.59731431924</v>
       </c>
     </row>
     <row r="115">
@@ -1352,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>22125.0255668937</v>
+        <v>21217.32445730367</v>
       </c>
     </row>
     <row r="116">
@@ -1360,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>22494.73139326389</v>
+        <v>21571.86273560467</v>
       </c>
     </row>
     <row r="117">
@@ -1368,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>22865.08928618262</v>
+        <v>21927.02632877755</v>
       </c>
     </row>
     <row r="118">
@@ -1376,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>23235.90469804915</v>
+        <v>22282.6286707298</v>
       </c>
     </row>
     <row r="119">
@@ -1384,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>23606.98274862189</v>
+        <v>22638.48287637496</v>
       </c>
     </row>
     <row r="120">
@@ -1392,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>23978.12867963616</v>
+        <v>22994.40217759922</v>
       </c>
     </row>
     <row r="121">
@@ -1400,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>24349.1483179406</v>
+        <v>23350.20036739728</v>
       </c>
     </row>
     <row r="122">
@@ -1408,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>24719.8485459383</v>
+        <v>23705.69225101313</v>
       </c>
     </row>
     <row r="123">
@@ -1416,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>25090.03777805463</v>
+        <v>24060.69410286025</v>
       </c>
     </row>
     <row r="124">
@@ -1424,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>25459.52644192941</v>
+        <v>24415.02412797251</v>
       </c>
     </row>
     <row r="125">
@@ -1432,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>25828.12746298323</v>
+        <v>24768.50292669059</v>
       </c>
     </row>
     <row r="126">
@@ -1440,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>26195.65675098415</v>
+        <v>25120.95396126682</v>
       </c>
     </row>
     <row r="127">
@@ -1448,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>26561.93368719749</v>
+        <v>25472.2040230292</v>
       </c>
     </row>
     <row r="128">
@@ -1456,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>26926.78161071623</v>
+        <v>25822.08369875956</v>
       </c>
     </row>
     <row r="129">
@@ -1464,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>27290.02830249606</v>
+        <v>26170.42783487062</v>
       </c>
     </row>
     <row r="130">
@@ -1472,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>27651.50646568882</v>
+        <v>26517.0759980333</v>
       </c>
     </row>
     <row r="131">
@@ -1480,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>28011.05420075323</v>
+        <v>26861.87293079551</v>
       </c>
     </row>
     <row r="132">
@@ -1488,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>28368.51547395723</v>
+        <v>27204.66900086373</v>
       </c>
     </row>
     <row r="133">
@@ -1496,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>28723.74057777298</v>
+        <v>27545.32064260988</v>
       </c>
     </row>
     <row r="134">
@@ -1504,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>29076.58658172361</v>
+        <v>27883.69078942164</v>
       </c>
     </row>
     <row r="135">
@@ -1512,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>29426.91777232239</v>
+        <v>28219.64929559259</v>
       </c>
     </row>
     <row r="136">
@@ -1520,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>29774.60608060908</v>
+        <v>28553.07334631858</v>
       </c>
     </row>
     <row r="137">
@@ -1528,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>30119.53149602195</v>
+        <v>28883.84785459015</v>
       </c>
     </row>
     <row r="138">
@@ -1536,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>30461.58246520795</v>
+        <v>29211.86584364116</v>
       </c>
     </row>
     <row r="139">
@@ -1544,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>30800.65627448904</v>
+        <v>29537.02881372403</v>
       </c>
     </row>
     <row r="140">
@@ -1552,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>31136.65941477959</v>
+        <v>29859.24709205611</v>
       </c>
     </row>
     <row r="141">
@@ -1560,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>31469.50792772138</v>
+        <v>30178.44016475404</v>
       </c>
     </row>
     <row r="142">
@@ -1568,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>31799.12773191533</v>
+        <v>30494.53698968158</v>
       </c>
     </row>
     <row r="143">
@@ -1576,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>32125.45492820401</v>
+        <v>30807.47628920761</v>
       </c>
     </row>
     <row r="144">
@@ -1584,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>32448.43608294771</v>
+        <v>31117.20682186044</v>
       </c>
     </row>
     <row r="145">
@@ -1592,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>32768.02848841745</v>
+        <v>31423.68763203805</v>
       </c>
     </row>
     <row r="146">
@@ -1600,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>33084.20039938503</v>
+        <v>31726.88827689165</v>
       </c>
     </row>
     <row r="147">
@@ -1608,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>33396.93124519791</v>
+        <v>32026.78902970016</v>
       </c>
     </row>
     <row r="148">
@@ -1616,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>33706.21181656084</v>
+        <v>32323.38105898878</v>
       </c>
     </row>
     <row r="149">
@@ -1624,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>34012.04442648189</v>
+        <v>32616.66658287213</v>
       </c>
     </row>
     <row r="150">
@@ -1632,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>34314.44304482487</v>
+        <v>32906.6589980865</v>
       </c>
     </row>
     <row r="151">
@@ -1640,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>34613.43340600983</v>
+        <v>33193.38298327187</v>
       </c>
     </row>
     <row r="152">
@@ -1648,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>34909.05308958216</v>
+        <v>33476.87457623549</v>
       </c>
     </row>
     <row r="153">
@@ -1656,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>35201.35157332807</v>
+        <v>33757.18122488836</v>
       </c>
     </row>
     <row r="154">
@@ -1664,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>35490.3902588519</v>
+        <v>34034.3618117731</v>
       </c>
     </row>
     <row r="155">
@@ -1672,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>35776.24246950064</v>
+        <v>34308.48665207373</v>
       </c>
     </row>
     <row r="156">
@@ -1680,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>36058.99342070016</v>
+        <v>34579.63746516875</v>
       </c>
     </row>
     <row r="157">
@@ -1688,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>36338.74016286634</v>
+        <v>34847.90731988451</v>
       </c>
     </row>
     <row r="158">
@@ -1696,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>36615.59149704366</v>
+        <v>35113.40055359482</v>
       </c>
     </row>
     <row r="159">
@@ -1704,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>36889.66786369455</v>
+        <v>35376.23266557268</v>
       </c>
     </row>
     <row r="160">
@@ -1712,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>37161.10120497531</v>
+        <v>35636.53018491664</v>
       </c>
     </row>
     <row r="161">
@@ -1720,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>37430.03480106204</v>
+        <v>35894.43051359149</v>
       </c>
     </row>
     <row r="162">
@@ -1728,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>37696.62308110337</v>
+        <v>36150.08174513697</v>
       </c>
     </row>
     <row r="163">
@@ -1736,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>37961.03140949356</v>
+        <v>36403.64245970909</v>
       </c>
     </row>
     <row r="164">
@@ -1744,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>38223.43584824992</v>
+        <v>36655.28149620635</v>
       </c>
     </row>
     <row r="165">
@@ -1752,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>38484.0228963103</v>
+        <v>36905.17770226276</v>
       </c>
     </row>
     <row r="166">
@@ -1760,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>38742.98920673162</v>
+        <v>37153.51966304865</v>
       </c>
     </row>
     <row r="167">
@@ -1768,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>39000.54128276775</v>
+        <v>37400.50540981712</v>
       </c>
     </row>
     <row r="168">
@@ -1776,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>39256.89515388707</v>
+        <v>37646.34210921343</v>
       </c>
     </row>
     <row r="169">
@@ -1784,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>39512.27603289079</v>
+        <v>37891.24573446037</v>
       </c>
     </row>
     <row r="170">
@@ -1792,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>39766.91795533299</v>
+        <v>38135.44071957134</v>
       </c>
     </row>
     <row r="171">
@@ -1800,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>40021.06340247292</v>
+        <v>38379.15959777156</v>
       </c>
     </row>
     <row r="172">
@@ -1808,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>40274.96290908596</v>
+        <v>38622.64262539885</v>
       </c>
     </row>
     <row r="173">
@@ -1816,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>40528.87465747388</v>
+        <v>38866.13739257006</v>
       </c>
     </row>
     <row r="174">
@@ -1824,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>40783.06405906791</v>
+        <v>39109.89842194931</v>
       </c>
     </row>
     <row r="175">
@@ -1832,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>41037.8033250334</v>
+        <v>39354.18675696902</v>
       </c>
     </row>
     <row r="176">
@@ -1840,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>41293.37102734634</v>
+        <v>39599.26954091369</v>
       </c>
     </row>
     <row r="177">
@@ -1848,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>41550.05165180666</v>
+        <v>39845.41958827124</v>
       </c>
     </row>
     <row r="178">
@@ -1856,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>41808.13514446916</v>
+        <v>40092.91494977212</v>
       </c>
     </row>
     <row r="179">
@@ -1864,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>42067.9164530103</v>
+        <v>40342.03847257193</v>
       </c>
     </row>
     <row r="180">
@@ -1872,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>42329.69506451629</v>
+        <v>40593.07735700222</v>
       </c>
     </row>
     <row r="181">
@@ -1880,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>42593.77454121868</v>
+        <v>40846.32271135307</v>
       </c>
     </row>
     <row r="182">
@@ -1888,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>42860.46205566813</v>
+        <v>41102.06910611668</v>
       </c>
     </row>
     <row r="183">
@@ -1896,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>43130.0679268246</v>
+        <v>41360.61412911004</v>
       </c>
     </row>
     <row r="184">
@@ -1904,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>43402.90515853887</v>
+        <v>41622.25794289058</v>
       </c>
     </row>
     <row r="185">
@@ -1912,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>43679.28898189661</v>
+        <v>41887.30284587619</v>
       </c>
     </row>
     <row r="186">
@@ -1920,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>43959.53640280433</v>
+        <v>42156.05283849173</v>
       </c>
     </row>
     <row r="187">
@@ -1928,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>44243.96575623052</v>
+        <v>42428.81319569805</v>
       </c>
     </row>
     <row r="188">
@@ -1936,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>44532.89626846752</v>
+        <v>42705.8900472123</v>
       </c>
     </row>
     <row r="189">
@@ -1944,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>44826.64762866747</v>
+        <v>42987.58996662222</v>
       </c>
     </row>
     <row r="190">
@@ -1952,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>45125.53957099844</v>
+        <v>43274.21957068467</v>
       </c>
     </row>
     <row r="191">
@@ -1960,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>45429.89146855852</v>
+        <v>43566.08512989969</v>
       </c>
     </row>
     <row r="192">
@@ -1968,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>45740.02194023872</v>
+        <v>43863.49219150245</v>
       </c>
     </row>
     <row r="193">
@@ -1976,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>46056.24847168226</v>
+        <v>44166.74521597283</v>
       </c>
     </row>
     <row r="194">
@@ -1984,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>46378.88705129473</v>
+        <v>44476.14722797885</v>
       </c>
     </row>
     <row r="195">
@@ -1992,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>46708.25182236097</v>
+        <v>44791.9994827656</v>
       </c>
     </row>
     <row r="196">
@@ -2000,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>47044.65475217276</v>
+        <v>45114.60114885742</v>
       </c>
     </row>
     <row r="197">
@@ -2008,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>47388.40531899457</v>
+        <v>45444.24900786618</v>
       </c>
     </row>
     <row r="198">
@@ -2016,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>47739.81021766779</v>
+        <v>45781.23717217331</v>
       </c>
     </row>
     <row r="199">
@@ -2024,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>48099.17308457506</v>
+        <v>46125.8568211778</v>
       </c>
     </row>
     <row r="200">
@@ -2032,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>48466.79424257462</v>
+        <v>46478.39595669489</v>
       </c>
     </row>
     <row r="201">
@@ -2040,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>48842.97046651717</v>
+        <v>46839.1391780928</v>
       </c>
     </row>
     <row r="202">
@@ -2048,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>49227.99476981116</v>
+        <v>47208.3674776144</v>
       </c>
     </row>
     <row r="203">
@@ -2056,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>49622.16728540042</v>
+        <v>47586.36867495191</v>
       </c>
     </row>
     <row r="204">
@@ -2064,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>50025.75202541126</v>
+        <v>47973.39595087242</v>
       </c>
     </row>
     <row r="205">
@@ -2072,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>50439.03959989221</v>
+        <v>48369.7279928591</v>
       </c>
     </row>
     <row r="206">
@@ -2080,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>50862.30628226002</v>
+        <v>48775.62973993786</v>
       </c>
     </row>
     <row r="207">
@@ -2088,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>51295.82384578873</v>
+        <v>49191.36181561471</v>
       </c>
     </row>
     <row r="208">
@@ -2096,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>51739.85948292329</v>
+        <v>49617.18045049968</v>
       </c>
     </row>
     <row r="209">
@@ -2104,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>52194.67574714548</v>
+        <v>50053.33742655762</v>
       </c>
     </row>
     <row r="210">
@@ -2112,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>52660.53051730741</v>
+        <v>50500.08004290507</v>
       </c>
     </row>
     <row r="211">
@@ -2120,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>53137.67698431275</v>
+        <v>50957.65110303785</v>
       </c>
     </row>
     <row r="212">
@@ -2128,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>53626.36365995972</v>
+        <v>51426.28892331128</v>
       </c>
     </row>
     <row r="213">
@@ -2136,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>54126.83440767684</v>
+        <v>51906.22736241493</v>
       </c>
     </row>
     <row r="214">
@@ -2144,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>54639.32849486384</v>
+        <v>52397.69587156627</v>
       </c>
     </row>
     <row r="215">
@@ -2152,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>55164.08066649752</v>
+        <v>52900.91956509666</v>
       </c>
     </row>
     <row r="216">
@@ -2160,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>55701.32123953636</v>
+        <v>53416.11931098301</v>
       </c>
     </row>
     <row r="217">
@@ -2168,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>56251.27621770738</v>
+        <v>53943.51184092539</v>
       </c>
     </row>
     <row r="218">
@@ -2176,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>56814.16742616658</v>
+        <v>54483.30987948284</v>
       </c>
     </row>
     <row r="219">
@@ -2184,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>57390.21266544938</v>
+        <v>55035.72229170786</v>
       </c>
     </row>
     <row r="220">
@@ -2192,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>57979.62588415096</v>
+        <v>55600.95424874243</v>
       </c>
     </row>
     <row r="221">
@@ -2200,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>58582.61736975305</v>
+        <v>56179.20741081583</v>
       </c>
     </row>
     <row r="222">
@@ -2208,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>59199.39395677451</v>
+        <v>56770.68012685572</v>
       </c>
     </row>
     <row r="223">
@@ -2216,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>59830.15925179621</v>
+        <v>57375.56765028115</v>
       </c>
     </row>
     <row r="224">
@@ -2224,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>60475.11387440076</v>
+        <v>57994.06237005741</v>
       </c>
     </row>
     <row r="225">
@@ -2232,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>61134.45571349801</v>
+        <v>58626.35405650565</v>
       </c>
     </row>
     <row r="226">
@@ -2240,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>61808.38019802529</v>
+        <v>59272.63012089729</v>
       </c>
     </row>
     <row r="227">
@@ -2248,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>62497.08058154269</v>
+        <v>59933.07588837351</v>
       </c>
     </row>
     <row r="228">
@@ -2256,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>63200.74823960986</v>
+        <v>60607.87488312191</v>
       </c>
     </row>
     <row r="229">
@@ -2264,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>63919.57297934912</v>
+        <v>61297.20912523939</v>
       </c>
     </row>
     <row r="230">
@@ -2272,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>64653.74336025339</v>
+        <v>62001.25943837874</v>
       </c>
     </row>
     <row r="231">
@@ -2280,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>65403.44702548997</v>
+        <v>62720.20576746033</v>
       </c>
     </row>
     <row r="232">
@@ -2288,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>66168.8710427193</v>
+        <v>63454.22750550833</v>
       </c>
     </row>
     <row r="233">
@@ -2296,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>66950.20225372532</v>
+        <v>64203.50382893724</v>
       </c>
     </row>
     <row r="234">
@@ -2304,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>67747.62763195268</v>
+        <v>64968.21404042077</v>
       </c>
     </row>
     <row r="235">
@@ -2312,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>68561.334647026</v>
+        <v>65748.53791845634</v>
       </c>
     </row>
     <row r="236">
@@ -2320,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>69391.51163552946</v>
+        <v>66544.65607293302</v>
       </c>
     </row>
     <row r="237">
@@ -2328,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>70238.34817708997</v>
+        <v>67356.75030578562</v>
       </c>
     </row>
     <row r="238">
@@ -2336,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>71102.03547495228</v>
+        <v>68185.00397595615</v>
       </c>
     </row>
     <row r="239">
@@ -2344,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>71982.76674022625</v>
+        <v>69029.60236787713</v>
       </c>
     </row>
     <row r="240">
@@ -2352,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>72880.73757893709</v>
+        <v>69890.7330626427</v>
       </c>
     </row>
     <row r="241">
@@ -2360,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>73796.14638101251</v>
+        <v>70768.58631103707</v>
       </c>
     </row>
     <row r="242">
@@ -2368,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>74729.19471048823</v>
+        <v>71663.35540773153</v>
       </c>
     </row>
     <row r="243">
@@ -2376,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>75680.08769599449</v>
+        <v>72575.23706575092</v>
       </c>
     </row>
     <row r="244">
@@ -2384,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>76649.03442073667</v>
+        <v>73504.43179045482</v>
       </c>
     </row>
     <row r="245">
@@ -2392,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>77636.24831123969</v>
+        <v>74451.14425233337</v>
       </c>
     </row>
     <row r="246">
@@ -2400,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>78641.94752391663</v>
+        <v>75415.5836577165</v>
       </c>
     </row>
     <row r="247">
@@ -2408,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>79666.3553288046</v>
+        <v>76397.96411676669</v>
       </c>
     </row>
     <row r="248">
@@ -2416,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>80709.70048956206</v>
+        <v>77398.50500788652</v>
       </c>
     </row>
     <row r="249">
@@ -2424,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>81772.21763900104</v>
+        <v>78417.43133784426</v>
       </c>
     </row>
     <row r="250">
@@ -2432,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>82854.1476493466</v>
+        <v>79454.97409684314</v>
       </c>
     </row>
     <row r="251">
@@ -2440,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>83955.73799646784</v>
+        <v>80511.37060780938</v>
       </c>
     </row>
     <row r="252">
@@ -2448,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>85077.24311721855</v>
+        <v>81586.86486907255</v>
       </c>
     </row>
     <row r="253">
@@ -2456,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>86218.92475922572</v>
+        <v>82681.70788980379</v>
       </c>
     </row>
     <row r="254">
@@ -2464,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>87381.05232225551</v>
+        <v>83796.15801737669</v>
       </c>
     </row>
     <row r="255">
@@ -2472,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>88563.90319034523</v>
+        <v>84930.48125587347</v>
       </c>
     </row>
     <row r="256">
@@ -2480,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>89767.76305401282</v>
+        <v>86084.95157507531</v>
       </c>
     </row>
     <row r="257">
@@ -2488,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>90992.92622166808</v>
+        <v>87259.8512090977</v>
       </c>
     </row>
     <row r="258">
@@ -2496,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>92239.6959194091</v>
+        <v>88455.47094388746</v>
       </c>
     </row>
     <row r="259">
@@ -2504,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>93508.38457841979</v>
+        <v>89672.11039282936</v>
       </c>
     </row>
     <row r="260">
@@ -2512,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>94799.31410917718</v>
+        <v>90910.07825970401</v>
       </c>
     </row>
     <row r="261">
@@ -2520,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>96112.81616148418</v>
+        <v>92169.6925880523</v>
       </c>
     </row>
     <row r="262">
@@ -2528,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>97449.23236968147</v>
+        <v>93451.2809963274</v>
       </c>
     </row>
     <row r="263">
@@ -2536,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>98808.91458195187</v>
+        <v>94755.18089779162</v>
       </c>
     </row>
     <row r="264">
@@ -2544,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>100192.225072919</v>
+        <v>96081.73970439291</v>
       </c>
     </row>
     <row r="265">
@@ -2552,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>101599.5367387565</v>
+        <v>97431.31501386969</v>
       </c>
     </row>
     <row r="266">
@@ -2560,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>103031.2332734951</v>
+        <v>98804.27477882478</v>
       </c>
     </row>
     <row r="267">
@@ -2568,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>104487.7093260457</v>
+        <v>100200.997457306</v>
       </c>
     </row>
     <row r="268">
@@ -2576,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>105969.3706365947</v>
+        <v>101621.8721436066</v>
       </c>
     </row>
     <row r="269">
@@ -2584,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>107476.6341514509</v>
+        <v>103067.2986783996</v>
       </c>
     </row>
     <row r="270">
@@ -2592,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>109009.9281154171</v>
+        <v>104537.68773732</v>
       </c>
     </row>
     <row r="271">
@@ -2600,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>110569.6921404345</v>
+        <v>106033.4608967935</v>
       </c>
     </row>
     <row r="272">
@@ -2608,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>112156.3772495764</v>
+        <v>107555.0506762245</v>
       </c>
     </row>
     <row r="273">
@@ -2616,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>113770.4458950931</v>
+        <v>109102.9005553014</v>
       </c>
     </row>
     <row r="274">
@@ -2624,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>115412.3719494769</v>
+        <v>110677.4649654275</v>
       </c>
     </row>
     <row r="275">
@@ -2632,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>117082.6406682979</v>
+        <v>112279.2092540821</v>
       </c>
     </row>
     <row r="276">
@@ -2640,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>118781.7486235434</v>
+        <v>113908.6096208945</v>
       </c>
     </row>
     <row r="277">
@@ -2648,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>120510.2036063215</v>
+        <v>115566.153024339</v>
       </c>
     </row>
     <row r="278">
@@ -2656,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>122268.5244975098</v>
+        <v>117252.3370576909</v>
       </c>
     </row>
     <row r="279">
@@ -2664,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>124057.2411051274</v>
+        <v>118967.6697930699</v>
       </c>
     </row>
     <row r="280">
@@ -2672,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>125876.8939670181</v>
+        <v>120712.6695922189</v>
       </c>
     </row>
     <row r="281">
@@ -2680,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>127728.0341175417</v>
+        <v>122487.8648827667</v>
       </c>
     </row>
     <row r="282">
@@ -2688,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>129611.2228168073</v>
+        <v>124293.7938985701</v>
       </c>
     </row>
     <row r="283">
@@ -2696,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>131527.0312410756</v>
+        <v>126131.0043828175</v>
       </c>
     </row>
     <row r="284">
@@ -2704,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>133476.0401328611</v>
+        <v>128000.0532524857</v>
       </c>
     </row>
     <row r="285">
@@ -2712,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>135458.8394092924</v>
+        <v>129901.5062227684</v>
       </c>
     </row>
     <row r="286">
@@ -2720,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>137476.0277273002</v>
+        <v>131835.937390102</v>
       </c>
     </row>
     <row r="287">
@@ -2728,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>139528.2120040155</v>
+        <v>133803.9287722408</v>
       </c>
     </row>
     <row r="288">
@@ -2736,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>141616.006891098</v>
+        <v>135806.0698041505</v>
       </c>
     </row>
     <row r="289">
@@ -2744,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>143740.0342013385</v>
+        <v>137842.9567881357</v>
       </c>
     </row>
     <row r="290">
@@ -2752,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>145900.9222861647</v>
+        <v>139915.1922968839</v>
       </c>
     </row>
     <row r="291">
@@ -2760,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>148099.3053625461</v>
+        <v>142023.3845279846</v>
       </c>
     </row>
     <row r="292">
@@ -2768,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>150335.8227878479</v>
+        <v>144168.1466085332</v>
       </c>
     </row>
     <row r="293">
@@ -2776,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>152611.1182812306</v>
+        <v>146350.0958484734</v>
       </c>
     </row>
     <row r="294">
@@ -2784,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>154925.839090306</v>
+        <v>148569.852941442</v>
       </c>
     </row>
     <row r="295">
@@ -2792,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>157280.6351014748</v>
+        <v>150828.0411116059</v>
       </c>
     </row>
     <row r="296">
@@ -2800,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>159676.1578929728</v>
+        <v>153125.2852055578</v>
       </c>
     </row>
     <row r="297">
@@ -2808,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>162113.0597292029</v>
+        <v>155462.2107279065</v>
       </c>
     </row>
     <row r="298">
@@ -2816,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>164591.9924952603</v>
+        <v>157839.4428195151</v>
       </c>
     </row>
     <row r="299">
@@ -2824,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>167113.6065705984</v>
+        <v>160257.6051773752</v>
       </c>
     </row>
     <row r="300">
@@ -2832,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>169678.5496409663</v>
+        <v>162717.3189152855</v>
       </c>
     </row>
     <row r="301">
@@ -2840,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>172287.4654476411</v>
+        <v>165219.2013643995</v>
       </c>
     </row>
     <row r="302">
@@ -2848,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>174940.992473232</v>
+        <v>167763.8648129439</v>
       </c>
     </row>
     <row r="303">
@@ -2856,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>177639.7625637293</v>
+        <v>170351.9151848011</v>
       </c>
     </row>
     <row r="304">
@@ -2864,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>180384.3994860367</v>
+        <v>172983.950656219</v>
       </c>
     </row>
     <row r="305">
@@ -2872,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>183175.5174209028</v>
+        <v>175660.560210572</v>
       </c>
     </row>
     <row r="306">
@@ -2880,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>186013.7193912785</v>
+        <v>178382.3221311968</v>
       </c>
     </row>
     <row r="307">
@@ -2888,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>188899.595626051</v>
+        <v>181149.8024322551</v>
       </c>
     </row>
     <row r="308">
@@ -2896,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>191833.7218595652</v>
+        <v>183963.5532280196</v>
       </c>
     </row>
     <row r="309">
@@ -2904,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>194816.6575676917</v>
+        <v>186824.1110413086</v>
       </c>
     </row>
     <row r="310">
@@ -2912,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>197848.9441411225</v>
+        <v>189731.9950517242</v>
       </c>
     </row>
     <row r="311">
@@ -2920,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>200931.1029969478</v>
+        <v>192687.7052847035</v>
       </c>
     </row>
     <row r="312">
@@ -2928,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>204063.63363026</v>
+        <v>195691.7207430576</v>
       </c>
     </row>
     <row r="313">
@@ -2936,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>207247.0116072914</v>
+        <v>198744.4974824426</v>
       </c>
     </row>
     <row r="314">
@@ -2944,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>210481.6865020608</v>
+        <v>201846.4666326573</v>
       </c>
     </row>
     <row r="315">
@@ -2952,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>213768.0797792405</v>
+        <v>204998.0323673681</v>
       </c>
     </row>
     <row r="316">
@@ -2960,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>217106.5826258483</v>
+        <v>208199.5698247576</v>
       </c>
     </row>
     <row r="317">
@@ -2968,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>220497.553734873</v>
+        <v>211451.4229820789</v>
       </c>
     </row>
     <row r="318">
@@ -2976,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>223941.3170447031</v>
+        <v>214753.9024878272</v>
       </c>
     </row>
     <row r="319">
@@ -2984,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>227438.159437979</v>
+        <v>218107.2834549981</v>
       </c>
     </row>
     <row r="320">
@@ -2992,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>230988.3284045114</v>
+        <v>221511.8032198873</v>
       </c>
     </row>
     <row r="321">
@@ -3000,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>234592.02967331</v>
+        <v>224967.659071268</v>
       </c>
     </row>
     <row r="322">
@@ -3008,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>238249.4248185887</v>
+        <v>228475.0059546117</v>
       </c>
     </row>
     <row r="323">
@@ -3016,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>241960.6288460985</v>
+        <v>232033.9541574446</v>
       </c>
     </row>
     <row r="324">
@@ -3024,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>245725.7077655194</v>
+        <v>235644.5669813341</v>
       </c>
     </row>
     <row r="325">
@@ -3032,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>249544.676156317</v>
+        <v>239306.8584076086</v>
       </c>
     </row>
     <row r="326">
@@ -3040,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>253417.4947336694</v>
+        <v>243020.7907631451</v>
       </c>
     </row>
     <row r="327">
@@ -3048,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>257344.067922623</v>
+        <v>246786.2723940472</v>
       </c>
     </row>
     <row r="328">
@@ -3056,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>261324.2414486371</v>
+        <v>250603.1553550402</v>
       </c>
     </row>
     <row r="329">
@@ -3064,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>265357.7999530583</v>
+        <v>254471.233122773</v>
       </c>
     </row>
     <row r="330">
@@ -3072,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>269444.4646428486</v>
+        <v>258390.2383419684</v>
       </c>
     </row>
     <row r="331">
@@ -3080,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>273583.8909841669</v>
+        <v>262359.8406136276</v>
       </c>
     </row>
     <row r="332">
@@ -3088,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>277775.666449892</v>
+        <v>266379.6443349636</v>
       </c>
     </row>
     <row r="333">
@@ -3096,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>282019.3083314311</v>
+        <v>270449.1866009823</v>
       </c>
     </row>
     <row r="334">
@@ -3104,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>286314.2616259628</v>
+        <v>274567.9351784032</v>
       </c>
     </row>
     <row r="335">
@@ -3112,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>290659.8970101387</v>
+        <v>278735.2865624922</v>
       </c>
     </row>
     <row r="336">
@@ -3120,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>295055.5089119544</v>
+        <v>282950.564128036</v>
       </c>
     </row>
     <row r="337">
@@ -3128,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>299500.3136927409</v>
+        <v>287213.0163859188</v>
       </c>
     </row>
     <row r="338">
@@ -3136,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>303993.4479513016</v>
+        <v>291521.8153568343</v>
       </c>
     </row>
     <row r="339">
@@ -3144,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>308533.9669625402</v>
+        <v>295876.0550739697</v>
       </c>
     </row>
     <row r="340">
@@ -3152,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>313120.8432635207</v>
+        <v>300274.7502270747</v>
       </c>
     </row>
     <row r="341">
@@ -3160,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>317752.9653990747</v>
+        <v>304716.8349595312</v>
       </c>
     </row>
     <row r="342">
@@ -3168,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>322429.1368399962</v>
+        <v>309201.16183093</v>
       </c>
     </row>
     <row r="343">
@@ -3176,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>327148.0750866173</v>
+        <v>313726.5009574239</v>
       </c>
     </row>
     <row r="344">
@@ -3184,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>331908.410970175</v>
+        <v>318291.5393417556</v>
       </c>
     </row>
     <row r="345">
@@ -3192,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>336708.688164869</v>
+        <v>322894.8804053346</v>
       </c>
     </row>
     <row r="346">
@@ -3200,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>341547.3629223738</v>
+        <v>327535.0437336411</v>
       </c>
     </row>
     <row r="347">
@@ -3208,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>346422.8040417511</v>
+        <v>332210.4650473726</v>
       </c>
     </row>
     <row r="348">
@@ -3216,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>351333.2930854368</v>
+        <v>336919.4964095696</v>
       </c>
     </row>
     <row r="349">
@@ -3224,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>356277.0248536859</v>
+        <v>341660.4066805966</v>
       </c>
     </row>
     <row r="350">
@@ -3232,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>361252.1081271967</v>
+        <v>346431.3822302987</v>
       </c>
     </row>
     <row r="351">
@@ -3240,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>366256.5666891423</v>
+        <v>351230.5279181035</v>
       </c>
     </row>
     <row r="352">
@@ -3248,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>371288.3406353237</v>
+        <v>356055.8683494243</v>
       </c>
     </row>
     <row r="353">
@@ -3256,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>376345.287981816</v>
+        <v>360905.3494173502</v>
       </c>
     </row>
     <row r="354">
@@ -3264,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>381425.1865776388</v>
+        <v>365776.840136848</v>
       </c>
     </row>
     <row r="355">
@@ -3272,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>386525.7363298716</v>
+        <v>370668.1347785897</v>
       </c>
     </row>
     <row r="356">
@@ -3280,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>391644.5617469753</v>
+        <v>375576.9553079315</v>
       </c>
     </row>
     <row r="357">
@@ -3288,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>396779.2148054487</v>
+        <v>380500.9541339637</v>
       </c>
     </row>
     <row r="358">
@@ -3296,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>401927.1781436798</v>
+        <v>369050.8705624518</v>
       </c>
     </row>
     <row r="359">
@@ -3304,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>407085.868585467</v>
+        <v>373787.5972682611</v>
       </c>
     </row>
     <row r="360">
@@ -3312,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>412252.6409946749</v>
+        <v>378531.7448634123</v>
       </c>
     </row>
     <row r="361">
@@ -3320,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>417424.7924609547</v>
+        <v>383280.8315266414</v>
       </c>
     </row>
     <row r="362">
@@ -3328,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>422599.5668152668</v>
+        <v>388032.3265343774</v>
       </c>
     </row>
     <row r="363">
@@ -3336,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>427774.1594718476</v>
+        <v>392783.6547066528</v>
       </c>
     </row>
     <row r="364">
@@ -3344,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>432945.7225931808</v>
+        <v>397532.2011495968</v>
       </c>
     </row>
     <row r="365">
@@ -3352,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>438111.370571144</v>
+        <v>402275.3162882425</v>
       </c>
     </row>
     <row r="366">
@@ -3360,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>443268.1858173417</v>
+        <v>407010.3211832304</v>
       </c>
     </row>
     <row r="367">
@@ -3368,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>448413.2248540305</v>
+        <v>411734.5131235154</v>
       </c>
     </row>
     <row r="368">
@@ -3376,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>453543.5246941173</v>
+        <v>416445.1714845023</v>
       </c>
     </row>
     <row r="369">
@@ -3384,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>458656.1094993154</v>
+        <v>421139.5638415881</v>
       </c>
     </row>
     <row r="370">
@@ -3392,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>463747.9975017111</v>
+        <v>425814.9523255658</v>
       </c>
     </row>
     <row r="371">
@@ -3400,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>468816.2081742971</v>
+        <v>430468.6002066333</v>
       </c>
     </row>
     <row r="372">
@@ -3408,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>473857.769633732</v>
+        <v>435097.7786916309</v>
       </c>
     </row>
     <row r="373">
@@ -3416,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>478869.7262568558</v>
+        <v>439071.6719757121</v>
       </c>
     </row>
     <row r="374">
@@ -3424,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>483849.1464919504</v>
+        <v>443637.2610038228</v>
       </c>
     </row>
     <row r="375">
@@ -3432,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>488793.130843954</v>
+        <v>448170.3591652456</v>
       </c>
     </row>
     <row r="376">
@@ -3440,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>493698.8200112709</v>
+        <v>452668.3447901118</v>
       </c>
     </row>
     <row r="377">
@@ -3448,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>498563.4031515621</v>
+        <v>457128.6406404427</v>
       </c>
     </row>
     <row r="378">
@@ -3456,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>503384.1262521253</v>
+        <v>461548.7215848807</v>
       </c>
     </row>
     <row r="379">
@@ -3464,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>508158.3005797993</v>
+        <v>465926.1223463375</v>
       </c>
     </row>
     <row r="380">
@@ -3472,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>512883.3111844826</v>
+        <v>470258.4452987984</v>
       </c>
     </row>
     <row r="381">
@@ -3480,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>517556.6254297496</v>
+        <v>474543.3682889745</v>
       </c>
     </row>
     <row r="382">
@@ -3488,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>522175.8015231834</v>
+        <v>478778.652457693</v>
       </c>
     </row>
     <row r="383">
@@ -3496,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>526738.4970191835</v>
+        <v>546129.6083351235</v>
       </c>
     </row>
     <row r="384">
@@ -3504,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>531242.4772654956</v>
+        <v>550799.3960605077</v>
       </c>
     </row>
     <row r="385">
@@ -3512,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>535685.6237662366</v>
+        <v>555406.1105344964</v>
       </c>
     </row>
     <row r="386">
@@ -3520,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>540065.9424322629</v>
+        <v>559947.6842584553</v>
       </c>
     </row>
     <row r="387">
@@ -3528,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>544381.5716912011</v>
+        <v>564422.1871289331</v>
       </c>
     </row>
     <row r="388">
@@ -3536,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>548630.7904287963</v>
+        <v>568827.834671358</v>
       </c>
     </row>
     <row r="389">
@@ -3544,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>552812.0257338193</v>
+        <v>573162.9960700626</v>
       </c>
     </row>
     <row r="390">
@@ -3552,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>556923.8604192635</v>
+        <v>577426.2019663628</v>
       </c>
     </row>
     <row r="391">
@@ -3560,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>560965.0402925916</v>
+        <v>581616.1519964476</v>
       </c>
     </row>
     <row r="392">
@@ -3568,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>564934.4811490353</v>
+        <v>585731.7220421284</v>
       </c>
     </row>
     <row r="393">
@@ -3576,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>568831.2754616519</v>
+        <v>666142.534005104</v>
       </c>
     </row>
     <row r="394">
@@ -3584,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>572654.6987440904</v>
+        <v>670620.0389943835</v>
       </c>
     </row>
     <row r="395">
@@ -3592,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>576404.2155606172</v>
+        <v>675010.9941707297</v>
       </c>
     </row>
     <row r="396">
@@ -3600,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>580079.4851610927</v>
+        <v>679315.0004911025</v>
       </c>
     </row>
     <row r="397">
@@ -3608,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>583680.3667176078</v>
+        <v>683531.8930358425</v>
       </c>
     </row>
     <row r="398">
@@ -3616,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>587206.9241411678</v>
+        <v>687661.746649356</v>
       </c>
     </row>
     <row r="399">
@@ -3624,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>590659.4304580635</v>
+        <v>691704.8810651614</v>
       </c>
     </row>
     <row r="400">
@@ -3632,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>594038.3717247999</v>
+        <v>695661.8654905544</v>
       </c>
     </row>
     <row r="401">
@@ -3640,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>597344.4504638183</v>
+        <v>699533.5226300863</v>
       </c>
     </row>
     <row r="402">
@@ -3648,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>600578.5885997919</v>
+        <v>703320.9321241783</v>
       </c>
     </row>
     <row r="403">
@@ -3656,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>603741.9298800724</v>
+        <v>674827.951425789</v>
       </c>
     </row>
     <row r="404">
@@ -3664,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>606835.8417616938</v>
+        <v>678286.1479061649</v>
       </c>
     </row>
     <row r="405">
@@ -3672,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>609861.9167475722</v>
+        <v>681668.520212138</v>
       </c>
     </row>
     <row r="406">
@@ -3680,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>612821.9731567733</v>
+        <v>684977.1007560181</v>
       </c>
     </row>
     <row r="407">
@@ -3688,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>615718.0553124782</v>
+        <v>688214.174564497</v>
       </c>
     </row>
     <row r="408">
@@ -3696,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>618552.4331314311</v>
+        <v>691382.2788197548</v>
       </c>
     </row>
     <row r="409">
@@ -3704,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>621327.6011010519</v>
+        <v>694484.2017161382</v>
       </c>
     </row>
     <row r="410">
@@ -3712,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>624046.2766263053</v>
+        <v>697522.9806123838</v>
       </c>
     </row>
     <row r="411">
@@ -3720,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>626711.3977335759</v>
+        <v>700501.8994651431</v>
       </c>
     </row>
     <row r="412">
@@ -3728,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>629326.1201131804</v>
+        <v>703424.4855232724</v>
       </c>
     </row>
     <row r="413">
@@ -3736,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>631893.8134867811</v>
+        <v>758615.3402602546</v>
       </c>
     </row>
     <row r="414">
@@ -3744,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>634418.0572816792</v>
+        <v>761645.8020633222</v>
       </c>
     </row>
     <row r="415">
@@ -3752,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>636902.6355962489</v>
+        <v>764628.643773878</v>
       </c>
     </row>
     <row r="416">
@@ -3760,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>639351.5314390197</v>
+        <v>767568.6471626979</v>
       </c>
     </row>
     <row r="417">
@@ -3768,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>641768.9202239685</v>
+        <v>770470.8249914631</v>
       </c>
     </row>
     <row r="418">
@@ -3776,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>644159.1625034333</v>
+        <v>773340.4122883147</v>
       </c>
     </row>
     <row r="419">
@@ -3784,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>646526.7959207339</v>
+        <v>776182.8566866323</v>
       </c>
     </row>
     <row r="420">
@@ -3792,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>648876.5263632915</v>
+        <v>779003.8078039801</v>
       </c>
     </row>
     <row r="421">
@@ -3800,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>651213.2182975739</v>
+        <v>781809.1056387973</v>
       </c>
     </row>
     <row r="422">
@@ -3808,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>653541.8842659057</v>
+        <v>784604.7679608744</v>
       </c>
     </row>
     <row r="423">
@@ -3816,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>655867.673527563</v>
+        <v>787396.9766745029</v>
       </c>
     </row>
     <row r="424">
@@ -3824,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>658195.8598236974</v>
+        <v>790192.0631297498</v>
       </c>
     </row>
     <row r="425">
@@ -3832,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>660531.8282503051</v>
+        <v>792996.4923628988</v>
       </c>
     </row>
     <row r="426">
@@ -3840,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>662881.0612201219</v>
+        <v>795816.8462431089</v>
       </c>
     </row>
     <row r="427">
@@ -3848,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>665249.1234996493</v>
+        <v>798659.8055087305</v>
       </c>
     </row>
     <row r="428">
@@ -3856,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>667641.6463072685</v>
+        <v>801532.1306764153</v>
       </c>
     </row>
     <row r="429">
@@ -3864,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>670064.3104605804</v>
+        <v>804440.6418087836</v>
       </c>
     </row>
     <row r="430">
@@ -3872,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>672522.8285658762</v>
+        <v>807392.1971321276</v>
       </c>
     </row>
     <row r="431">
@@ -3880,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>675022.9262443826</v>
+        <v>810393.6704977213</v>
       </c>
     </row>
     <row r="432">
@@ -3888,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>677570.3223947441</v>
+        <v>813451.927686094</v>
       </c>
     </row>
     <row r="433">
@@ -3896,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>680170.7084971633</v>
+        <v>816573.8015607714</v>
       </c>
     </row>
     <row r="434">
@@ -3904,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>682829.7269681579</v>
+        <v>819766.066082244</v>
       </c>
     </row>
     <row r="435">
@@ -3912,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>685552.9485841498</v>
+        <v>823035.4092040262</v>
       </c>
     </row>
     <row r="436">
@@ -3920,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>688345.8489958971</v>
+        <v>826388.4046772365</v>
       </c>
     </row>
     <row r="437">
@@ -3928,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>691213.7843679363</v>
+        <v>829831.4828047128</v>
       </c>
     </row>
     <row r="438">
@@ -3936,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>694161.9661817063</v>
+        <v>833370.9001910945</v>
       </c>
     </row>
     <row r="439">
@@ -3944,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>697195.4352550996</v>
+        <v>837012.7085521908</v>
       </c>
     </row>
     <row r="440">
@@ -3952,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>700319.0350373645</v>
+        <v>840762.7226543772</v>
       </c>
     </row>
     <row r="441">
@@ -3960,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>703537.3842534199</v>
+        <v>844626.4874729346</v>
       </c>
     </row>
     <row r="442">
@@ -3968,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>706854.8489809445</v>
+        <v>848609.2446694094</v>
       </c>
     </row>
     <row r="443">
@@ -3976,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>710275.5142567824</v>
+        <v>852715.8985038998</v>
       </c>
     </row>
     <row r="444">
@@ -3984,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>713803.1553235538</v>
+        <v>856950.98131539</v>
       </c>
     </row>
     <row r="445">
@@ -3992,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>717441.2086393386</v>
+        <v>861318.6187176459</v>
       </c>
     </row>
     <row r="446">
@@ -4000,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>721192.7427881705</v>
+        <v>865822.4946760288</v>
       </c>
     </row>
     <row r="447">
@@ -4008,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>725060.4294427981</v>
+        <v>870465.8166470577</v>
       </c>
     </row>
     <row r="448">
@@ -4016,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>729046.5145454862</v>
+        <v>875251.2809797376</v>
       </c>
     </row>
     <row r="449">
@@ -4024,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>733152.7898878083</v>
+        <v>880181.0387958949</v>
       </c>
     </row>
     <row r="450">
@@ -4032,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>737380.5652803284</v>
+        <v>885256.6625786995</v>
       </c>
     </row>
     <row r="451">
@@ -4040,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>741730.6415219781</v>
+        <v>890479.113721254</v>
       </c>
     </row>
     <row r="452">
@@ -4048,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>746203.2843861551</v>
+        <v>895848.7112958017</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>1793470.002260888</v>
+        <v>181396.3797331438</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>2159.874387626451</v>
+        <v>218.4555047477101</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>2194.139109679831</v>
+        <v>221.9211308943477</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>2229.149623633313</v>
+        <v>225.4621884396384</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>2264.931633733287</v>
+        <v>229.0812771801959</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>2301.511882877962</v>
+        <v>232.7811019646726</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>2338.918182923654</v>
+        <v>236.564475759019</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>2377.179444688422</v>
+        <v>240.434322681132</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>2416.325707545491</v>
+        <v>244.3936809940129</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>2456.388168460956</v>
+        <v>248.4457060427201</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>2497.399210378867</v>
+        <v>252.5936731253115</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>2539.39242982411</v>
+        <v>256.8409802846751</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>2582.402663554116</v>
+        <v>261.1911510041542</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>2626.466014161456</v>
+        <v>265.6478367970627</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>2671.619874432308</v>
+        <v>270.214819670366</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>2717.902950346819</v>
+        <v>274.8960144509996</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>2765.355282523118</v>
+        <v>279.695470954774</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>2814.018265961548</v>
+        <v>284.6173759833594</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>2863.934667911708</v>
+        <v>289.6660551314071</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>2915.148643667414</v>
+        <v>294.8459743840932</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>2967.70575014032</v>
+        <v>300.1617414899918</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>3021.652956988898</v>
+        <v>305.6181070866903</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>3077.038655135297</v>
+        <v>311.2199655622067</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>3133.912662477514</v>
+        <v>316.9723556327341</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>3192.326226577428</v>
+        <v>322.8804606145163</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>3252.332024158026</v>
+        <v>328.9496083729949</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>3313.984157182833</v>
+        <v>335.1852709262732</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>3377.338145329881</v>
+        <v>341.5930636839127</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>3442.450914666216</v>
+        <v>348.1787443014424</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>3509.380782302443</v>
+        <v>354.9482111282781</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>3578.187436851008</v>
+        <v>361.9075012312207</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>3648.931914484147</v>
+        <v>369.0627879728927</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>3721.676570396773</v>
+        <v>376.4203781254176</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>3796.485045498061</v>
+        <v>383.9867085015176</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>3873.422228138263</v>
+        <v>391.7683420834605</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>3952.554210712496</v>
+        <v>399.7719636338497</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>4033.948240952647</v>
+        <v>408.0043747691578</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>4117.672667778608</v>
+        <v>416.4724884829731</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>4203.796881540644</v>
+        <v>425.1833231019534</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>4292.39124852718</v>
+        <v>434.1439956617667</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>4383.527039601851</v>
+        <v>443.3617146892503</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>4477.276352896345</v>
+        <v>452.8437723833582</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>4573.712030411829</v>
+        <v>462.5975361800035</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>4672.907568503569</v>
+        <v>472.6304396982332</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>4774.93702215425</v>
+        <v>482.949973058174</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>4879.874903000978</v>
+        <v>493.5636725672084</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>4987.796071120851</v>
+        <v>504.4791097748776</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>5098.775620530307</v>
+        <v>515.7038798919762</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>5212.888758453465</v>
+        <v>527.2455895794286</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>5330.210678402163</v>
+        <v>539.1118441112619</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>5450.816427116769</v>
+        <v>551.3102339166425</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>5574.780765486896</v>
+        <v>563.8483205130217</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>5702.178023549769</v>
+        <v>576.7336218402822</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>5833.081949747277</v>
+        <v>589.9735970141901</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>5967.565554574658</v>
+        <v>603.5756305126019</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>6105.700948858988</v>
+        <v>617.5470158185175</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>6247.559176901772</v>
+        <v>631.8949385436707</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>6393.210044714568</v>
+        <v>646.6264590558208</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>6542.721943679559</v>
+        <v>661.7484946433062</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>6696.161669945166</v>
+        <v>677.2678012482331</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>6853.594239902499</v>
+        <v>693.1909548032659</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>7015.082702129463</v>
+        <v>709.5243322111489</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>7180.687946243853</v>
+        <v>726.2740920115941</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>7350.468509051553</v>
+        <v>743.446154774589</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>7524.480378541918</v>
+        <v>761.0461832759617</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>7702.776796155658</v>
+        <v>779.0795624982235</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>7885.408057911507</v>
+        <v>797.5513795159848</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>8072.421314933791</v>
+        <v>816.4664033207773</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>8263.860373955498</v>
+        <v>835.8290646433982</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>8459.765498412131</v>
+        <v>855.6434358360057</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>8660.173210780002</v>
+        <v>875.9132108800851</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>8865.116096775946</v>
+        <v>896.6416855826795</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>9074.622612133035</v>
+        <v>917.8317380331659</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>9288.716892622782</v>
+        <v>939.4858093883907</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>9507.418568043562</v>
+        <v>961.6058850589575</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>9730.742580897655</v>
+        <v>984.1934763697365</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>9958.699010502656</v>
+        <v>1007.249602770018</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>10191.29290326601</v>
+        <v>1030.774774667025</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>10428.52410989823</v>
+        <v>1054.768976961215</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>10670.3871303041</v>
+        <v>1079.231653358166</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>10916.87096691951</v>
+        <v>1104.161691534666</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>11167.95898724817</v>
+        <v>1129.557409235305</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>11423.62879635268</v>
+        <v>1155.41654137588</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>11683.85212003816</v>
+        <v>1181.736228228276</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>11948.59469947199</v>
+        <v>1208.513004762019</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>12217.81619792825</v>
+        <v>1235.74279121216</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>12491.47012040137</v>
+        <v>1263.420884948783</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>12769.50374673954</v>
+        <v>1291.541953713938</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>13051.85807892732</v>
+        <v>1320.100030289663</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>13338.46780320242</v>
+        <v>1349.088508666373</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>13629.26126755116</v>
+        <v>1378.500141766689</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>13924.16047514658</v>
+        <v>1408.327040781753</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>14223.08109427035</v>
+        <v>1438.560676174755</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>14525.93248518192</v>
+        <v>1469.191880398551</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>14832.61774435502</v>
+        <v>1500.210852369864</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>15143.0337664938</v>
+        <v>1531.607163741761</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>15457.07132464109</v>
+        <v>1563.369767006016</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>15774.61516866983</v>
+        <v>1595.487005454803</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>16095.54414237873</v>
+        <v>1627.946625024062</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>16419.7313193446</v>
+        <v>1660.735788033973</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>16747.04415767395</v>
+        <v>1693.841088840942</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>17077.34467364763</v>
+        <v>1727.248571400498</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>17410.48963425507</v>
+        <v>1760.943748740709</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>17746.33076855837</v>
+        <v>1794.911624340131</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>18084.71499766384</v>
+        <v>1829.136715387733</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>18425.48468314508</v>
+        <v>1863.603077909087</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>18768.47789356135</v>
+        <v>1898.294333722748</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>19113.52868875175</v>
+        <v>1933.193699194531</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>19460.46742144669</v>
+        <v>1968.284015743306</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>19809.12105568785</v>
+        <v>2003.547782046854</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>20159.31350150264</v>
+        <v>2038.967187891734</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>20510.86596515806</v>
+        <v>2074.524149598911</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>20863.59731431924</v>
+        <v>2110.200346956862</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>21217.32445730367</v>
+        <v>2145.977261580378</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>21571.86273560467</v>
+        <v>2181.836216611435</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>21927.02632877755</v>
+        <v>2217.758417670477</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>22282.6286707298</v>
+        <v>2253.72499496112</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>22638.48287637496</v>
+        <v>2289.717046423074</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>22994.40217759922</v>
+        <v>2325.71568182698</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>23350.20036739728</v>
+        <v>2361.702067695499</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>23705.69225101313</v>
+        <v>2397.65747293291</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>24060.69410286025</v>
+        <v>2433.563315039246</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>24415.02412797251</v>
+        <v>2469.401206782678</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>24768.50292669059</v>
+        <v>2505.153003199149</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>25120.95396126682</v>
+        <v>2540.800848786047</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>25472.2040230292</v>
+        <v>2576.327224752424</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>25822.08369875956</v>
+        <v>2611.714996189741</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>26170.42783487062</v>
+        <v>2646.947459019986</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>26517.0759980333</v>
+        <v>2682.008386584755</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>26861.87293079551</v>
+        <v>2716.882075727763</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>27204.66900086373</v>
+        <v>2751.553392236395</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>27545.32064260988</v>
+        <v>2786.007815496894</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>27883.69078942164</v>
+        <v>2820.231482223435</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>28219.64929559259</v>
+        <v>2854.211229129232</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>28553.07334631858</v>
+        <v>2887.934634394673</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>28883.84785459015</v>
+        <v>2921.390057810083</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>29211.86584364116</v>
+        <v>2954.56667945761</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>29537.02881372403</v>
+        <v>2987.45453680786</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>29859.24709205611</v>
+        <v>3020.044560114412</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>30178.44016475404</v>
+        <v>3052.328605986555</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>30494.53698968158</v>
+        <v>3084.299489031555</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>30807.47628920761</v>
+        <v>3115.951011464986</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>31117.20682186044</v>
+        <v>3147.277990586586</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>31423.68763203805</v>
+        <v>3178.276284036611</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>31726.88827689165</v>
+        <v>3208.942812743455</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>32026.78902970016</v>
+        <v>3239.275581493493</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>32323.38105898878</v>
+        <v>3269.273697047608</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>32616.66658287213</v>
+        <v>3298.93738375188</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>32906.6589980865</v>
+        <v>3328.267996588251</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>33193.38298327187</v>
+        <v>3357.268031620741</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>33476.87457623549</v>
+        <v>3385.941133810102</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>33757.18122488836</v>
+        <v>3414.292102165671</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>34034.3618117731</v>
+        <v>3442.326892226178</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>34308.48665207373</v>
+        <v>3470.052615858453</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>34579.63746516875</v>
+        <v>3497.47753838023</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>34847.90731988451</v>
+        <v>3524.611073022922</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>35113.40055359482</v>
+        <v>3551.463772749143</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>35376.23266557268</v>
+        <v>3578.047319466009</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>35636.53018491664</v>
+        <v>3604.374510666859</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>35894.43051359149</v>
+        <v>3630.459243555969</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>36150.08174513697</v>
+        <v>3656.316496712257</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>36403.64245970909</v>
+        <v>3681.962309359221</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>36655.28149620635</v>
+        <v>3707.41375831716</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>36905.17770226276</v>
+        <v>3732.68893271681</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>37153.51966304865</v>
+        <v>3757.806906569507</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>37400.50540981712</v>
+        <v>3782.787709288822</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>37646.34210921343</v>
+        <v>3807.652294266447</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>37891.24573446037</v>
+        <v>3832.422505615013</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>38135.44071957134</v>
+        <v>3857.121043194276</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>38379.15959777156</v>
+        <v>3881.77142604005</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>38622.64262539885</v>
+        <v>3906.397954324536</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>38866.13739257006</v>
+        <v>3931.025669978069</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>39109.89842194931</v>
+        <v>3955.68031610746</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>39354.18675696902</v>
+        <v>3980.388295347565</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>39599.26954091369</v>
+        <v>4005.176627288684</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>39845.41958827124</v>
+        <v>4030.072905121887</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>40092.91494977212</v>
+        <v>4055.105251645894</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>40342.03847257193</v>
+        <v>4080.302274782764</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>40593.07735700222</v>
+        <v>4105.693022746487</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>40846.32271135307</v>
+        <v>4131.306939012481</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>41102.06910611668</v>
+        <v>4157.173817232601</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>41360.61412911004</v>
+        <v>4183.32375623905</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>41622.25794289058</v>
+        <v>4209.787115280201</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>41887.30284587619</v>
+        <v>4236.594469631098</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>42156.05283849173</v>
+        <v>4263.77656671235</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>42428.81319569805</v>
+        <v>4291.364282854562</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>42705.8900472123</v>
+        <v>4319.388580840691</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>42987.58996662222</v>
+        <v>4347.88046834796</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>43274.21957068467</v>
+        <v>4376.870957419829</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>43566.08512989969</v>
+        <v>4406.391025078421</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>43863.49219150245</v>
+        <v>4436.471575192892</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>44166.74521597283</v>
+        <v>4467.14340171506</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>44476.14722797885</v>
+        <v>4498.437153374854</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>44791.9994827656</v>
+        <v>4530.383299938019</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>45114.60114885742</v>
+        <v>4563.01210011375</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>45444.24900786618</v>
+        <v>4596.35357119249</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>45781.23717217331</v>
+        <v>4630.437460491542</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>46125.8568211778</v>
+        <v>4665.293218678473</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>46478.39595669489</v>
+        <v>4700.949975031485</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>46839.1391780928</v>
+        <v>4737.436514696136</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>47208.3674776144</v>
+        <v>4774.781257983625</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>47586.36867495191</v>
+        <v>4813.013315751738</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>47973.39595087242</v>
+        <v>4852.158295384215</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>48369.7279928591</v>
+        <v>4892.244384082659</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>48775.62973993786</v>
+        <v>4933.298378492728</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>49191.36181561471</v>
+        <v>4975.346638776792</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>49617.18045049968</v>
+        <v>5018.415080787904</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>50053.33742655762</v>
+        <v>5062.529170431182</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>50500.08004290507</v>
+        <v>5107.713920204404</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>50957.65110303785</v>
+        <v>5153.993887906184</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>51426.28892331128</v>
+        <v>5201.393177493668</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>51906.22736241493</v>
+        <v>5249.935442063709</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>52397.69587156627</v>
+        <v>5299.643888929568</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>52900.91956509666</v>
+        <v>5350.541286760186</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>53416.11931098301</v>
+        <v>5402.649974736795</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>53943.51184092539</v>
+        <v>5455.991873686458</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>54483.30987948284</v>
+        <v>5510.588499143219</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>55035.72229170786</v>
+        <v>5566.46097628025</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>55600.95424874243</v>
+        <v>5623.630056658676</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>56179.20741081583</v>
+        <v>5682.116136736475</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>56770.68012685572</v>
+        <v>5741.939278057663</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>57375.56765028115</v>
+        <v>5803.119229078198</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>57994.06237005741</v>
+        <v>5865.675448535477</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>58626.35405650565</v>
+        <v>5929.627130310186</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>59272.63012089729</v>
+        <v>5994.993229682376</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>59933.07588837351</v>
+        <v>6061.792490935276</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>60607.87488312191</v>
+        <v>6130.043476198824</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>61297.20912523939</v>
+        <v>6199.764595475182</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>62001.25943837874</v>
+        <v>6270.974137754935</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>62720.20576746033</v>
+        <v>6343.690303151307</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>63454.22750550833</v>
+        <v>6417.931235957256</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>64203.50382893724</v>
+        <v>6493.715058557258</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>64968.21404042077</v>
+        <v>6571.059906105983</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>65748.53791845634</v>
+        <v>6649.983961884191</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>66544.65607293302</v>
+        <v>6730.505493261829</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>67356.75030578562</v>
+        <v>6812.642888175556</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>68185.00397595615</v>
+        <v>6896.414692041929</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>69029.60236787713</v>
+        <v>6981.839645026794</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>69890.7330626427</v>
+        <v>7068.936719586527</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>70768.58631103707</v>
+        <v>7157.72515819714</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>71663.35540773153</v>
+        <v>7248.224511201574</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>72575.23706575092</v>
+        <v>7340.454674684237</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>73504.43179045482</v>
+        <v>7434.435928296476</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>74451.14425233337</v>
+        <v>7530.188972962143</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>75415.5836577165</v>
+        <v>7627.734968372128</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>76397.96411676669</v>
+        <v>7727.09557020413</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>77398.50500788652</v>
+        <v>7828.29296697983</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>78417.43133784426</v>
+        <v>7931.349916488946</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>79454.97409684314</v>
+        <v>8036.289781701902</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>80511.37060780938</v>
+        <v>8143.136566097754</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>81586.86486907255</v>
+        <v>8251.914948323818</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>82681.70788980379</v>
+        <v>8362.650316122767</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>83796.15801737669</v>
+        <v>8475.368799442824</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>84930.48125587347</v>
+        <v>8590.097302652302</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>86084.95157507531</v>
+        <v>8706.863535791737</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>87259.8512090977</v>
+        <v>8825.696044778668</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>88455.47094388746</v>
+        <v>8946.624240485849</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>89672.11039282936</v>
+        <v>9069.678426616856</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>90910.07825970401</v>
+        <v>9194.889826302348</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>92169.6925880523</v>
+        <v>9322.290607321453</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>93451.2809963274</v>
+        <v>9451.913905885691</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>94755.18089779162</v>
+        <v>9583.793848879912</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>96081.73970439291</v>
+        <v>9717.965574482929</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>97431.31501386969</v>
+        <v>9854.465251091804</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>98804.27477882478</v>
+        <v>9993.330094422421</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>100200.997457306</v>
+        <v>10134.59838273964</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>101621.8721436066</v>
+        <v>10278.30947008678</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>103067.2986783996</v>
+        <v>10424.50379742492</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>104537.68773732</v>
+        <v>10573.22290159235</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>106033.4608967935</v>
+        <v>10724.50942196261</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>107555.0506762245</v>
+        <v>10878.40710471158</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>109102.9005553014</v>
+        <v>11034.96080456772</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>110677.4649654275</v>
+        <v>11194.21648394539</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>112279.2092540821</v>
+        <v>11356.22120934024</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>113908.6096208945</v>
+        <v>11521.02314486357</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>115566.153024339</v>
+        <v>11688.67154280519</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>117252.3370576909</v>
+        <v>11859.21673108728</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>118967.6697930699</v>
+        <v>12032.71009749054</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>120712.6695922189</v>
+        <v>12209.20407051582</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>122487.8648827667</v>
+        <v>12388.75209675477</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>124293.7938985701</v>
+        <v>12571.40861462728</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>126131.0043828175</v>
+        <v>12757.22902435263</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>128000.0532524857</v>
+        <v>12946.26965401175</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>129901.5062227684</v>
+        <v>13138.58772156086</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>131835.937390102</v>
+        <v>13334.24129265763</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>133803.9287722408</v>
+        <v>13533.28923414311</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>135806.0698041505</v>
+        <v>13735.7911630551</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>137842.9567881357</v>
+        <v>13941.80739101247</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>139915.1922968839</v>
+        <v>14151.39886383751</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>142023.3845279846</v>
+        <v>14364.62709627023</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>144168.1466085332</v>
+        <v>14581.55410163413</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>146350.0958484734</v>
+        <v>14802.24231631722</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>148569.852941442</v>
+        <v>15026.75451894336</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>150828.0411116059</v>
+        <v>15255.15374408097</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>153125.2852055578</v>
+        <v>15487.50319039504</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>155462.2107279065</v>
+        <v>15723.86612310407</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>157839.4428195151</v>
+        <v>15964.3057706363</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>160257.6051773752</v>
+        <v>16208.88521538297</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>162717.3189152855</v>
+        <v>16457.66727846424</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>165219.2013643995</v>
+        <v>16710.71439841329</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>167763.8648129439</v>
+        <v>16968.08850370824</v>
       </c>
     </row>
     <row r="303">

--- a/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>181396.3797331438</v>
+        <v>60465.45991104792</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>218.4555047477101</v>
+        <v>72.81850158257002</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>221.9211308943477</v>
+        <v>73.9737102981159</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>225.4621884396384</v>
+        <v>75.15406281321279</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>229.0812771801959</v>
+        <v>76.36042572673196</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>232.7811019646726</v>
+        <v>77.59370065489088</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>236.564475759019</v>
+        <v>78.85482525300634</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>240.434322681132</v>
+        <v>80.14477422704401</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>244.3936809940129</v>
+        <v>81.46456033133765</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>248.4457060427201</v>
+        <v>82.81523534757335</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>252.5936731253115</v>
+        <v>84.19789104177049</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>256.8409802846751</v>
+        <v>85.6136600948917</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>261.1911510041542</v>
+        <v>87.06371700138473</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>265.6478367970627</v>
+        <v>88.54927893235424</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>270.214819670366</v>
+        <v>90.07160655678868</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>274.8960144509996</v>
+        <v>91.63200481699987</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>279.695470954774</v>
+        <v>93.23182365159131</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>284.6173759833594</v>
+        <v>94.87245866111981</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>289.6660551314071</v>
+        <v>96.55535171046904</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>294.8459743840932</v>
+        <v>98.2819914613644</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>300.1617414899918</v>
+        <v>100.0539138299973</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>305.6181070866903</v>
+        <v>101.8727023622301</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>311.2199655622067</v>
+        <v>103.7399885207356</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>316.9723556327341</v>
+        <v>105.657451877578</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>322.8804606145163</v>
+        <v>107.6268202048388</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>328.9496083729949</v>
+        <v>109.649869457665</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>335.1852709262732</v>
+        <v>111.7284236420911</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>341.5930636839127</v>
+        <v>113.8643545613042</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>348.1787443014424</v>
+        <v>116.0595814338141</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>354.9482111282781</v>
+        <v>118.3160703760927</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>361.9075012312207</v>
+        <v>120.6358337437402</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>369.0627879728927</v>
+        <v>123.0209293242976</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>376.4203781254176</v>
+        <v>125.4734593751392</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>383.9867085015176</v>
+        <v>127.9955695005059</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>391.7683420834605</v>
+        <v>130.5894473611535</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>399.7719636338497</v>
+        <v>133.2573212112833</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>408.0043747691578</v>
+        <v>136.001458256386</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>416.4724884829731</v>
+        <v>138.8241628276577</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>425.1833231019534</v>
+        <v>141.7277743673178</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>434.1439956617667</v>
+        <v>144.7146652205889</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>443.3617146892503</v>
+        <v>147.7872382297501</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>452.8437723833582</v>
+        <v>150.9479241277861</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>462.5975361800035</v>
+        <v>154.1991787266678</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>472.6304396982332</v>
+        <v>157.5434798994111</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>482.949973058174</v>
+        <v>160.9833243527247</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>493.5636725672084</v>
+        <v>164.5212241890695</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>504.4791097748776</v>
+        <v>168.1597032582925</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>515.7038798919762</v>
+        <v>171.9012932973254</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>527.2455895794286</v>
+        <v>175.7485298598096</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>539.1118441112619</v>
+        <v>179.7039480370873</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>551.3102339166425</v>
+        <v>183.7700779722142</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>563.8483205130217</v>
+        <v>187.9494401710072</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>576.7336218402822</v>
+        <v>192.2445406134274</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>589.9735970141901</v>
+        <v>196.6578656713967</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>603.5756305126019</v>
+        <v>201.191876837534</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>617.5470158185175</v>
+        <v>205.8490052728392</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>631.8949385436707</v>
+        <v>210.6316461812236</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>646.6264590558208</v>
+        <v>215.5421530186069</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>661.7484946433062</v>
+        <v>220.5828315477688</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>677.2678012482331</v>
+        <v>225.7559337494111</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>693.1909548032659</v>
+        <v>231.0636516010887</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>709.5243322111489</v>
+        <v>236.5081107370496</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>726.2740920115941</v>
+        <v>242.0913640038648</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>743.446154774589</v>
+        <v>247.815384924863</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>761.0461832759617</v>
+        <v>253.6820610919872</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>779.0795624982235</v>
+        <v>259.6931874994078</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>797.5513795159848</v>
+        <v>265.8504598386616</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>816.4664033207773</v>
+        <v>272.1554677735925</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>835.8290646433982</v>
+        <v>278.609688214466</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>855.6434358360057</v>
+        <v>285.2144786120019</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>875.9132108800851</v>
+        <v>291.9710702933617</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>896.6416855826795</v>
+        <v>298.8805618608932</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>917.8317380331659</v>
+        <v>305.9439126777219</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>939.4858093883907</v>
+        <v>313.1619364627969</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>961.6058850589575</v>
+        <v>320.5352950196525</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>984.1934763697365</v>
+        <v>328.0644921232455</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>1007.249602770018</v>
+        <v>335.749867590006</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>1030.774774667025</v>
+        <v>343.5915915556749</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>1054.768976961215</v>
+        <v>351.5896589870717</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>1079.231653358166</v>
+        <v>359.7438844527221</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>1104.161691534666</v>
+        <v>368.0538971782221</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>1129.557409235305</v>
+        <v>376.5191364117683</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>1155.41654137588</v>
+        <v>385.1388471252933</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>1181.736228228276</v>
+        <v>393.9120760760919</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>1208.513004762019</v>
+        <v>402.8376682540064</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>1235.74279121216</v>
+        <v>411.9142637373866</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>1263.420884948783</v>
+        <v>421.1402949829277</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>1291.541953713938</v>
+        <v>430.5139845713125</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>1320.100030289663</v>
+        <v>440.0333434298877</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>1349.088508666373</v>
+        <v>449.6961695554577</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>1378.500141766689</v>
+        <v>459.500047255563</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>1408.327040781753</v>
+        <v>469.442346927251</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>1438.560676174755</v>
+        <v>479.520225391585</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>1469.191880398551</v>
+        <v>489.730626799517</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>1500.210852369864</v>
+        <v>500.0702841232881</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>1531.607163741761</v>
+        <v>510.5357212472536</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>1563.369767006016</v>
+        <v>521.1232556686718</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>1595.487005454803</v>
+        <v>531.8290018182677</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>1627.946625024062</v>
+        <v>542.6488750080207</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>1660.735788033973</v>
+        <v>553.5785960113243</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>1693.841088840942</v>
+        <v>564.6136962803142</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>1727.248571400498</v>
+        <v>575.7495238001659</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>1760.943748740709</v>
+        <v>586.9812495802362</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>1794.911624340131</v>
+        <v>598.3038747800437</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>1829.136715387733</v>
+        <v>609.7122384625776</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>1863.603077909087</v>
+        <v>621.2010259696959</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>1898.294333722748</v>
+        <v>632.7647779075827</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>1933.193699194531</v>
+        <v>644.3978997315104</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>1968.284015743306</v>
+        <v>656.0946719144355</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>2003.547782046854</v>
+        <v>667.8492606822845</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>2038.967187891734</v>
+        <v>679.6557292972448</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>2074.524149598911</v>
+        <v>691.5080498663038</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>2110.200346956862</v>
+        <v>703.4001156522875</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>2145.977261580378</v>
+        <v>715.325753860126</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>2181.836216611435</v>
+        <v>727.2787388704784</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>2217.758417670477</v>
+        <v>739.2528058901592</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>2253.72499496112</v>
+        <v>751.2416649870399</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>2289.717046423074</v>
+        <v>763.2390154743581</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>2325.71568182698</v>
+        <v>775.2385606089933</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>2361.702067695499</v>
+        <v>787.2340225651664</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>2397.65747293291</v>
+        <v>799.2191576443032</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>2433.563315039246</v>
+        <v>811.1877716797487</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>2469.401206782678</v>
+        <v>823.1337355942261</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>2505.153003199149</v>
+        <v>835.051001066383</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>2540.800848786047</v>
+        <v>846.9336162620159</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>2576.327224752424</v>
+        <v>858.7757415841414</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>2611.714996189741</v>
+        <v>870.5716653965803</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>2646.947459019986</v>
+        <v>882.3158196733287</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>2682.008386584755</v>
+        <v>894.0027955282515</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>2716.882075727763</v>
+        <v>905.627358575921</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>2751.553392236395</v>
+        <v>917.1844640787983</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>2786.007815496894</v>
+        <v>928.6692718322981</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>2820.231482223435</v>
+        <v>940.0771607411449</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>2854.211229129232</v>
+        <v>951.4037430430775</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>2887.934634394673</v>
+        <v>962.6448781315577</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>2921.390057810083</v>
+        <v>973.7966859366945</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>2954.56667945761</v>
+        <v>984.8555598192032</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>2987.45453680786</v>
+        <v>995.8181789359534</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>3020.044560114412</v>
+        <v>1006.681520038138</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>3052.328605986555</v>
+        <v>1017.442868662185</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>3084.299489031555</v>
+        <v>1028.099829677185</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>3115.951011464986</v>
+        <v>1038.650337154995</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>3147.277990586586</v>
+        <v>1049.092663528862</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>3178.276284036611</v>
+        <v>1059.425428012204</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>3208.942812743455</v>
+        <v>1069.647604247819</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>3239.275581493493</v>
+        <v>1079.758527164498</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>3269.273697047608</v>
+        <v>1089.757899015869</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>3298.93738375188</v>
+        <v>1099.64579458396</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>3328.267996588251</v>
+        <v>1109.422665529417</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>3357.268031620741</v>
+        <v>1119.08934387358</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>3385.941133810102</v>
+        <v>1128.647044603368</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>3414.292102165671</v>
+        <v>1138.097367388557</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>3442.326892226178</v>
+        <v>1147.442297408726</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>3470.052615858453</v>
+        <v>1156.684205286151</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>3497.47753838023</v>
+        <v>1165.825846126743</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>3524.611073022922</v>
+        <v>1174.870357674308</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>3551.463772749143</v>
+        <v>1183.821257583048</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>3578.047319466009</v>
+        <v>1192.682439822003</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>3604.374510666859</v>
+        <v>1201.458170222286</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>3630.459243555969</v>
+        <v>1210.153081185323</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>3656.316496712257</v>
+        <v>1218.772165570752</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>3681.962309359221</v>
+        <v>1227.320769786407</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>3707.41375831716</v>
+        <v>1235.80458610572</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>3732.68893271681</v>
+        <v>1244.229644238937</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>3757.806906569507</v>
+        <v>1252.602302189836</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>3782.787709288822</v>
+        <v>1260.929236429607</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>3807.652294266447</v>
+        <v>1269.217431422149</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>3832.422505615013</v>
+        <v>1277.474168538338</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>3857.121043194276</v>
+        <v>1285.707014398092</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>3881.77142604005</v>
+        <v>1293.923808680017</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>3906.397954324536</v>
+        <v>1302.132651441512</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>3931.025669978069</v>
+        <v>1310.34188999269</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>3955.68031610746</v>
+        <v>1318.560105369153</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>3980.388295347565</v>
+        <v>1326.796098449189</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>4005.176627288684</v>
+        <v>1335.058875762895</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>4030.072905121887</v>
+        <v>1343.357635040629</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>4055.105251645894</v>
+        <v>1351.701750548631</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>4080.302274782764</v>
+        <v>1360.100758260922</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>4105.693022746487</v>
+        <v>1368.564340915496</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>4131.306939012481</v>
+        <v>1377.10231300416</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>4157.173817232601</v>
+        <v>1385.724605744201</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>4183.32375623905</v>
+        <v>1394.441252079683</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>4209.787115280201</v>
+        <v>1403.262371760067</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>4236.594469631098</v>
+        <v>1412.198156543699</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>4263.77656671235</v>
+        <v>1421.258855570783</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>4291.364282854562</v>
+        <v>1430.454760951521</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>4319.388580840691</v>
+        <v>1439.796193613564</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>4347.88046834796</v>
+        <v>1449.29348944932</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>4376.870957419829</v>
+        <v>1458.95698580661</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>4406.391025078421</v>
+        <v>1468.797008359474</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>4436.471575192892</v>
+        <v>1478.823858397631</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>4467.14340171506</v>
+        <v>1489.047800571686</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>4498.437153374854</v>
+        <v>1499.479051124951</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>4530.383299938019</v>
+        <v>1510.127766646006</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>4563.01210011375</v>
+        <v>1521.00403337125</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>4596.35357119249</v>
+        <v>1532.117857064163</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>4630.437460491542</v>
+        <v>1543.479153497181</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>4665.293218678473</v>
+        <v>1555.097739559491</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>4700.949975031485</v>
+        <v>1566.983325010495</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>4737.436514696136</v>
+        <v>1579.145504898712</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>4774.781257983625</v>
+        <v>1591.593752661208</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>4813.013315751738</v>
+        <v>1604.337771917246</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>4852.158295384215</v>
+        <v>1617.386098461405</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>4892.244384082659</v>
+        <v>1630.748128027553</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>4933.298378492728</v>
+        <v>1644.432792830909</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>4975.346638776792</v>
+        <v>1658.448879592264</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>5018.415080787904</v>
+        <v>1672.805026929301</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>5062.529170431182</v>
+        <v>1687.509723477061</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>5107.713920204404</v>
+        <v>1702.571306734802</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>5153.993887906184</v>
+        <v>1717.997962635395</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>5201.393177493668</v>
+        <v>1733.797725831223</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>5249.935442063709</v>
+        <v>1749.978480687903</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>5299.643888929568</v>
+        <v>1766.547962976523</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>5350.541286760186</v>
+        <v>1783.513762253396</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>5402.649974736795</v>
+        <v>1800.883324912265</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>5455.991873686458</v>
+        <v>1818.663957895486</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>5510.588499143219</v>
+        <v>1836.86283304774</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>5566.46097628025</v>
+        <v>1855.486992093417</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>5623.630056658676</v>
+        <v>1874.543352219559</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>5682.116136736475</v>
+        <v>1894.038712245492</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>5741.939278057663</v>
+        <v>1913.979759352555</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>5803.119229078198</v>
+        <v>1934.373076359399</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>5865.675448535477</v>
+        <v>1955.225149511826</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>5929.627130310186</v>
+        <v>1976.542376770062</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>5994.993229682376</v>
+        <v>1998.331076560792</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>6061.792490935276</v>
+        <v>2020.597496978426</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>6130.043476198824</v>
+        <v>2043.347825399608</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>6199.764595475182</v>
+        <v>2066.588198491727</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>6270.974137754935</v>
+        <v>2090.324712584978</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>6343.690303151307</v>
+        <v>2114.563434383769</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>6417.931235957256</v>
+        <v>2139.310411985753</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>6493.715058557258</v>
+        <v>2164.571686185753</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>6571.059906105983</v>
+        <v>2190.353302035328</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>6649.983961884191</v>
+        <v>2216.661320628064</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>6730.505493261829</v>
+        <v>2243.501831087277</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>6812.642888175556</v>
+        <v>2270.880962725185</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>6896.414692041929</v>
+        <v>2298.80489734731</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>6981.839645026794</v>
+        <v>2327.279881675598</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>7068.936719586527</v>
+        <v>2356.312239862176</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>7157.72515819714</v>
+        <v>2385.908386065714</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>7248.224511201574</v>
+        <v>2416.074837067191</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>7340.454674684237</v>
+        <v>2446.818224894746</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>7434.435928296476</v>
+        <v>2478.145309432159</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>7530.188972962143</v>
+        <v>2510.062990987381</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>7627.734968372128</v>
+        <v>2542.578322790709</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>7727.09557020413</v>
+        <v>2575.698523401377</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>7828.29296697983</v>
+        <v>2609.430988993277</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>7931.349916488946</v>
+        <v>2643.783305496316</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>8036.289781701902</v>
+        <v>2678.7632605673</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>8143.136566097754</v>
+        <v>2714.378855365918</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>8251.914948323818</v>
+        <v>2750.638316107939</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>8362.650316122767</v>
+        <v>2787.550105374256</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>8475.368799442824</v>
+        <v>2825.122933147608</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>8590.097302652302</v>
+        <v>2863.365767550767</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>8706.863535791737</v>
+        <v>2902.287845263913</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>8825.696044778668</v>
+        <v>2941.89868159289</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>8946.624240485849</v>
+        <v>2982.20808016195</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>9069.678426616856</v>
+        <v>3023.226142205619</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>9194.889826302348</v>
+        <v>3064.963275434116</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>9322.290607321453</v>
+        <v>3107.430202440485</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>9451.913905885691</v>
+        <v>3150.637968628564</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>9583.793848879912</v>
+        <v>3194.597949626637</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>9717.965574482929</v>
+        <v>3239.321858160977</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>9854.465251091804</v>
+        <v>3284.821750363935</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>9993.330094422421</v>
+        <v>3331.11003147414</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>10134.59838273964</v>
+        <v>3378.199460913213</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>10278.30947008678</v>
+        <v>3426.103156695594</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>10424.50379742492</v>
+        <v>3474.834599141641</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>10573.22290159235</v>
+        <v>3524.407633864116</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>10724.50942196261</v>
+        <v>3574.836473987537</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>10878.40710471158</v>
+        <v>3626.135701570528</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>11034.96080456772</v>
+        <v>3678.320268189239</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>11194.21648394539</v>
+        <v>3731.405494648463</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>11356.22120934024</v>
+        <v>3785.407069780082</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>11521.02314486357</v>
+        <v>3840.341048287857</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>11688.67154280519</v>
+        <v>3896.22384760173</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>11859.21673108728</v>
+        <v>3953.072243695759</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>12032.71009749054</v>
+        <v>4010.903365830179</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>12209.20407051582</v>
+        <v>4069.73469017194</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>12388.75209675477</v>
+        <v>4129.584032251591</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>12571.40861462728</v>
+        <v>4190.469538209094</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>12757.22902435263</v>
+        <v>4252.409674784211</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>12946.26965401175</v>
+        <v>4315.423218003915</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>13138.58772156086</v>
+        <v>4379.529240520286</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>13334.24129265763</v>
+        <v>4444.747097552544</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>13533.28923414311</v>
+        <v>4511.096411381038</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>13735.7911630551</v>
+        <v>4578.597054351699</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>13941.80739101247</v>
+        <v>4647.269130337489</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>14151.39886383751</v>
+        <v>4717.132954612503</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>14364.62709627023</v>
+        <v>4788.209032090078</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>14581.55410163413</v>
+        <v>4860.518033878044</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>14802.24231631722</v>
+        <v>4934.080772105742</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>15026.75451894336</v>
+        <v>5008.918172981119</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>15255.15374408097</v>
+        <v>5085.05124802699</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>15487.50319039504</v>
+        <v>5162.501063465013</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>15723.86612310407</v>
+        <v>5241.288707701356</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>15964.3057706363</v>
+        <v>5321.435256878767</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>16208.88521538297</v>
+        <v>5402.961738460991</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>16457.66727846424</v>
+        <v>5485.889092821412</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>16710.71439841329</v>
+        <v>5570.238132804432</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>16968.08850370824</v>
+        <v>5656.029501236083</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>170351.9151848011</v>
+        <v>56783.97172826705</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>172983.950656219</v>
+        <v>57661.31688540634</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>175660.560210572</v>
+        <v>58553.52007019069</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>178382.3221311968</v>
+        <v>59460.77404373228</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>181149.8024322551</v>
+        <v>60383.26747741838</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>183963.5532280196</v>
+        <v>61321.18440933988</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>186824.1110413086</v>
+        <v>62274.70368043621</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>189731.9950517242</v>
+        <v>63243.99835057474</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>192687.7052847035</v>
+        <v>64229.2350949012</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>195691.7207430576</v>
+        <v>65230.57358101923</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>198744.4974824426</v>
+        <v>66248.16582748089</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>201846.4666326573</v>
+        <v>67282.15554421912</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>204998.0323673681</v>
+        <v>68332.67745578941</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>208199.5698247576</v>
+        <v>69399.85660825256</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>211451.4229820789</v>
+        <v>70483.80766069301</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>214753.9024878272</v>
+        <v>71584.6341626091</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>218107.2834549981</v>
+        <v>72702.42781833273</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>221511.8032198873</v>
+        <v>73837.26773996247</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>224967.659071268</v>
+        <v>74989.2196904227</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>228475.0059546117</v>
+        <v>76158.33531820393</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>232033.9541574446</v>
+        <v>77344.65138581487</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>235644.5669813341</v>
+        <v>78548.18899377804</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>239306.8584076086</v>
+        <v>79768.95280253621</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>243020.7907631451</v>
+        <v>81006.93025438173</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>246786.2723940472</v>
+        <v>82262.09079801578</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>250603.1553550402</v>
+        <v>83534.38511834676</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>254471.233122773</v>
+        <v>84823.7443742577</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>258390.2383419684</v>
+        <v>86130.07944732283</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>262359.8406136276</v>
+        <v>87453.28020454256</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>266379.6443349636</v>
+        <v>88793.21477832126</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>270449.1866009823</v>
+        <v>90149.72886699412</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>274567.9351784032</v>
+        <v>91522.64505946777</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>278735.2865624922</v>
+        <v>92911.76218749744</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>282950.564128036</v>
+        <v>94316.85470934535</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>287213.0163859188</v>
+        <v>95737.67212863964</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>291521.8153568343</v>
+        <v>97173.93845227815</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>295876.0550739697</v>
+        <v>98625.35169132327</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>300274.7502270747</v>
+        <v>100091.5834090249</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>304716.8349595312</v>
+        <v>101572.2783198438</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>309201.16183093</v>
+        <v>103067.0539436434</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>313726.5009574239</v>
+        <v>104575.5003191413</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>318291.5393417556</v>
+        <v>106097.1797805852</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>322894.8804053346</v>
+        <v>107631.6268017782</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>327535.0437336411</v>
+        <v>109178.3479112137</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>332210.4650473726</v>
+        <v>110736.8216824576</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>336919.4964095696</v>
+        <v>112306.4988031899</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>341660.4066805966</v>
+        <v>113886.8022268656</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>346431.3822302987</v>
+        <v>115477.1274100996</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>351230.5279181035</v>
+        <v>117076.8426393679</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>356055.8683494243</v>
+        <v>118685.2894498082</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>360905.3494173502</v>
+        <v>120301.7831391168</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>365776.840136848</v>
+        <v>121925.6133789494</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>370668.1347785897</v>
+        <v>123556.0449261966</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>375576.9553079315</v>
+        <v>125192.3184359772</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>380500.9541339637</v>
+        <v>126833.651377988</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>369050.8705624518</v>
+        <v>123016.9568541509</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>373787.5972682611</v>
+        <v>124595.8657560874</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>378531.7448634123</v>
+        <v>126177.2482878044</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>383280.8315266414</v>
+        <v>127760.2771755475</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>388032.3265343774</v>
+        <v>129344.1088447928</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>392783.6547066528</v>
+        <v>130927.8849022179</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>397532.2011495968</v>
+        <v>132510.7337165326</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>402275.3162882425</v>
+        <v>134091.7720960812</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>407010.3211832304</v>
+        <v>135670.1070610772</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>411734.5131235154</v>
+        <v>137244.8377078388</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>416445.1714845023</v>
+        <v>138815.0571615011</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>421139.5638415881</v>
+        <v>140379.854613863</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>425814.9523255658</v>
+        <v>141938.3174418556</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>430468.6002066333</v>
+        <v>143489.5334022115</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>435097.7786916309</v>
+        <v>145032.5928972107</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>439071.6719757121</v>
+        <v>146357.2239919041</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>443637.2610038228</v>
+        <v>147879.0870012743</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>448170.3591652456</v>
+        <v>149390.1197217486</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>452668.3447901118</v>
+        <v>150889.4482633707</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>457128.6406404427</v>
+        <v>152376.2135468143</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>461548.7215848807</v>
+        <v>153849.573861627</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>465926.1223463375</v>
+        <v>155308.7074487793</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>470258.4452987984</v>
+        <v>156752.8150995996</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>474543.3682889745</v>
+        <v>158181.1227629916</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>478778.652457693</v>
+        <v>159592.8841525644</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>546129.6083351235</v>
+        <v>182043.2027783749</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>550799.3960605077</v>
+        <v>183599.7986868364</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>555406.1105344964</v>
+        <v>185135.3701781659</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>559947.6842584553</v>
+        <v>186649.2280861522</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>564422.1871289331</v>
+        <v>188140.7290429781</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>568827.834671358</v>
+        <v>189609.2782237865</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>573162.9960700626</v>
+        <v>191054.3320233547</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>577426.2019663628</v>
+        <v>192475.4006554547</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>581616.1519964476</v>
+        <v>193872.050665483</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>585731.7220421284</v>
+        <v>195243.9073473766</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>666142.534005104</v>
+        <v>222047.5113350344</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>670620.0389943835</v>
+        <v>223540.0129981276</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>675010.9941707297</v>
+        <v>225003.6647235763</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>679315.0004911025</v>
+        <v>226438.3334970339</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>683531.8930358425</v>
+        <v>227843.9643452806</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>687661.746649356</v>
+        <v>229220.5822164517</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>691704.8810651614</v>
+        <v>230568.2936883869</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>695661.8654905544</v>
+        <v>231887.2884968512</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>699533.5226300863</v>
+        <v>233177.8408766952</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>703320.9321241783</v>
+        <v>234440.3107080592</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>674827.951425789</v>
+        <v>224942.6504752625</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>678286.1479061649</v>
+        <v>226095.3826353878</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>681668.520212138</v>
+        <v>227222.8400707122</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>684977.1007560181</v>
+        <v>228325.7002520056</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>688214.174564497</v>
+        <v>229404.7248548318</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>691382.2788197548</v>
+        <v>230460.7596065844</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>694484.2017161382</v>
+        <v>231494.7339053789</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>697522.9806123838</v>
+        <v>232507.6602041274</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>700501.8994651431</v>
+        <v>233500.6331550472</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>703424.4855232724</v>
+        <v>234474.828507757</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>758615.3402602546</v>
+        <v>252871.7800867511</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>761645.8020633222</v>
+        <v>253881.934021107</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>764628.643773878</v>
+        <v>254876.2145912923</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>767568.6471626979</v>
+        <v>255856.2157208989</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>770470.8249914631</v>
+        <v>256823.6083304873</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>773340.4122883147</v>
+        <v>257780.1374294378</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>776182.8566866323</v>
+        <v>258727.6188955437</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>779003.8078039801</v>
+        <v>259667.9359346596</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>781809.1056387973</v>
+        <v>260603.035212932</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>784604.7679608744</v>
+        <v>261534.9226536243</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>787396.9766745029</v>
+        <v>262465.6588915006</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>790192.0631297498</v>
+        <v>263397.3543765828</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>792996.4923628988</v>
+        <v>264332.1641209658</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>795816.8462431089</v>
+        <v>265272.2820810358</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>798659.8055087305</v>
+        <v>266219.9351695764</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>801532.1306764153</v>
+        <v>267177.3768921379</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>804440.6418087836</v>
+        <v>268146.8806029275</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>807392.1971321276</v>
+        <v>269130.7323773754</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>810393.6704977213</v>
+        <v>270131.22349924</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>813451.927686094</v>
+        <v>271150.6425620308</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>816573.8015607714</v>
+        <v>272191.2671869234</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>819766.066082244</v>
+        <v>273255.3553607475</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>823035.4092040262</v>
+        <v>274345.1364013416</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>826388.4046772365</v>
+        <v>275462.8015590783</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>829831.4828047128</v>
+        <v>276610.4942682371</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>833370.9001910945</v>
+        <v>277790.3000636977</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>837012.7085521908</v>
+        <v>279004.2361840631</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>840762.7226543772</v>
+        <v>280254.2408847919</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>844626.4874729346</v>
+        <v>281542.1624909777</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>848609.2446694094</v>
+        <v>282869.748223136</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>852715.8985038998</v>
+        <v>284238.6328346328</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>856950.98131539</v>
+        <v>285650.3271051295</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>861318.6187176459</v>
+        <v>287106.2062392148</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>865822.4946760288</v>
+        <v>288607.4982253424</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>870465.8166470577</v>
+        <v>290155.2722156855</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>875251.2809797376</v>
+        <v>291750.4269932454</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>880181.0387958949</v>
+        <v>293393.6795986312</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>885256.6625786995</v>
+        <v>295085.5541928993</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>890479.113721254</v>
+        <v>296826.3712404175</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>895848.7112958017</v>
+        <v>298616.2370986</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>60465.45991104792</v>
+        <v>84651.6438754671</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>72.81850158257002</v>
+        <v>101.945902215598</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>73.9737102981159</v>
+        <v>103.5631944173623</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>75.15406281321279</v>
+        <v>105.2156879384979</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>76.36042572673196</v>
+        <v>106.9045960174248</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>77.59370065489088</v>
+        <v>108.6311809168472</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>78.85482525300634</v>
+        <v>110.3967553542089</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>80.14477422704401</v>
+        <v>112.2026839178616</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>81.46456033133765</v>
+        <v>114.0503844638727</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>82.81523534757335</v>
+        <v>115.9413294866027</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>84.19789104177049</v>
+        <v>117.8770474584787</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>85.6136600948917</v>
+        <v>119.8591241328484</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>87.06371700138473</v>
+        <v>121.8892038019386</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>88.54927893235424</v>
+        <v>123.9689905052959</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>90.07160655678868</v>
+        <v>126.1002491795041</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>91.63200481699987</v>
+        <v>128.2848067437998</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>93.23182365159131</v>
+        <v>130.5245531122278</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>94.87245866111981</v>
+        <v>132.8214421255677</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>96.55535171046904</v>
+        <v>135.1774923946567</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>98.2819914613644</v>
+        <v>137.5947880459101</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>100.0539138299973</v>
+        <v>140.0754793619962</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>101.8727023622301</v>
+        <v>142.6217833071222</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>103.7399885207356</v>
+        <v>145.2359839290298</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>105.657451877578</v>
+        <v>147.9204326286093</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>107.6268202048388</v>
+        <v>150.6775482867743</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>109.649869457665</v>
+        <v>153.509817240731</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>111.7284236420911</v>
+        <v>156.4197930989275</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>113.8643545613042</v>
+        <v>159.4100963858259</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>116.0595814338141</v>
+        <v>162.4834140073398</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>118.3160703760927</v>
+        <v>165.6424985265298</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>120.6358337437402</v>
+        <v>168.8901672412364</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>123.0209293242976</v>
+        <v>172.2293010540166</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>125.4734593751392</v>
+        <v>175.6628431251949</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>127.9955695005059</v>
+        <v>179.1937973007082</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>130.5894473611535</v>
+        <v>182.8252263056149</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>133.2573212112833</v>
+        <v>186.5602496957966</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>136.001458256386</v>
+        <v>190.4020415589403</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>138.8241628276577</v>
+        <v>194.3538279587208</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>141.7277743673178</v>
+        <v>198.4188841142449</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>144.7146652205889</v>
+        <v>202.6005313088245</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>147.7872382297501</v>
+        <v>206.9021335216501</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>150.9479241277861</v>
+        <v>211.3270937789005</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>154.1991787266678</v>
+        <v>215.878850217335</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>157.5434798994111</v>
+        <v>220.5608718591755</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>160.9833243527247</v>
+        <v>225.3766540938145</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>164.5212241890695</v>
+        <v>230.3297138646972</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>168.1597032582925</v>
+        <v>235.4235845616095</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>171.9012932973254</v>
+        <v>240.6618106162555</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>175.7485298598096</v>
+        <v>246.0479418037334</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>179.7039480370873</v>
+        <v>251.5855272519223</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>183.7700779722142</v>
+        <v>257.2781091610998</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>187.9494401710072</v>
+        <v>263.1292162394101</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>192.2445406134274</v>
+        <v>269.1423568587984</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>196.6578656713967</v>
+        <v>275.3210119399553</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>201.191876837534</v>
+        <v>281.6686275725476</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>205.8490052728392</v>
+        <v>288.1886073819749</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>210.6316461812236</v>
+        <v>294.8843046537131</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>215.5421530186069</v>
+        <v>301.7590142260497</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>220.5828315477688</v>
+        <v>308.8159641668763</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>225.7559337494111</v>
+        <v>316.0583072491755</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>231.0636516010887</v>
+        <v>323.4891122415241</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>236.5081107370496</v>
+        <v>331.1113550318696</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>242.0913640038648</v>
+        <v>338.9279096054107</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>247.815384924863</v>
+        <v>346.9415388948082</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>253.6820610919872</v>
+        <v>355.1548855287821</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>259.6931874994078</v>
+        <v>363.570462499171</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>265.8504598386616</v>
+        <v>372.1906437741263</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>272.1554677735925</v>
+        <v>381.0176548830294</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>278.609688214466</v>
+        <v>390.0535635002525</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>285.2144786120019</v>
+        <v>399.3002700568027</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>291.9710702933617</v>
+        <v>408.7594984107064</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>298.8805618608932</v>
+        <v>418.4327866052506</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>305.9439126777219</v>
+        <v>428.3214777488108</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>313.1619364627969</v>
+        <v>438.4267110479157</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>320.5352950196525</v>
+        <v>448.7494130275135</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>328.0644921232455</v>
+        <v>459.2902889725436</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>335.749867590006</v>
+        <v>470.0498146260085</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>343.5915915556749</v>
+        <v>481.0282281779449</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>351.5896589870717</v>
+        <v>492.2255225819004</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>359.7438844527221</v>
+        <v>503.6414382338109</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>368.0538971782221</v>
+        <v>515.275456049511</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>376.5191364117683</v>
+        <v>527.1267909764756</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>385.1388471252933</v>
+        <v>539.1943859754106</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>393.9120760760919</v>
+        <v>551.4769065065286</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>402.8376682540064</v>
+        <v>563.972735555609</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>411.9142637373866</v>
+        <v>576.6799692323414</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>421.1402949829277</v>
+        <v>589.5964129760988</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>430.5139845713125</v>
+        <v>602.7195783998375</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>440.0333434298877</v>
+        <v>616.0466808018429</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>449.6961695554577</v>
+        <v>629.5746373776409</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>459.500047255563</v>
+        <v>643.3000661577883</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>469.442346927251</v>
+        <v>657.2192856981515</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>479.520225391585</v>
+        <v>671.3283155482191</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>489.730626799517</v>
+        <v>685.6228775193239</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>500.0702841232881</v>
+        <v>700.0983977726033</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>510.5357212472536</v>
+        <v>714.750009746155</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>521.1232556686718</v>
+        <v>729.5725579361407</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>531.8290018182677</v>
+        <v>744.5606025455749</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>542.6488750080207</v>
+        <v>759.7084250112289</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>553.5785960113243</v>
+        <v>775.0100344158541</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>564.6136962803142</v>
+        <v>790.4591747924399</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>575.7495238001659</v>
+        <v>806.0493333202323</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>586.9812495802362</v>
+        <v>821.7737494123307</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>598.3038747800437</v>
+        <v>837.6254246920611</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>609.7122384625776</v>
+        <v>853.5971338476087</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>621.2010259696959</v>
+        <v>869.6814363575742</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>632.7647779075827</v>
+        <v>885.8706890706159</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>644.3978997315104</v>
+        <v>902.1570596241146</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>656.0946719144355</v>
+        <v>918.5325406802096</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>667.8492606822845</v>
+        <v>934.9889649551983</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>679.6557292972448</v>
+        <v>951.5180210161427</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>691.5080498663038</v>
+        <v>968.1112698128253</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>703.4001156522875</v>
+        <v>984.7601619132026</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>715.325753860126</v>
+        <v>1001.456055404176</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>727.2787388704784</v>
+        <v>1018.19023441867</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>739.2528058901592</v>
+        <v>1034.953928246223</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>751.2416649870399</v>
+        <v>1051.738330981856</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>763.2390154743581</v>
+        <v>1068.534621664101</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>775.2385606089933</v>
+        <v>1085.333984852591</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>787.2340225651664</v>
+        <v>1102.127631591233</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>799.2191576443032</v>
+        <v>1118.906820702025</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>811.1877716797487</v>
+        <v>1135.662880351648</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>823.1337355942261</v>
+        <v>1152.387229831917</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>835.051001066383</v>
+        <v>1169.071401492936</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>846.9336162620159</v>
+        <v>1185.707062766822</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>858.7757415841414</v>
+        <v>1202.286038217798</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>870.5716653965803</v>
+        <v>1218.800331555213</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>882.3158196733287</v>
+        <v>1235.24214754266</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>894.0027955282515</v>
+        <v>1251.603913739552</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>905.627358575921</v>
+        <v>1267.878302006289</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>917.1844640787983</v>
+        <v>1284.058249710318</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>928.6692718322981</v>
+        <v>1300.136980565218</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>940.0771607411449</v>
+        <v>1316.108025037603</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>951.4037430430775</v>
+        <v>1331.965240260309</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>962.6448781315577</v>
+        <v>1347.702829384181</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>973.7966859366945</v>
+        <v>1363.315360311372</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>984.8555598192032</v>
+        <v>1378.797783746885</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>995.8181789359534</v>
+        <v>1394.145450510335</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>1006.681520038138</v>
+        <v>1409.354128053393</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>1017.442868662185</v>
+        <v>1424.420016127059</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>1028.099829677185</v>
+        <v>1439.339761548059</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>1038.650337154995</v>
+        <v>1454.110472016994</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>1049.092663528862</v>
+        <v>1468.729728940407</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>1059.425428012204</v>
+        <v>1483.195599217085</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>1069.647604247819</v>
+        <v>1497.506645946946</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>1079.758527164498</v>
+        <v>1511.661938030297</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1089.757899015869</v>
+        <v>1525.661058622217</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>1099.64579458396</v>
+        <v>1539.504112417544</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>1109.422665529417</v>
+        <v>1553.191731741184</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>1119.08934387358</v>
+        <v>1566.725081423012</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>1128.647044603368</v>
+        <v>1580.105862444715</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>1138.097367388557</v>
+        <v>1593.33631434398</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>1147.442297408726</v>
+        <v>1606.419216372217</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>1156.684205286151</v>
+        <v>1619.357887400611</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>1165.825846126743</v>
+        <v>1632.156184577441</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>1174.870357674308</v>
+        <v>1644.818500744031</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>1183.821257583048</v>
+        <v>1657.349760616267</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>1192.682439822003</v>
+        <v>1669.755415750804</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>1201.458170222286</v>
+        <v>1682.041438311201</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1210.153081185323</v>
+        <v>1694.214313659452</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>1218.772165570752</v>
+        <v>1706.281031799053</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>1227.320769786407</v>
+        <v>1718.24907770097</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>1235.80458610572</v>
+        <v>1730.126420548008</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1244.229644238937</v>
+        <v>1741.921501934511</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>1252.602302189836</v>
+        <v>1753.64322306577</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>1260.929236429607</v>
+        <v>1765.30093100145</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>1269.217431422149</v>
+        <v>1776.904403991009</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1277.474168538338</v>
+        <v>1788.463835953673</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>1285.707014398092</v>
+        <v>1799.989820157329</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>1293.923808680017</v>
+        <v>1811.493332152024</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>1302.132651441512</v>
+        <v>1822.985712018117</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>1310.34188999269</v>
+        <v>1834.478645989765</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>1318.560105369153</v>
+        <v>1845.984147516815</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>1326.796098449189</v>
+        <v>1857.514537828864</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>1335.058875762895</v>
+        <v>1869.082426068053</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>1343.357635040629</v>
+        <v>1880.700689056881</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1351.701750548631</v>
+        <v>1892.382450768084</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1360.100758260922</v>
+        <v>1904.14106156529</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1368.564340915496</v>
+        <v>1915.990077281694</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1377.10231300416</v>
+        <v>1927.943238205825</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1385.724605744201</v>
+        <v>1940.014448041881</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1394.441252079683</v>
+        <v>1952.217752911557</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1403.262371760067</v>
+        <v>1964.567320464094</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1412.198156543699</v>
+        <v>1977.077419161179</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1421.258855570783</v>
+        <v>1989.762397799097</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1430.454760951521</v>
+        <v>2002.636665332129</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1439.796193613564</v>
+        <v>2015.714671058989</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1449.29348944932</v>
+        <v>2029.010885229048</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1458.95698580661</v>
+        <v>2042.539780129254</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1468.797008359474</v>
+        <v>2056.315811703264</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1478.823858397631</v>
+        <v>2070.353401756684</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1489.047800571686</v>
+        <v>2084.666920800361</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1499.479051124951</v>
+        <v>2099.270671574932</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1510.127766646006</v>
+        <v>2114.178873304409</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1521.00403337125</v>
+        <v>2129.40564671975</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1532.117857064163</v>
+        <v>2144.964999889829</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1543.479153497181</v>
+        <v>2160.870814896053</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1555.097739559491</v>
+        <v>2177.136835383288</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1566.983325010495</v>
+        <v>2193.776655014694</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1579.145504898712</v>
+        <v>2210.803706858197</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1591.593752661208</v>
+        <v>2228.231253725692</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1604.337771917246</v>
+        <v>2246.072880684145</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1617.386098461405</v>
+        <v>2264.340537845967</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1630.748128027553</v>
+        <v>2283.047379238574</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1644.432792830909</v>
+        <v>2302.205909963273</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1658.448879592264</v>
+        <v>2321.82843142917</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1672.805026929301</v>
+        <v>2341.927037701022</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1687.509723477061</v>
+        <v>2362.513612867885</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1702.571306734802</v>
+        <v>2383.599829428722</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1717.997962635395</v>
+        <v>2405.197147689553</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1733.797725831223</v>
+        <v>2427.316816163713</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1749.978480687903</v>
+        <v>2449.969872963065</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1766.547962976523</v>
+        <v>2473.167148167132</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1783.513762253396</v>
+        <v>2496.919267154754</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1800.883324912265</v>
+        <v>2521.236654877172</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1818.663957895486</v>
+        <v>2546.129541053681</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>1836.86283304774</v>
+        <v>2571.607966266835</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1855.486992093417</v>
+        <v>2597.681788930784</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1874.543352219559</v>
+        <v>2624.360693107383</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1894.038712245492</v>
+        <v>2651.654197143688</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1913.979759352555</v>
+        <v>2679.571663093577</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>1934.373076359399</v>
+        <v>2708.122306903159</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1955.225149511826</v>
+        <v>2737.315209316556</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>1976.542376770062</v>
+        <v>2767.159327478087</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1998.331076560792</v>
+        <v>2797.663507185109</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>2020.597496978426</v>
+        <v>2828.836495769796</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>2043.347825399608</v>
+        <v>2860.686955559451</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2066.588198491727</v>
+        <v>2893.223477888418</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2090.324712584978</v>
+        <v>2926.45459761897</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2114.563434383769</v>
+        <v>2960.388808137277</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2139.310411985753</v>
+        <v>2995.034576780053</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2164.571686185753</v>
+        <v>3030.400360660054</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2190.353302035328</v>
+        <v>3066.494622849459</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>2216.661320628064</v>
+        <v>3103.325848879289</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>2243.501831087277</v>
+        <v>3140.902563522187</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>2270.880962725185</v>
+        <v>3179.233347815259</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>2298.80489734731</v>
+        <v>3218.326856286234</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>2327.279881675598</v>
+        <v>3258.191834345837</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>2356.312239862176</v>
+        <v>3298.837135807046</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>2385.908386065714</v>
+        <v>3340.271740491999</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>2416.074837067191</v>
+        <v>3382.504771894068</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>2446.818224894746</v>
+        <v>3425.545514852644</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>2478.145309432159</v>
+        <v>3469.403433205022</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>2510.062990987381</v>
+        <v>3514.088187382333</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>2542.578322790709</v>
+        <v>3559.609651906993</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>2575.698523401377</v>
+        <v>3605.977932761928</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>2609.430988993277</v>
+        <v>3653.203384590588</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>2643.783305496316</v>
+        <v>3701.296627694841</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>2678.7632605673</v>
+        <v>3750.268564794221</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>2714.378855365918</v>
+        <v>3800.130397512285</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>2750.638316107939</v>
+        <v>3850.893642551115</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>2787.550105374256</v>
+        <v>3902.570147523958</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>2825.122933147608</v>
+        <v>3955.172106406651</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>2863.365767550767</v>
+        <v>4008.712074571074</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>2902.287845263913</v>
+        <v>4063.202983369478</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>2941.89868159289</v>
+        <v>4118.658154230046</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>2982.20808016195</v>
+        <v>4175.09131222673</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>3023.226142205619</v>
+        <v>4232.516599087867</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>3064.963275434116</v>
+        <v>4290.948585607762</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>3107.430202440485</v>
+        <v>4350.402283416679</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>3150.637968628564</v>
+        <v>4410.893156079989</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>3194.597949626637</v>
+        <v>4472.437129477292</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>3239.321858160977</v>
+        <v>4535.050601425368</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>3284.821750363935</v>
+        <v>4598.750450509508</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>3331.11003147414</v>
+        <v>4663.554044063797</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>3378.199460913213</v>
+        <v>4729.479245278499</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>3426.103156695594</v>
+        <v>4796.544419373832</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>3474.834599141641</v>
+        <v>4864.768438798297</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>3524.407633864116</v>
+        <v>4934.170687409762</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>3574.836473987537</v>
+        <v>5004.771063582552</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>3626.135701570528</v>
+        <v>5076.58998219874</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>3678.320268189239</v>
+        <v>5149.648375464934</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>3731.405494648463</v>
+        <v>5223.967692507848</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>3785.407069780082</v>
+        <v>5299.569897692114</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>3840.341048287857</v>
+        <v>5376.477467603</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>3896.22384760173</v>
+        <v>5454.713386642422</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>3953.072243695759</v>
+        <v>5534.301141174063</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>4010.903365830179</v>
+        <v>5615.264712162251</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>4069.73469017194</v>
+        <v>5697.628566240716</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>4129.584032251591</v>
+        <v>5781.417645152227</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>4190.469538209094</v>
+        <v>5866.657353492732</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>4252.409674784211</v>
+        <v>5953.373544697896</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>4315.423218003915</v>
+        <v>6041.592505205483</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>4379.529240520286</v>
+        <v>6131.340936728401</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>4444.747097552544</v>
+        <v>6222.645936573563</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>4511.096411381038</v>
+        <v>6315.534975933453</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>4578.597054351699</v>
+        <v>6410.035876092379</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>4647.269130337489</v>
+        <v>6506.176782472485</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>4717.132954612503</v>
+        <v>6603.986136457505</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>4788.209032090078</v>
+        <v>6703.49264492611</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>4860.518033878044</v>
+        <v>6804.725247429261</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>4934.080772105742</v>
+        <v>6907.713080948039</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>5008.918172981119</v>
+        <v>7012.485442173566</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>5085.05124802699</v>
+        <v>7119.071747237785</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>5162.501063465013</v>
+        <v>7227.50148885102</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>5241.288707701356</v>
+        <v>7337.804190781897</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>5321.435256878767</v>
+        <v>7450.009359630275</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>5402.961738460991</v>
+        <v>7564.146433845388</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>5485.889092821412</v>
+        <v>7680.244729949976</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>5570.238132804432</v>
+        <v>7798.333385926204</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>5656.029501236083</v>
+        <v>7918.441301730515</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>56783.97172826705</v>
+        <v>79497.56041957387</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>57661.31688540634</v>
+        <v>80725.84363956888</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>58553.52007019069</v>
+        <v>81974.92809826694</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>59460.77404373228</v>
+        <v>83245.08366122517</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>60383.26747741838</v>
+        <v>84536.57446838572</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>61321.18440933988</v>
+        <v>85849.65817307582</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>62274.70368043621</v>
+        <v>87184.58515261069</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>63243.99835057474</v>
+        <v>88541.59769080463</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>64229.2350949012</v>
+        <v>89920.92913286167</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>65230.57358101923</v>
+        <v>91322.80301342692</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>66248.16582748089</v>
+        <v>92747.43215847322</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>67282.15554421912</v>
+        <v>94195.01776190675</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>68332.67745578941</v>
+        <v>95665.74843810516</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>69399.85660825256</v>
+        <v>97159.79925155359</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>70483.80766069301</v>
+        <v>98677.3307249702</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>71584.6341626091</v>
+        <v>100218.4878276527</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>72702.42781833273</v>
+        <v>101783.3989456658</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>73837.26773996247</v>
+        <v>103372.1748359474</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>74989.2196904227</v>
+        <v>104984.9075665918</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>76158.33531820393</v>
+        <v>106621.6694454855</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>77344.65138581487</v>
+        <v>108282.5119401408</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>78548.18899377804</v>
+        <v>109967.4645912893</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>79768.95280253621</v>
+        <v>111676.5339235507</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>81006.93025438173</v>
+        <v>113409.7023561344</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>82262.09079801578</v>
+        <v>115166.9271172221</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>83534.38511834676</v>
+        <v>116948.1391656855</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>84823.7443742577</v>
+        <v>118753.2421239608</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>86130.07944732283</v>
+        <v>120582.111226252</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>87453.28020454256</v>
+        <v>122434.5922863596</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>88793.21477832126</v>
+        <v>124310.5006896497</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>90149.72886699412</v>
+        <v>126209.6204137918</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>91522.64505946777</v>
+        <v>128131.7030832549</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>92911.76218749744</v>
+        <v>130076.4670624964</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>94316.85470934535</v>
+        <v>132043.5965930835</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>95737.67212863964</v>
+        <v>134032.7409800955</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>97173.93845227815</v>
+        <v>136043.5138331894</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>98625.35169132327</v>
+        <v>138075.4923678526</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>100091.5834090249</v>
+        <v>140128.2167726349</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>101572.2783198438</v>
+        <v>142201.1896477813</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>103067.0539436434</v>
+        <v>144293.8755211007</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>104575.5003191413</v>
+        <v>146405.7004467979</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>106097.1797805852</v>
+        <v>148536.0516928193</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>107631.6268017782</v>
+        <v>150684.2775224895</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>109178.3479112137</v>
+        <v>152849.6870756992</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>110736.8216824576</v>
+        <v>155031.5503554406</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>112306.4988031899</v>
+        <v>157229.0983244658</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>113886.8022268656</v>
+        <v>159441.5231176118</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>115477.1274100996</v>
+        <v>161667.9783741394</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>117076.8426393679</v>
+        <v>163907.579695115</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>118685.2894498082</v>
+        <v>166159.4052297314</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>120301.7831391168</v>
+        <v>168422.4963947635</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>121925.6133789494</v>
+        <v>170695.8587305291</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>123556.0449261966</v>
+        <v>172978.4628966752</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>125192.3184359772</v>
+        <v>175269.2458103681</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>126833.651377988</v>
+        <v>177567.1119291832</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>123016.9568541509</v>
+        <v>172223.7395958113</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>124595.8657560874</v>
+        <v>174434.2120585223</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>126177.2482878044</v>
+        <v>176648.1476029262</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>127760.2771755475</v>
+        <v>178864.3880457664</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>129344.1088447928</v>
+        <v>181081.7523827099</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>130927.8849022179</v>
+        <v>183299.0388631051</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>132510.7337165326</v>
+        <v>185515.0272031456</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>134091.7720960812</v>
+        <v>187728.4809345136</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>135670.1070610772</v>
+        <v>189938.149885508</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>137244.8377078388</v>
+        <v>192142.7727909743</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>138815.0571615011</v>
+        <v>194341.0800261016</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>140379.854613863</v>
+        <v>196531.7964594083</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>141938.3174418556</v>
+        <v>198713.6444185979</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>143489.5334022115</v>
+        <v>200885.3467630961</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>145032.5928972107</v>
+        <v>203045.6300560949</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>146357.2239919041</v>
+        <v>204900.1135886657</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>147879.0870012743</v>
+        <v>207030.7218017841</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>149390.1197217486</v>
+        <v>209146.1676104481</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>150889.4482633707</v>
+        <v>211245.227568719</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>152376.2135468143</v>
+        <v>213326.69896554</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>153849.573861627</v>
+        <v>215389.4034062778</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>155308.7074487793</v>
+        <v>217432.1904282909</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>156752.8150995996</v>
+        <v>219453.9411394394</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>158181.1227629916</v>
+        <v>221453.5718681882</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>159592.8841525644</v>
+        <v>223430.0378135902</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>182043.2027783749</v>
+        <v>336415.838734437</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>183599.7986868364</v>
+        <v>339292.4279732736</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>185135.3701781659</v>
+        <v>342130.1640892506</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>186649.2280861522</v>
+        <v>344927.7735032093</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>188140.7290429781</v>
+        <v>347684.0672714237</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>189609.2782237865</v>
+        <v>350397.9461575574</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>191054.3320233547</v>
+        <v>353068.4055791595</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>192475.4006554547</v>
+        <v>355694.5404112803</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>193872.050665483</v>
+        <v>358275.5496298127</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>195243.9073473766</v>
+        <v>360810.740777952</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>222047.5113350344</v>
+        <v>341953.167455953</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>223540.0129981276</v>
+        <v>344251.6200171165</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>225003.6647235763</v>
+        <v>346505.6436743075</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>226438.3334970339</v>
+        <v>348715.0335854322</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>227843.9643452806</v>
+        <v>350879.7050917321</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>229220.5822164517</v>
+        <v>352999.6966133356</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>230568.2936883869</v>
+        <v>355075.1722801158</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>231887.2884968512</v>
+        <v>357106.4242851509</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>233177.8408766952</v>
+        <v>359093.8749501106</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>234440.3107080592</v>
+        <v>361038.0784904112</v>
       </c>
     </row>
     <row r="403">

--- a/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>84651.6438754671</v>
+        <v>46558.40413150691</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>101.945902215598</v>
+        <v>56.07024621857892</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>103.5631944173623</v>
+        <v>56.95975692954925</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>105.2156879384979</v>
+        <v>57.86862836617387</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>106.9045960174248</v>
+        <v>58.79752780958362</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>108.6311809168472</v>
+        <v>59.74714950426598</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>110.3967553542089</v>
+        <v>60.71821544481489</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>112.2026839178616</v>
+        <v>61.71147615482388</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>114.0503844638727</v>
+        <v>62.72771145512998</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>115.9413294866027</v>
+        <v>63.76773121763149</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>117.8770474584787</v>
+        <v>64.83237610216328</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>119.8591241328484</v>
+        <v>65.92251827306661</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>121.8892038019386</v>
+        <v>67.03906209106624</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>123.9689905052959</v>
+        <v>68.18294477791277</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>126.1002491795041</v>
+        <v>69.35513704872729</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>128.2848067437998</v>
+        <v>70.55664370908991</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>130.5245531122278</v>
+        <v>71.78850421172532</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>132.8214421255677</v>
+        <v>73.05179316906225</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>135.1774923946567</v>
+        <v>74.34762081706117</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>137.5947880459101</v>
+        <v>75.6771334252506</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>140.0754793619962</v>
+        <v>77.04151364909791</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>142.6217833071222</v>
+        <v>78.4419808189172</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>145.2359839290298</v>
+        <v>79.87979116096639</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>147.9204326286093</v>
+        <v>81.3562379457351</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>150.6775482867743</v>
+        <v>82.87265155772585</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>153.509817240731</v>
+        <v>84.43039948240204</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>156.4197930989275</v>
+        <v>86.03088620441014</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>159.4100963858259</v>
+        <v>87.67555301220428</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>162.4834140073398</v>
+        <v>89.36587770403688</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>165.6424985265298</v>
+        <v>91.10337418959139</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>168.8901672412364</v>
+        <v>92.88959198268</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>172.2293010540166</v>
+        <v>94.72611557970914</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>175.6628431251949</v>
+        <v>96.61456371885721</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>179.1937973007082</v>
+        <v>98.55658851538954</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>182.8252263056149</v>
+        <v>100.5538744680882</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>186.5602496957966</v>
+        <v>102.6081373326881</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>190.4020415589403</v>
+        <v>104.7211228574172</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>194.3538279587208</v>
+        <v>106.8946053772965</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>198.4188841142449</v>
+        <v>109.1303862628347</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>202.6005313088245</v>
+        <v>111.4302922198535</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>206.9021335216501</v>
+        <v>113.7961734369076</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>211.3270937789005</v>
+        <v>116.2299015783953</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>215.878850217335</v>
+        <v>118.7333676195342</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>220.5608718591755</v>
+        <v>121.3084795225465</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>225.3766540938145</v>
+        <v>123.957159751598</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>230.3297138646972</v>
+        <v>126.6813426255835</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>235.4235845616095</v>
+        <v>129.4829715088852</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>240.6618106162555</v>
+        <v>132.3639958389406</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>246.0479418037334</v>
+        <v>135.3263679920533</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>251.5855272519223</v>
+        <v>138.3720399885573</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>257.2781091610998</v>
+        <v>141.5029600386049</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>263.1292162394101</v>
+        <v>144.7210689316756</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>269.1423568587984</v>
+        <v>148.0282962723391</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>275.3210119399553</v>
+        <v>151.4265565669754</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>281.6686275725476</v>
+        <v>154.9177451649012</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>288.1886073819749</v>
+        <v>158.5037340600862</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>294.8843046537131</v>
+        <v>162.1863675595422</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>301.7590142260497</v>
+        <v>165.9674578243273</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>308.8159641668763</v>
+        <v>169.848780291782</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>316.0583072491755</v>
+        <v>173.8320689870465</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>323.4891122415241</v>
+        <v>177.9190117328383</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>331.1113550318696</v>
+        <v>182.1112452675283</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>338.9279096054107</v>
+        <v>186.4103502829759</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>346.9415388948082</v>
+        <v>190.8178463921445</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>355.1548855287821</v>
+        <v>195.3351870408302</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>363.570462499171</v>
+        <v>199.963754374544</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>372.1906437741263</v>
+        <v>204.7048540757695</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>381.0176548830294</v>
+        <v>209.5597101856662</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>390.0535635002525</v>
+        <v>214.5294599251389</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>399.3002700568027</v>
+        <v>219.6151485312415</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>408.7594984107064</v>
+        <v>224.8177241258886</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>418.4327866052506</v>
+        <v>230.1380326328878</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>428.3214777488108</v>
+        <v>235.576812761846</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>438.4267110479157</v>
+        <v>241.1346910763536</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>448.7494130275135</v>
+        <v>246.8121771651325</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>459.2902889725436</v>
+        <v>252.609658934899</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>470.0498146260085</v>
+        <v>258.5273980443046</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>481.0282281779449</v>
+        <v>264.5655254978697</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>492.2255225819004</v>
+        <v>270.7240374200452</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>503.6414382338109</v>
+        <v>277.002791028596</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>515.275456049511</v>
+        <v>283.4015008272311</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>527.1267909764756</v>
+        <v>289.9197350370616</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>539.1943859754106</v>
+        <v>296.5569122864758</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>551.4769065065286</v>
+        <v>303.3122985785907</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>563.972735555609</v>
+        <v>310.185004555585</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>576.6799692323414</v>
+        <v>317.1739830777878</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>589.5964129760988</v>
+        <v>324.2780271368543</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>602.7195783998375</v>
+        <v>331.4957681199107</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>616.0466808018429</v>
+        <v>338.8256744410136</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>629.5746373776409</v>
+        <v>346.2660505577026</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>643.3000661577883</v>
+        <v>353.8150363867836</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>657.2192856981515</v>
+        <v>361.4706071339833</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>671.3283155482191</v>
+        <v>369.2305735515205</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>685.6228775193239</v>
+        <v>377.0925826356281</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>700.0983977726033</v>
+        <v>385.0541187749319</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>714.750009746155</v>
+        <v>393.1125053603852</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>729.5725579361407</v>
+        <v>401.2649068648774</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>744.5606025455749</v>
+        <v>409.5083314000661</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>759.7084250112289</v>
+        <v>417.8396337561759</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>775.0100344158541</v>
+        <v>426.2555189287198</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>790.4591747924399</v>
+        <v>434.752546135842</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>806.0493333202323</v>
+        <v>443.3271333261278</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>821.7737494123307</v>
+        <v>451.975562176782</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>837.6254246920611</v>
+        <v>460.6939835806336</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>853.5971338476087</v>
+        <v>469.4784236161848</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>869.6814363575742</v>
+        <v>478.3247899966659</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>885.8706890706159</v>
+        <v>487.2288789888387</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>902.1570596241146</v>
+        <v>496.1863827932631</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>918.5325406802096</v>
+        <v>505.1928973741154</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>934.9889649551983</v>
+        <v>514.2439307253592</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>951.5180210161427</v>
+        <v>523.3349115588785</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>968.1112698128253</v>
+        <v>532.4611983970539</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>984.7601619132026</v>
+        <v>541.6180890522614</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>1001.456055404176</v>
+        <v>550.8008304722971</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>1018.19023441867</v>
+        <v>560.0046289302684</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>1034.953928246223</v>
+        <v>569.2246605354225</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>1051.738330981856</v>
+        <v>578.4560820400209</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>1068.534621664101</v>
+        <v>587.6940419152558</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>1085.333984852591</v>
+        <v>596.933691668925</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>1102.127631591233</v>
+        <v>606.1701973751782</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>1118.906820702025</v>
+        <v>615.3987513861135</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>1135.662880351648</v>
+        <v>624.6145841934066</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>1152.387229831917</v>
+        <v>633.8129764075542</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>1169.071401492936</v>
+        <v>642.989270821115</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>1185.707062766822</v>
+        <v>652.1388845217523</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>1202.286038217798</v>
+        <v>661.2573210197891</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>1218.800331555213</v>
+        <v>670.340182355367</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>1235.24214754266</v>
+        <v>679.3831811484632</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>1251.603913739552</v>
+        <v>688.3821525567536</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>1267.878302006289</v>
+        <v>697.3330661034593</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>1284.058249710318</v>
+        <v>706.2320373406749</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>1300.136980565218</v>
+        <v>715.0753393108697</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>1316.108025037603</v>
+        <v>723.8594137706816</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>1331.965240260309</v>
+        <v>732.5808821431697</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>1347.702829384181</v>
+        <v>741.2365561612995</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>1363.315360311372</v>
+        <v>749.8234481712548</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>1378.797783746885</v>
+        <v>758.3387810607866</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>1394.145450510335</v>
+        <v>766.7799977806842</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>1409.354128053393</v>
+        <v>775.1447704293661</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>1424.420016127059</v>
+        <v>783.4310088698827</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>1439.339761548059</v>
+        <v>791.6368688514326</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>1454.110472016994</v>
+        <v>799.7607596093467</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>1468.729728940407</v>
+        <v>807.801350917224</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>1483.195599217085</v>
+        <v>815.757579569397</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>1497.506645946946</v>
+        <v>823.6286552708204</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>1511.661938030297</v>
+        <v>831.4140659166633</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1525.661058622217</v>
+        <v>839.1135822422195</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>1539.504112417544</v>
+        <v>846.7272618296494</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>1553.191731741184</v>
+        <v>854.2554524576511</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>1566.725081423012</v>
+        <v>861.6987947826568</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>1580.105862444715</v>
+        <v>869.0582243445931</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>1593.33631434398</v>
+        <v>876.3349728891891</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>1606.419216372217</v>
+        <v>883.5305690047193</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>1619.357887400611</v>
+        <v>890.6468380703363</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>1632.156184577441</v>
+        <v>897.6859015175924</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>1644.818500744031</v>
+        <v>904.6501754092169</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>1657.349760616267</v>
+        <v>911.542368338947</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>1669.755415750804</v>
+        <v>918.3654786629423</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>1682.041438311201</v>
+        <v>925.1227910711605</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1694.214313659452</v>
+        <v>931.8178725126987</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>1706.281031799053</v>
+        <v>938.4545674894794</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>1718.24907770097</v>
+        <v>945.0369927355334</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>1730.126420548008</v>
+        <v>951.5695313014047</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1741.921501934511</v>
+        <v>958.0568260639812</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>1753.64322306577</v>
+        <v>964.5037726861736</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>1765.30093100145</v>
+        <v>970.9155120507978</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>1776.904403991009</v>
+        <v>977.2974221950549</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1788.463835953673</v>
+        <v>983.6551097745203</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>1799.989820157329</v>
+        <v>989.994401086531</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>1811.493332152024</v>
+        <v>996.3213326836132</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>1822.985712018117</v>
+        <v>1002.642141609964</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>1834.478645989765</v>
+        <v>1008.963255294371</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>1845.984147516815</v>
+        <v>1015.291281134248</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>1857.514537828864</v>
+        <v>1021.632995805875</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>1869.082426068053</v>
+        <v>1027.995334337429</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>1880.700689056881</v>
+        <v>1034.385378981284</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1892.382450768084</v>
+        <v>1040.810347922446</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1904.14106156529</v>
+        <v>1047.27758386091</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1915.990077281694</v>
+        <v>1053.794542504932</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1927.943238205825</v>
+        <v>1060.368781013204</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1940.014448041881</v>
+        <v>1067.007946423035</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1952.217752911557</v>
+        <v>1073.719764101356</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1964.567320464094</v>
+        <v>1080.512026255252</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1977.077419161179</v>
+        <v>1087.392580538649</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1989.762397799097</v>
+        <v>1094.369318789503</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>2002.636665332129</v>
+        <v>1101.450165932671</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>2015.714671058989</v>
+        <v>1108.643069082444</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>2029.010885229048</v>
+        <v>1115.955986875976</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>2042.539780129254</v>
+        <v>1123.39687907109</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>2056.315811703264</v>
+        <v>1130.973696436795</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>2070.353401756684</v>
+        <v>1138.694370966176</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>2084.666920800361</v>
+        <v>1146.566806440199</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>2099.270671574932</v>
+        <v>1154.598869366213</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>2114.178873304409</v>
+        <v>1162.798380317425</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>2129.40564671975</v>
+        <v>1171.173105695862</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>2144.964999889829</v>
+        <v>1179.730749939406</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>2160.870814896053</v>
+        <v>1188.478948192829</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>2177.136835383288</v>
+        <v>1197.425259460808</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>2193.776655014694</v>
+        <v>1206.577160258082</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>2210.803706858197</v>
+        <v>1215.942038772009</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>2228.231253725692</v>
+        <v>1225.52718954913</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>2246.072880684145</v>
+        <v>1235.34008437628</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>2264.340537845967</v>
+        <v>1245.387295815282</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>2283.047379238574</v>
+        <v>1255.676058581216</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>2302.205909963273</v>
+        <v>1266.2132504798</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>2321.82843142917</v>
+        <v>1277.005637286044</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>2341.927037701022</v>
+        <v>1288.059870735562</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>2362.513612867885</v>
+        <v>1299.382487077337</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>2383.599829428722</v>
+        <v>1310.979906185797</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>2405.197147689553</v>
+        <v>1322.858431229254</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>2427.316816163713</v>
+        <v>1335.024248890042</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>2449.969872963065</v>
+        <v>1347.483430129685</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>2473.167148167132</v>
+        <v>1360.241931491923</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>2496.919267154754</v>
+        <v>1373.305596935115</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>2521.236654877172</v>
+        <v>1386.680160182444</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>2546.129541053681</v>
+        <v>1400.371247579525</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>2571.607966266835</v>
+        <v>1414.38438144676</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>2597.681788930784</v>
+        <v>1428.724983911931</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>2624.360693107383</v>
+        <v>1443.398381209061</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>2651.654197143688</v>
+        <v>1458.409808429029</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>2679.571663093577</v>
+        <v>1473.764414701467</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>2708.122306903159</v>
+        <v>1489.467268796738</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>2737.315209316556</v>
+        <v>1505.523365124106</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>2767.159327478087</v>
+        <v>1521.937630112948</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>2797.663507185109</v>
+        <v>1538.71492895181</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>2828.836495769796</v>
+        <v>1555.860072673388</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>2860.686955559451</v>
+        <v>1573.377825557698</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2893.223477888418</v>
+        <v>1591.27291283863</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2926.45459761897</v>
+        <v>1609.550028690434</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2960.388808137277</v>
+        <v>1628.213844475502</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2995.034576780053</v>
+        <v>1647.269017229029</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>3030.400360660054</v>
+        <v>1666.72019836303</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>3066.494622849459</v>
+        <v>1686.572042567203</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>3103.325848879289</v>
+        <v>1706.829216883609</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>3140.902563522187</v>
+        <v>1727.496409937203</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>3179.233347815259</v>
+        <v>1748.578341298393</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>3218.326856286234</v>
+        <v>1770.079770957429</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>3258.191834345837</v>
+        <v>1792.00550889021</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>3298.837135807046</v>
+        <v>1814.360424693875</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>3340.271740491999</v>
+        <v>1837.149457270599</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>3382.504771894068</v>
+        <v>1860.377624541737</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>3425.545514852644</v>
+        <v>1884.050033168955</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>3469.403433205022</v>
+        <v>1908.171888262763</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>3514.088187382333</v>
+        <v>1932.748503060284</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>3559.609651906993</v>
+        <v>1957.785308548846</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>3605.977932761928</v>
+        <v>1983.287863019061</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>3653.203384590588</v>
+        <v>2009.261861524824</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>3701.296627694841</v>
+        <v>2035.713145232163</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>3750.268564794221</v>
+        <v>2062.647710636822</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>3800.130397512285</v>
+        <v>2090.071718631757</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>3850.893642551115</v>
+        <v>2117.991503403113</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>3902.570147523958</v>
+        <v>2146.413581138177</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>3955.172106406651</v>
+        <v>2175.344658523658</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>4008.712074571074</v>
+        <v>2204.791641014091</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>4063.202983369478</v>
+        <v>2234.761640853213</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>4118.658154230046</v>
+        <v>2265.261984826525</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>4175.09131222673</v>
+        <v>2296.300221724702</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>4232.516599087867</v>
+        <v>2327.884129498327</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>4290.948585607762</v>
+        <v>2360.021722084269</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>4350.402283416679</v>
+        <v>2392.721255879173</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>4410.893156079989</v>
+        <v>2425.991235843994</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>4472.437129477292</v>
+        <v>2459.840421212511</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>4535.050601425368</v>
+        <v>2494.277830783952</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>4598.750450509508</v>
+        <v>2529.31274778023</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>4663.554044063797</v>
+        <v>2564.954724235088</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>4729.479245278499</v>
+        <v>2601.213584903174</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>4796.544419373832</v>
+        <v>2638.099430655608</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>4864.768438798297</v>
+        <v>2675.622641339064</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>4934.170687409762</v>
+        <v>2713.793878075369</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>5004.771063582552</v>
+        <v>2752.624084970404</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>5076.58998219874</v>
+        <v>2792.124490209308</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>5149.648375464934</v>
+        <v>2832.306606505714</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>5223.967692507848</v>
+        <v>2873.182230879317</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>5299.569897692114</v>
+        <v>2914.763443730663</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>5376.477467603</v>
+        <v>2957.06260718165</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>5454.713386642422</v>
+        <v>3000.092362653332</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>5534.301141174063</v>
+        <v>3043.865627645735</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>5615.264712162251</v>
+        <v>3088.395591689238</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>5697.628566240716</v>
+        <v>3133.695711432394</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>5781.417645152227</v>
+        <v>3179.779704833726</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>5866.657353492732</v>
+        <v>3226.661544421003</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>5953.373544697896</v>
+        <v>3274.355449583843</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>6041.592505205483</v>
+        <v>3322.875877863015</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>6131.340936728401</v>
+        <v>3372.237515200621</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>6222.645936573563</v>
+        <v>3422.45526511546</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>6315.534975933453</v>
+        <v>3473.5442367634</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>6410.035876092379</v>
+        <v>3525.519731850809</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>6506.176782472485</v>
+        <v>3578.397230359867</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>6603.986136457505</v>
+        <v>3632.192375051628</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>6703.49264492611</v>
+        <v>3686.920954709361</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>6804.725247429261</v>
+        <v>3742.598886086094</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>6907.713080948039</v>
+        <v>3799.242194521421</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>7012.485442173566</v>
+        <v>3856.866993195462</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>7119.071747237785</v>
+        <v>3915.489460980782</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>7227.50148885102</v>
+        <v>3975.125818868061</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>7337.804190781897</v>
+        <v>4035.792304930044</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>7450.009359630275</v>
+        <v>4097.505147796652</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>7564.146433845388</v>
+        <v>4160.280538614964</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>7680.244729949976</v>
+        <v>4224.134601472488</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>7798.333385926204</v>
+        <v>4289.083362259413</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>7918.441301730515</v>
+        <v>4355.142715951783</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>79497.56041957387</v>
+        <v>43723.65823076563</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>80725.84363956888</v>
+        <v>44399.21400176288</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>81974.92809826694</v>
+        <v>45086.21045404683</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>83245.08366122517</v>
+        <v>45784.79601367385</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>84536.57446838572</v>
+        <v>46495.11595761215</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>85849.65817307582</v>
+        <v>47217.3119951917</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>87184.58515261069</v>
+        <v>47951.52183393588</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>88541.59769080463</v>
+        <v>48697.87872994255</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>89920.92913286167</v>
+        <v>49456.51102307392</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>91322.80301342692</v>
+        <v>50227.54165738481</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>92747.43215847322</v>
+        <v>51011.08768716028</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>94195.01776190675</v>
+        <v>51807.25976904872</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>95665.74843810516</v>
+        <v>52616.16164095784</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>97159.79925155359</v>
+        <v>53437.88958835448</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>98677.3307249702</v>
+        <v>54272.53189873361</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>100218.4878276527</v>
+        <v>55120.16830520901</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>101783.3989456658</v>
+        <v>55980.86942011619</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>103372.1748359474</v>
+        <v>56854.69615977109</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>104984.9075665918</v>
+        <v>57741.69916162548</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>106621.6694454855</v>
+        <v>58641.91819501702</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>108282.5119401408</v>
+        <v>59555.38156707746</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>109967.4645912893</v>
+        <v>60482.1055252091</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>111676.5339235507</v>
+        <v>61422.09365795288</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>113409.7023561344</v>
+        <v>62375.33629587392</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>115166.9271172221</v>
+        <v>63341.80991447213</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>116948.1391656855</v>
+        <v>64321.476541127</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>118753.2421239608</v>
+        <v>65314.28316817843</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>120582.111226252</v>
+        <v>66320.16117443857</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>122434.5922863596</v>
+        <v>67339.02575749777</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>124310.5006896497</v>
+        <v>68370.77537930736</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>126209.6204137918</v>
+        <v>69415.29122758548</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>128131.7030832549</v>
+        <v>70472.43669579018</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>130076.4670624964</v>
+        <v>71542.05688437303</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>132043.5965930835</v>
+        <v>72623.97812619591</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>134032.7409800955</v>
+        <v>73718.00753905253</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>136043.5138331894</v>
+        <v>74823.93260825417</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>138075.4923678526</v>
+        <v>75941.52080231892</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>140128.2167726349</v>
+        <v>77070.5192249492</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>142201.1896477813</v>
+        <v>78210.6543062797</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>144293.8755211007</v>
+        <v>79361.63153660539</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>146405.7004467979</v>
+        <v>80523.13524573883</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>148536.0516928193</v>
+        <v>81694.8284310506</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>150684.2775224895</v>
+        <v>82876.35263736924</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>152849.6870756992</v>
+        <v>84067.32789163456</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>155031.5503554406</v>
+        <v>85267.35269549231</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>157229.0983244658</v>
+        <v>86476.00407845622</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>159441.5231176118</v>
+        <v>87692.8377146865</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>161667.9783741394</v>
+        <v>88917.38810577668</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>163907.579695115</v>
+        <v>90149.16883231327</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>166159.4052297314</v>
+        <v>91387.67287635227</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>168422.4963947635</v>
+        <v>92632.37301711991</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>170695.8587305291</v>
+        <v>93882.72230179103</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>172978.4628966752</v>
+        <v>95138.15459317136</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>175269.2458103681</v>
+        <v>96398.08519570246</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>177567.1119291832</v>
+        <v>97661.91156105073</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>172223.7395958113</v>
+        <v>94723.05677769621</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>174434.2120585223</v>
+        <v>95938.81663218727</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>176648.1476029262</v>
+        <v>97156.4811816094</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>178864.3880457664</v>
+        <v>98375.41342517154</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>181081.7523827099</v>
+        <v>99594.96381049046</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>183299.0388631051</v>
+        <v>100814.4713747078</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>185515.0272031456</v>
+        <v>102033.2649617301</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>187728.4809345136</v>
+        <v>103250.6645139825</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>189938.149885508</v>
+        <v>104465.9824370294</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>192142.7727909743</v>
+        <v>105678.5250350359</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>194341.0800261016</v>
+        <v>106887.5940143559</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>196531.7964594083</v>
+        <v>108092.4880526746</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>198713.6444185979</v>
+        <v>109292.5044302288</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>200885.3467630961</v>
+        <v>110486.9407197028</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>203045.6300560949</v>
+        <v>111675.0965308522</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>204900.1135886657</v>
+        <v>112695.0624737662</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>207030.7218017841</v>
+        <v>113866.8969909813</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>209146.1676104481</v>
+        <v>115030.3921857464</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>211245.227568719</v>
+        <v>116184.8751627954</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>213326.69896554</v>
+        <v>117329.684431047</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>215389.4034062778</v>
+        <v>118464.1718734528</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>217432.1904282909</v>
+        <v>119587.70473556</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>219453.9411394394</v>
+        <v>120699.6676266916</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>221453.5718681882</v>
+        <v>121799.4645275035</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>223430.0378135902</v>
+        <v>122886.5207974746</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>336415.838734437</v>
+        <v>185028.7113039403</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>339292.4279732736</v>
+        <v>186610.8353853005</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>342130.1640892506</v>
+        <v>188171.5902490879</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>344927.7735032093</v>
+        <v>189710.2754267651</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>347684.0672714237</v>
+        <v>191226.236999283</v>
       </c>
     </row>
     <row r="388">

--- a/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>46558.40413150691</v>
+        <v>181396.3797331438</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>56.07024621857892</v>
+        <v>218.4555047477101</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>56.95975692954925</v>
+        <v>221.9211308943477</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>57.86862836617387</v>
+        <v>225.4621884396384</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>58.79752780958362</v>
+        <v>229.0812771801959</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>59.74714950426598</v>
+        <v>232.7811019646726</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>60.71821544481489</v>
+        <v>236.564475759019</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>61.71147615482388</v>
+        <v>240.434322681132</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>62.72771145512998</v>
+        <v>244.3936809940129</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>63.76773121763149</v>
+        <v>248.4457060427201</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>64.83237610216328</v>
+        <v>252.5936731253115</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>65.92251827306661</v>
+        <v>256.8409802846751</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>67.03906209106624</v>
+        <v>261.1911510041542</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>68.18294477791277</v>
+        <v>265.6478367970627</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>69.35513704872729</v>
+        <v>270.214819670366</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>70.55664370908991</v>
+        <v>274.8960144509996</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>71.78850421172532</v>
+        <v>279.695470954774</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>73.05179316906225</v>
+        <v>284.6173759833594</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>74.34762081706117</v>
+        <v>289.6660551314071</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>75.6771334252506</v>
+        <v>294.8459743840932</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>77.04151364909791</v>
+        <v>300.1617414899918</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>78.4419808189172</v>
+        <v>305.6181070866903</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>79.87979116096639</v>
+        <v>311.2199655622067</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>81.3562379457351</v>
+        <v>316.9723556327341</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>82.87265155772585</v>
+        <v>322.8804606145163</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>84.43039948240204</v>
+        <v>328.9496083729949</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>86.03088620441014</v>
+        <v>335.1852709262732</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>87.67555301220428</v>
+        <v>341.5930636839127</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>89.36587770403688</v>
+        <v>348.1787443014424</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>91.10337418959139</v>
+        <v>354.9482111282781</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>92.88959198268</v>
+        <v>361.9075012312207</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>94.72611557970914</v>
+        <v>369.0627879728927</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>96.61456371885721</v>
+        <v>376.4203781254176</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>98.55658851538954</v>
+        <v>383.9867085015176</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>100.5538744680882</v>
+        <v>391.7683420834605</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>102.6081373326881</v>
+        <v>399.7719636338497</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>104.7211228574172</v>
+        <v>408.0043747691578</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>106.8946053772965</v>
+        <v>416.4724884829731</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>109.1303862628347</v>
+        <v>425.1833231019534</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>111.4302922198535</v>
+        <v>434.1439956617667</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>113.7961734369076</v>
+        <v>443.3617146892503</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>116.2299015783953</v>
+        <v>452.8437723833582</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>118.7333676195342</v>
+        <v>462.5975361800035</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>121.3084795225465</v>
+        <v>472.6304396982332</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>123.957159751598</v>
+        <v>482.949973058174</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>126.6813426255835</v>
+        <v>493.5636725672084</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>129.4829715088852</v>
+        <v>504.4791097748776</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>132.3639958389406</v>
+        <v>515.7038798919762</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>135.3263679920533</v>
+        <v>527.2455895794286</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>138.3720399885573</v>
+        <v>539.1118441112619</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>141.5029600386049</v>
+        <v>551.3102339166425</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>144.7210689316756</v>
+        <v>563.8483205130217</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>148.0282962723391</v>
+        <v>576.7336218402822</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>151.4265565669754</v>
+        <v>589.9735970141901</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>154.9177451649012</v>
+        <v>603.5756305126019</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>158.5037340600862</v>
+        <v>617.5470158185175</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>162.1863675595422</v>
+        <v>631.8949385436707</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>165.9674578243273</v>
+        <v>646.6264590558208</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>169.848780291782</v>
+        <v>661.7484946433062</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>173.8320689870465</v>
+        <v>677.2678012482331</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>177.9190117328383</v>
+        <v>693.1909548032659</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>182.1112452675283</v>
+        <v>709.5243322111489</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>186.4103502829759</v>
+        <v>726.2740920115941</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>190.8178463921445</v>
+        <v>743.446154774589</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>195.3351870408302</v>
+        <v>761.0461832759617</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>199.963754374544</v>
+        <v>779.0795624982235</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>204.7048540757695</v>
+        <v>797.5513795159848</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>209.5597101856662</v>
+        <v>816.4664033207773</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>214.5294599251389</v>
+        <v>835.8290646433982</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>219.6151485312415</v>
+        <v>855.6434358360057</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>224.8177241258886</v>
+        <v>875.9132108800851</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>230.1380326328878</v>
+        <v>896.6416855826795</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>235.576812761846</v>
+        <v>917.8317380331659</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>241.1346910763536</v>
+        <v>939.4858093883907</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>246.8121771651325</v>
+        <v>961.6058850589575</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>252.609658934899</v>
+        <v>984.1934763697365</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>258.5273980443046</v>
+        <v>1007.249602770018</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>264.5655254978697</v>
+        <v>1030.774774667025</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>270.7240374200452</v>
+        <v>1054.768976961215</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>277.002791028596</v>
+        <v>1079.231653358166</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>283.4015008272311</v>
+        <v>1104.161691534666</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>289.9197350370616</v>
+        <v>1129.557409235305</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>296.5569122864758</v>
+        <v>1155.41654137588</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>303.3122985785907</v>
+        <v>1181.736228228276</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>310.185004555585</v>
+        <v>1208.513004762019</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>317.1739830777878</v>
+        <v>1235.74279121216</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>324.2780271368543</v>
+        <v>1263.420884948783</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>331.4957681199107</v>
+        <v>1291.541953713938</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>338.8256744410136</v>
+        <v>1320.100030289663</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>346.2660505577026</v>
+        <v>1349.088508666373</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>353.8150363867836</v>
+        <v>1378.500141766689</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>361.4706071339833</v>
+        <v>1408.327040781753</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>369.2305735515205</v>
+        <v>1438.560676174755</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>377.0925826356281</v>
+        <v>1469.191880398551</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>385.0541187749319</v>
+        <v>1500.210852369864</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>393.1125053603852</v>
+        <v>1531.607163741761</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>401.2649068648774</v>
+        <v>1563.369767006016</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>409.5083314000661</v>
+        <v>1595.487005454803</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>417.8396337561759</v>
+        <v>1627.946625024062</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>426.2555189287198</v>
+        <v>1660.735788033973</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>434.752546135842</v>
+        <v>1693.841088840942</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>443.3271333261278</v>
+        <v>1727.248571400498</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>451.975562176782</v>
+        <v>1760.943748740709</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>460.6939835806336</v>
+        <v>1794.911624340131</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>469.4784236161848</v>
+        <v>1829.136715387733</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>478.3247899966659</v>
+        <v>1863.603077909087</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>487.2288789888387</v>
+        <v>1898.294333722748</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>496.1863827932631</v>
+        <v>1933.193699194531</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>505.1928973741154</v>
+        <v>1968.284015743306</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>514.2439307253592</v>
+        <v>2003.547782046854</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>523.3349115588785</v>
+        <v>2038.967187891734</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>532.4611983970539</v>
+        <v>2074.524149598911</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>541.6180890522614</v>
+        <v>2110.200346956862</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>550.8008304722971</v>
+        <v>2145.977261580378</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>560.0046289302684</v>
+        <v>2181.836216611435</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>569.2246605354225</v>
+        <v>2217.758417670477</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>578.4560820400209</v>
+        <v>2253.72499496112</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>587.6940419152558</v>
+        <v>2289.717046423074</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>596.933691668925</v>
+        <v>2325.71568182698</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>606.1701973751782</v>
+        <v>2361.702067695499</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>615.3987513861135</v>
+        <v>2397.65747293291</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>624.6145841934066</v>
+        <v>2433.563315039246</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>633.8129764075542</v>
+        <v>2469.401206782678</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>642.989270821115</v>
+        <v>2505.153003199149</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>652.1388845217523</v>
+        <v>2540.800848786047</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>661.2573210197891</v>
+        <v>2576.327224752424</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>670.340182355367</v>
+        <v>2611.714996189741</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>679.3831811484632</v>
+        <v>2646.947459019986</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>688.3821525567536</v>
+        <v>2682.008386584755</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>697.3330661034593</v>
+        <v>2716.882075727763</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>706.2320373406749</v>
+        <v>2751.553392236395</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>715.0753393108697</v>
+        <v>2786.007815496894</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>723.8594137706816</v>
+        <v>2820.231482223435</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>732.5808821431697</v>
+        <v>2854.211229129232</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>741.2365561612995</v>
+        <v>2887.934634394673</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>749.8234481712548</v>
+        <v>2921.390057810083</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>758.3387810607866</v>
+        <v>2954.56667945761</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>766.7799977806842</v>
+        <v>2987.45453680786</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>775.1447704293661</v>
+        <v>3020.044560114412</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>783.4310088698827</v>
+        <v>3052.328605986555</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>791.6368688514326</v>
+        <v>3084.299489031555</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>799.7607596093467</v>
+        <v>3115.951011464986</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>807.801350917224</v>
+        <v>3147.277990586586</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>815.757579569397</v>
+        <v>3178.276284036611</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>823.6286552708204</v>
+        <v>3208.942812743455</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>831.4140659166633</v>
+        <v>3239.275581493493</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>839.1135822422195</v>
+        <v>3269.273697047608</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>846.7272618296494</v>
+        <v>3298.93738375188</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>854.2554524576511</v>
+        <v>3328.267996588251</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>861.6987947826568</v>
+        <v>3357.268031620741</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>869.0582243445931</v>
+        <v>3385.941133810102</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>876.3349728891891</v>
+        <v>3414.292102165671</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>883.5305690047193</v>
+        <v>3442.326892226178</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>890.6468380703363</v>
+        <v>3470.052615858453</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>897.6859015175924</v>
+        <v>3497.47753838023</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>904.6501754092169</v>
+        <v>3524.611073022922</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>911.542368338947</v>
+        <v>3551.463772749143</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>918.3654786629423</v>
+        <v>3578.047319466009</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>925.1227910711605</v>
+        <v>3604.374510666859</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>931.8178725126987</v>
+        <v>3630.459243555969</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>938.4545674894794</v>
+        <v>3656.316496712257</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>945.0369927355334</v>
+        <v>3681.962309359221</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>951.5695313014047</v>
+        <v>3707.41375831716</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>958.0568260639812</v>
+        <v>3732.68893271681</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>964.5037726861736</v>
+        <v>3757.806906569507</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>970.9155120507978</v>
+        <v>3782.787709288822</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>977.2974221950549</v>
+        <v>3807.652294266447</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>983.6551097745203</v>
+        <v>3832.422505615013</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>989.994401086531</v>
+        <v>3857.121043194276</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>996.3213326836132</v>
+        <v>3881.77142604005</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>1002.642141609964</v>
+        <v>3906.397954324536</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>1008.963255294371</v>
+        <v>3931.025669978069</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>1015.291281134248</v>
+        <v>3955.68031610746</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>1021.632995805875</v>
+        <v>3980.388295347565</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>1027.995334337429</v>
+        <v>4005.176627288684</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>1034.385378981284</v>
+        <v>4030.072905121887</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1040.810347922446</v>
+        <v>4055.105251645894</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1047.27758386091</v>
+        <v>4080.302274782764</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1053.794542504932</v>
+        <v>4105.693022746487</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1060.368781013204</v>
+        <v>4131.306939012481</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1067.007946423035</v>
+        <v>4157.173817232601</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1073.719764101356</v>
+        <v>4183.32375623905</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1080.512026255252</v>
+        <v>4209.787115280201</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1087.392580538649</v>
+        <v>4236.594469631098</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1094.369318789503</v>
+        <v>4263.77656671235</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1101.450165932671</v>
+        <v>4291.364282854562</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1108.643069082444</v>
+        <v>4319.388580840691</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1115.955986875976</v>
+        <v>4347.88046834796</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1123.39687907109</v>
+        <v>4376.870957419829</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1130.973696436795</v>
+        <v>4406.391025078421</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1138.694370966176</v>
+        <v>4436.471575192892</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1146.566806440199</v>
+        <v>4467.14340171506</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1154.598869366213</v>
+        <v>4498.437153374854</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1162.798380317425</v>
+        <v>4530.383299938019</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1171.173105695862</v>
+        <v>4563.01210011375</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1179.730749939406</v>
+        <v>4596.35357119249</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1188.478948192829</v>
+        <v>4630.437460491542</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1197.425259460808</v>
+        <v>4665.293218678473</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1206.577160258082</v>
+        <v>4700.949975031485</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1215.942038772009</v>
+        <v>4737.436514696136</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1225.52718954913</v>
+        <v>4774.781257983625</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1235.34008437628</v>
+        <v>4813.013315751738</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1245.387295815282</v>
+        <v>4852.158295384215</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1255.676058581216</v>
+        <v>4892.244384082659</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1266.2132504798</v>
+        <v>4933.298378492728</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1277.005637286044</v>
+        <v>4975.346638776792</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1288.059870735562</v>
+        <v>5018.415080787904</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1299.382487077337</v>
+        <v>5062.529170431182</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1310.979906185797</v>
+        <v>5107.713920204404</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1322.858431229254</v>
+        <v>5153.993887906184</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1335.024248890042</v>
+        <v>5201.393177493668</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1347.483430129685</v>
+        <v>5249.935442063709</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1360.241931491923</v>
+        <v>5299.643888929568</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1373.305596935115</v>
+        <v>5350.541286760186</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1386.680160182444</v>
+        <v>5402.649974736795</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1400.371247579525</v>
+        <v>5455.991873686458</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>1414.38438144676</v>
+        <v>5510.588499143219</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1428.724983911931</v>
+        <v>5566.46097628025</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1443.398381209061</v>
+        <v>5623.630056658676</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1458.409808429029</v>
+        <v>5682.116136736475</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1473.764414701467</v>
+        <v>5741.939278057663</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>1489.467268796738</v>
+        <v>5803.119229078198</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1505.523365124106</v>
+        <v>5865.675448535477</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>1521.937630112948</v>
+        <v>5929.627130310186</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1538.71492895181</v>
+        <v>5994.993229682376</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>1555.860072673388</v>
+        <v>6061.792490935276</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>1573.377825557698</v>
+        <v>6130.043476198824</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>1591.27291283863</v>
+        <v>6199.764595475182</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>1609.550028690434</v>
+        <v>6270.974137754935</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>1628.213844475502</v>
+        <v>6343.690303151307</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>1647.269017229029</v>
+        <v>6417.931235957256</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>1666.72019836303</v>
+        <v>6493.715058557258</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>1686.572042567203</v>
+        <v>6571.059906105983</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>1706.829216883609</v>
+        <v>6649.983961884191</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>1727.496409937203</v>
+        <v>6730.505493261829</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>1748.578341298393</v>
+        <v>6812.642888175556</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>1770.079770957429</v>
+        <v>6896.414692041929</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>1792.00550889021</v>
+        <v>6981.839645026794</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>1814.360424693875</v>
+        <v>7068.936719586527</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>1837.149457270599</v>
+        <v>7157.72515819714</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>1860.377624541737</v>
+        <v>7248.224511201574</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>1884.050033168955</v>
+        <v>7340.454674684237</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>1908.171888262763</v>
+        <v>7434.435928296476</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>1932.748503060284</v>
+        <v>7530.188972962143</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>1957.785308548846</v>
+        <v>7627.734968372128</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>1983.287863019061</v>
+        <v>7727.09557020413</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>2009.261861524824</v>
+        <v>7828.29296697983</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>2035.713145232163</v>
+        <v>7931.349916488946</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>2062.647710636822</v>
+        <v>8036.289781701902</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>2090.071718631757</v>
+        <v>8143.136566097754</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>2117.991503403113</v>
+        <v>8251.914948323818</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>2146.413581138177</v>
+        <v>8362.650316122767</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>2175.344658523658</v>
+        <v>8475.368799442824</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>2204.791641014091</v>
+        <v>8590.097302652302</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>2234.761640853213</v>
+        <v>8706.863535791737</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>2265.261984826525</v>
+        <v>8825.696044778668</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>2296.300221724702</v>
+        <v>8946.624240485849</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>2327.884129498327</v>
+        <v>9069.678426616856</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>2360.021722084269</v>
+        <v>9194.889826302348</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>2392.721255879173</v>
+        <v>9322.290607321453</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>2425.991235843994</v>
+        <v>9451.913905885691</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>2459.840421212511</v>
+        <v>9583.793848879912</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>2494.277830783952</v>
+        <v>9717.965574482929</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>2529.31274778023</v>
+        <v>9854.465251091804</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>2564.954724235088</v>
+        <v>9993.330094422421</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>2601.213584903174</v>
+        <v>10134.59838273964</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>2638.099430655608</v>
+        <v>10278.30947008678</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>2675.622641339064</v>
+        <v>10424.50379742492</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>2713.793878075369</v>
+        <v>10573.22290159235</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>2752.624084970404</v>
+        <v>10724.50942196261</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>2792.124490209308</v>
+        <v>10878.40710471158</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>2832.306606505714</v>
+        <v>11034.96080456772</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>2873.182230879317</v>
+        <v>11194.21648394539</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>2914.763443730663</v>
+        <v>11356.22120934024</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>2957.06260718165</v>
+        <v>11521.02314486357</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>3000.092362653332</v>
+        <v>11688.67154280519</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>3043.865627645735</v>
+        <v>11859.21673108728</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>3088.395591689238</v>
+        <v>12032.71009749054</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>3133.695711432394</v>
+        <v>12209.20407051582</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>3179.779704833726</v>
+        <v>12388.75209675477</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>3226.661544421003</v>
+        <v>12571.40861462728</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>3274.355449583843</v>
+        <v>12757.22902435263</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>3322.875877863015</v>
+        <v>12946.26965401175</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>3372.237515200621</v>
+        <v>13138.58772156086</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>3422.45526511546</v>
+        <v>13334.24129265763</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>3473.5442367634</v>
+        <v>13533.28923414311</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>3525.519731850809</v>
+        <v>13735.7911630551</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>3578.397230359867</v>
+        <v>13941.80739101247</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>3632.192375051628</v>
+        <v>14151.39886383751</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>3686.920954709361</v>
+        <v>14364.62709627023</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>3742.598886086094</v>
+        <v>14581.55410163413</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>3799.242194521421</v>
+        <v>14802.24231631722</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>3856.866993195462</v>
+        <v>15026.75451894336</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>3915.489460980782</v>
+        <v>15255.15374408097</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>3975.125818868061</v>
+        <v>15487.50319039504</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>4035.792304930044</v>
+        <v>15723.86612310407</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>4097.505147796652</v>
+        <v>15964.3057706363</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>4160.280538614964</v>
+        <v>16208.88521538297</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>4224.134601472488</v>
+        <v>16457.66727846424</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>4289.083362259413</v>
+        <v>16710.71439841329</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>4355.142715951783</v>
+        <v>16968.08850370824</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>43723.65823076563</v>
+        <v>170351.9151848011</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>44399.21400176288</v>
+        <v>172983.950656219</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>45086.21045404683</v>
+        <v>175660.560210572</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>45784.79601367385</v>
+        <v>178382.3221311968</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>46495.11595761215</v>
+        <v>181149.8024322551</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>47217.3119951917</v>
+        <v>183963.5532280196</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>47951.52183393588</v>
+        <v>186824.1110413086</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>48697.87872994255</v>
+        <v>189731.9950517242</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>49456.51102307392</v>
+        <v>192687.7052847035</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>50227.54165738481</v>
+        <v>195691.7207430576</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>51011.08768716028</v>
+        <v>198744.4974824426</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>51807.25976904872</v>
+        <v>201846.4666326573</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>52616.16164095784</v>
+        <v>204998.0323673681</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>53437.88958835448</v>
+        <v>208199.5698247576</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>54272.53189873361</v>
+        <v>211451.4229820789</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>55120.16830520901</v>
+        <v>214753.9024878272</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>55980.86942011619</v>
+        <v>218107.2834549981</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>56854.69615977109</v>
+        <v>221511.8032198873</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>57741.69916162548</v>
+        <v>224967.659071268</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>58641.91819501702</v>
+        <v>228475.0059546117</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>59555.38156707746</v>
+        <v>232033.9541574446</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>60482.1055252091</v>
+        <v>235644.5669813341</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>61422.09365795288</v>
+        <v>239306.8584076086</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>62375.33629587392</v>
+        <v>243020.7907631451</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>63341.80991447213</v>
+        <v>246786.2723940472</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>64321.476541127</v>
+        <v>250603.1553550402</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>65314.28316817843</v>
+        <v>254471.233122773</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>66320.16117443857</v>
+        <v>258390.2383419684</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>67339.02575749777</v>
+        <v>262359.8406136276</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>68370.77537930736</v>
+        <v>266379.6443349636</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>69415.29122758548</v>
+        <v>270449.1866009823</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>70472.43669579018</v>
+        <v>274567.9351784032</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>71542.05688437303</v>
+        <v>278735.2865624922</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>72623.97812619591</v>
+        <v>282950.564128036</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>73718.00753905253</v>
+        <v>287213.0163859188</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>74823.93260825417</v>
+        <v>291521.8153568343</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>75941.52080231892</v>
+        <v>295876.0550739697</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>77070.5192249492</v>
+        <v>300274.7502270747</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>78210.6543062797</v>
+        <v>304716.8349595312</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>79361.63153660539</v>
+        <v>309201.16183093</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>80523.13524573883</v>
+        <v>313726.5009574239</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>81694.8284310506</v>
+        <v>318291.5393417556</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>82876.35263736924</v>
+        <v>322894.8804053346</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>84067.32789163456</v>
+        <v>327535.0437336411</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>85267.35269549231</v>
+        <v>332210.4650473726</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>86476.00407845622</v>
+        <v>336919.4964095696</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>87692.8377146865</v>
+        <v>341660.4066805966</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>88917.38810577668</v>
+        <v>346431.3822302987</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>90149.16883231327</v>
+        <v>351230.5279181035</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>91387.67287635227</v>
+        <v>356055.8683494243</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>92632.37301711991</v>
+        <v>360905.3494173502</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>93882.72230179103</v>
+        <v>365776.840136848</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>95138.15459317136</v>
+        <v>370668.1347785897</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>96398.08519570246</v>
+        <v>375576.9553079315</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>97661.91156105073</v>
+        <v>380500.9541339637</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>94723.05677769621</v>
+        <v>369050.8705624518</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>95938.81663218727</v>
+        <v>373787.5972682611</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>97156.4811816094</v>
+        <v>378531.7448634123</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>98375.41342517154</v>
+        <v>383280.8315266414</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>99594.96381049046</v>
+        <v>388032.3265343774</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>100814.4713747078</v>
+        <v>392783.6547066528</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>102033.2649617301</v>
+        <v>397532.2011495968</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>103250.6645139825</v>
+        <v>402275.3162882425</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>104465.9824370294</v>
+        <v>407010.3211832304</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>105678.5250350359</v>
+        <v>411734.5131235154</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>106887.5940143559</v>
+        <v>416445.1714845023</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>108092.4880526746</v>
+        <v>421139.5638415881</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>109292.5044302288</v>
+        <v>425814.9523255658</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>110486.9407197028</v>
+        <v>430468.6002066333</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>111675.0965308522</v>
+        <v>435097.7786916309</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>112695.0624737662</v>
+        <v>439071.6719757121</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>113866.8969909813</v>
+        <v>443637.2610038228</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>115030.3921857464</v>
+        <v>448170.3591652456</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>116184.8751627954</v>
+        <v>452668.3447901118</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>117329.684431047</v>
+        <v>457128.6406404427</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>118464.1718734528</v>
+        <v>461548.7215848807</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>119587.70473556</v>
+        <v>465926.1223463375</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>120699.6676266916</v>
+        <v>470258.4452987984</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>121799.4645275035</v>
+        <v>474543.3682889745</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>122886.5207974746</v>
+        <v>478778.652457693</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>185028.7113039403</v>
+        <v>546129.6083351235</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>186610.8353853005</v>
+        <v>550799.3960605077</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>188171.5902490879</v>
+        <v>555406.1105344964</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>189710.2754267651</v>
+        <v>559947.6842584553</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>191226.236999283</v>
+        <v>564422.1871289331</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>350397.9461575574</v>
+        <v>568827.834671358</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>353068.4055791595</v>
+        <v>573162.9960700626</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>355694.5404112803</v>
+        <v>577426.2019663628</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>358275.5496298127</v>
+        <v>581616.1519964476</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>360810.740777952</v>
+        <v>585731.7220421284</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>341953.167455953</v>
+        <v>666142.534005104</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>344251.6200171165</v>
+        <v>670620.0389943835</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>346505.6436743075</v>
+        <v>675010.9941707297</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>348715.0335854322</v>
+        <v>679315.0004911025</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>350879.7050917321</v>
+        <v>683531.8930358425</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>352999.6966133356</v>
+        <v>687661.746649356</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>355075.1722801158</v>
+        <v>691704.8810651614</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>357106.4242851509</v>
+        <v>695661.8654905544</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>359093.8749501106</v>
+        <v>699533.5226300863</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>361038.0784904112</v>
+        <v>703320.9321241783</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>224942.6504752625</v>
+        <v>674827.951425789</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>226095.3826353878</v>
+        <v>678286.1479061649</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>227222.8400707122</v>
+        <v>681668.520212138</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>228325.7002520056</v>
+        <v>684977.1007560181</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>229404.7248548318</v>
+        <v>688214.174564497</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>230460.7596065844</v>
+        <v>691382.2788197548</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>231494.7339053789</v>
+        <v>694484.2017161382</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>232507.6602041274</v>
+        <v>697522.9806123838</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>233500.6331550472</v>
+        <v>700501.8994651431</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>234474.828507757</v>
+        <v>703424.4855232724</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>252871.7800867511</v>
+        <v>758615.3402602546</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>253881.934021107</v>
+        <v>761645.8020633222</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>254876.2145912923</v>
+        <v>764628.643773878</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>255856.2157208989</v>
+        <v>767568.6471626979</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>256823.6083304873</v>
+        <v>770470.8249914631</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>257780.1374294378</v>
+        <v>773340.4122883147</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>258727.6188955437</v>
+        <v>776182.8566866323</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>259667.9359346596</v>
+        <v>779003.8078039801</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>260603.035212932</v>
+        <v>781809.1056387973</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>261534.9226536243</v>
+        <v>784604.7679608744</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>262465.6588915006</v>
+        <v>787396.9766745029</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>263397.3543765828</v>
+        <v>790192.0631297498</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>264332.1641209658</v>
+        <v>792996.4923628988</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>265272.2820810358</v>
+        <v>795816.8462431089</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>266219.9351695764</v>
+        <v>798659.8055087305</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>267177.3768921379</v>
+        <v>801532.1306764153</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>268146.8806029275</v>
+        <v>804440.6418087836</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>269130.7323773754</v>
+        <v>807392.1971321276</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>270131.22349924</v>
+        <v>810393.6704977213</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>271150.6425620308</v>
+        <v>813451.927686094</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>272191.2671869234</v>
+        <v>816573.8015607714</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>273255.3553607475</v>
+        <v>819766.066082244</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>274345.1364013416</v>
+        <v>823035.4092040262</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>275462.8015590783</v>
+        <v>826388.4046772365</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>276610.4942682371</v>
+        <v>829831.4828047128</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>277790.3000636977</v>
+        <v>833370.9001910945</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>279004.2361840631</v>
+        <v>837012.7085521908</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>280254.2408847919</v>
+        <v>840762.7226543772</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>281542.1624909777</v>
+        <v>844626.4874729346</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>282869.748223136</v>
+        <v>848609.2446694094</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>284238.6328346328</v>
+        <v>852715.8985038998</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>285650.3271051295</v>
+        <v>856950.98131539</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>287106.2062392148</v>
+        <v>861318.6187176459</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>288607.4982253424</v>
+        <v>865822.4946760288</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>290155.2722156855</v>
+        <v>870465.8166470577</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>291750.4269932454</v>
+        <v>875251.2809797376</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>293393.6795986312</v>
+        <v>880181.0387958949</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>295085.5541928993</v>
+        <v>885256.6625786995</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>296826.3712404175</v>
+        <v>890479.113721254</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>298616.2370986</v>
+        <v>895848.7112958017</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>181396.3797331438</v>
+        <v>60465.39213567503</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>218.4555047477101</v>
+        <v>72.84554013272502</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>221.9211308943477</v>
+        <v>74.02874873527672</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>225.4621884396384</v>
+        <v>75.23801121843003</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>229.0812771801959</v>
+        <v>76.47422461527597</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>232.7811019646726</v>
+        <v>77.73832237986035</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>236.564475759019</v>
+        <v>79.03127547917178</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>240.434322681132</v>
+        <v>80.3540934773457</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>244.3936809940129</v>
+        <v>81.70782560842552</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>248.4457060427201</v>
+        <v>83.09356183273012</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>252.5936731253115</v>
+        <v>84.51243387350434</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>256.8409802846751</v>
+        <v>85.96561622941582</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>261.1911510041542</v>
+        <v>87.45432715711104</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>265.6478367970627</v>
+        <v>88.97982962043484</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>270.214819670366</v>
+        <v>90.5434321996174</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>274.8960144509996</v>
+        <v>92.14648995645855</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>279.695470954774</v>
+        <v>93.79040524867052</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>284.6173759833594</v>
+        <v>95.4766284883806</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>289.6660551314071</v>
+        <v>97.20665883862377</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>294.8459743840932</v>
+        <v>98.98204484104588</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>300.1617414899918</v>
+        <v>100.804384969568</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>305.6181070866903</v>
+        <v>102.675328102228</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>311.2199655622067</v>
+        <v>104.5965739052918</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>316.9723556327341</v>
+        <v>106.5698731228561</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>322.8804606145163</v>
+        <v>108.5970277642282</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>328.9496083729949</v>
+        <v>110.6798911831424</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>335.1852709262732</v>
+        <v>112.8203680407994</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>341.5930636839127</v>
+        <v>115.0204141460344</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>348.1787443014424</v>
+        <v>117.2820361656785</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>354.9482111282781</v>
+        <v>119.6072911972566</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>361.9075012312207</v>
+        <v>121.9982861976492</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>369.0627879728927</v>
+        <v>124.457177260377</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>376.4203781254176</v>
+        <v>126.9861687344645</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>383.9867085015176</v>
+        <v>129.5875121784503</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>391.7683420834605</v>
+        <v>132.2635051425009</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>399.7719636338497</v>
+        <v>135.0164897727693</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>408.0043747691578</v>
+        <v>137.8488512310756</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>416.4724884829731</v>
+        <v>140.7630159250174</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>425.1833231019534</v>
+        <v>143.7614495422591</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>434.1439956617667</v>
+        <v>146.8466548841789</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>443.3617146892503</v>
+        <v>150.0211694936851</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>452.8437723833582</v>
+        <v>153.2875630741412</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>462.5975361800035</v>
+        <v>156.6484346938027</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>472.6304396982332</v>
+        <v>160.1064097743316</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>482.949973058174</v>
+        <v>163.664136859574</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>493.5636725672084</v>
+        <v>167.3242841628187</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>504.4791097748776</v>
+        <v>171.0895358921192</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>515.7038798919762</v>
+        <v>174.9625883515502</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>527.2455895794286</v>
+        <v>178.9461458197019</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>539.1118441112619</v>
+        <v>183.042916206285</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>551.3102339166425</v>
+        <v>187.2556064879463</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>563.8483205130217</v>
+        <v>191.5869179267991</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>576.7336218402822</v>
+        <v>196.0395410744535</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>589.9735970141901</v>
+        <v>200.6161505672025</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>603.5756305126019</v>
+        <v>205.3193997163824</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>617.5470158185175</v>
+        <v>210.1519149015586</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>631.8949385436707</v>
+        <v>215.1162897740827</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>646.6264590558208</v>
+        <v>220.2150792783991</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>661.7484946433062</v>
+        <v>225.450793502052</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>677.2678012482331</v>
+        <v>230.8258913646295</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>693.1909548032659</v>
+        <v>236.3427741571363</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>709.5243322111489</v>
+        <v>242.0037789447417</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>726.2740920115941</v>
+        <v>247.8111718477698</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>743.446154774589</v>
+        <v>253.7671412139373</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>761.0461832759617</v>
+        <v>259.8737907006144</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>779.0795624982235</v>
+        <v>266.1331322815637</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>797.5513795159848</v>
+        <v>272.5470791982219</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>816.4664033207773</v>
+        <v>279.1174388741163</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>835.8290646433982</v>
+        <v>285.845905812196</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>855.6434358360057</v>
+        <v>292.7340544963221</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>875.9132108800851</v>
+        <v>299.7833323195556</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>896.6416855826795</v>
+        <v>306.9950525606781</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>917.8317380331659</v>
+        <v>314.3703874338324</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>939.4858093883907</v>
+        <v>321.9103612347153</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>961.6058850589575</v>
+        <v>329.6158436085317</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>984.1934763697365</v>
+        <v>337.4875429650911</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>1007.249602770018</v>
+        <v>345.5260000673207</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>1030.774774667025</v>
+        <v>353.7315818189477</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>1054.768976961215</v>
+        <v>362.1044752788174</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>1079.231653358166</v>
+        <v>370.6446819281413</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>1104.161691534666</v>
+        <v>379.3520122180207</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>1129.557409235305</v>
+        <v>388.2260804242217</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>1155.41654137588</v>
+        <v>397.2662998362715</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>1181.736228228276</v>
+        <v>406.4718783074462</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>1208.513004762019</v>
+        <v>415.8418141925051</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>1235.74279121216</v>
+        <v>425.3748926981862</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>1263.420884948783</v>
+        <v>435.0696826735092</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>1291.541953713938</v>
+        <v>444.9245338637305</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>1320.100030289663</v>
+        <v>454.9375746511441</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>1349.088508666373</v>
+        <v>465.1067103079258</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>1378.500141766689</v>
+        <v>475.4296217813921</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>1408.327040781753</v>
+        <v>485.9037650327926</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>1438.560676174755</v>
+        <v>496.5263709500225</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>1469.191880398551</v>
+        <v>507.2944458519858</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>1500.210852369864</v>
+        <v>518.2047726008865</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>1531.607163741761</v>
+        <v>529.2539123385018</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>1563.369767006016</v>
+        <v>540.438206859044</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>1595.487005454803</v>
+        <v>551.7537816305186</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>1627.946625024062</v>
+        <v>563.19654947406</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>1660.735788033973</v>
+        <v>574.7622149083734</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>1693.841088840942</v>
+        <v>586.4462791660605</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>1727.248571400498</v>
+        <v>598.2440458834445</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>1760.943748740709</v>
+        <v>610.1506274655911</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>1794.911624340131</v>
+        <v>622.1609521262642</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>1829.136715387733</v>
+        <v>634.2697715968357</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>1863.603077909087</v>
+        <v>646.4716695005158</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>1898.294333722748</v>
+        <v>658.761070381178</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>1933.193699194531</v>
+        <v>671.1322493773554</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>1968.284015743306</v>
+        <v>683.579342527049</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>2003.547782046854</v>
+        <v>696.096357687182</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>2038.967187891734</v>
+        <v>708.6771860498943</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>2074.524149598911</v>
+        <v>721.315614233558</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>2110.200346956862</v>
+        <v>734.0053369263439</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>2145.977261580378</v>
+        <v>746.7399700553652</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>2181.836216611435</v>
+        <v>759.5130644537284</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>2217.758417670477</v>
+        <v>772.3181199949278</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>2253.72499496112</v>
+        <v>785.1486001620631</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>2289.717046423074</v>
+        <v>797.9979470163992</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>2325.71568182698</v>
+        <v>810.8595965293044</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>2361.702067695499</v>
+        <v>823.7269942382025</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>2397.65747293291</v>
+        <v>836.5936111863491</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>2433.563315039246</v>
+        <v>849.452960103928</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>2469.401206782678</v>
+        <v>862.2986117870346</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>2505.153003199149</v>
+        <v>875.1242116293165</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>2540.800848786047</v>
+        <v>887.9234962601382</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>2576.327224752424</v>
+        <v>900.6903102414999</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>2611.714996189741</v>
+        <v>913.4186227762902</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>2646.947459019986</v>
+        <v>926.1025443778192</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>2682.008386584755</v>
+        <v>938.7363434527913</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>2716.882075727763</v>
+        <v>951.3144627458099</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>2751.553392236395</v>
+        <v>963.831535597958</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>2786.007815496894</v>
+        <v>976.2824019680135</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>2820.231482223435</v>
+        <v>988.6621241666292</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>2854.211229129232</v>
+        <v>1000.966002256474</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>2887.934634394673</v>
+        <v>1013.189589066522</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>2921.390057810083</v>
+        <v>1025.328704776507</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>2954.56667945761</v>
+        <v>1037.379451022741</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>2987.45453680786</v>
+        <v>1049.338224480333</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>3020.044560114412</v>
+        <v>1061.201729879285</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>3052.328605986555</v>
+        <v>1072.966992410853</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>3084.299489031555</v>
+        <v>1084.631369484265</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>3115.951011464986</v>
+        <v>1096.192561796331</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>3147.277990586586</v>
+        <v>1107.648623675948</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>3178.276284036611</v>
+        <v>1118.99797267158</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>3208.942812743455</v>
+        <v>1130.23939834819</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>3239.275581493493</v>
+        <v>1141.372070267133</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>3269.273697047608</v>
+        <v>1152.395545120118</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>3298.93738375188</v>
+        <v>1163.309772996384</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>3328.267996588251</v>
+        <v>1174.115102761609</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>3357.268031620741</v>
+        <v>1184.812286530383</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>3385.941133810102</v>
+        <v>1195.402483220204</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>3414.292102165671</v>
+        <v>1205.88726117342</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>3442.326892226178</v>
+        <v>1216.268599841615</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>3470.052615858453</v>
+        <v>1226.548890525962</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>3497.47753838023</v>
+        <v>1236.730936173099</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>3524.611073022922</v>
+        <v>1246.817950229563</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>3551.463772749143</v>
+        <v>1256.813554557378</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>3578.047319466009</v>
+        <v>1266.721776422735</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>3604.374510666859</v>
+        <v>1276.547044566767</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>3630.459243555969</v>
+        <v>1286.294184375199</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>3656.316496712257</v>
+        <v>1295.968412164222</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>3681.962309359221</v>
+        <v>1305.575328604006</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>3707.41375831716</v>
+        <v>1315.12091130441</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>3732.68893271681</v>
+        <v>1324.611506588653</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>3757.806906569507</v>
+        <v>1334.053820486488</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>3782.787709288822</v>
+        <v>1343.454908978378</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>3807.652294266447</v>
+        <v>1352.822167525153</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>3832.422505615013</v>
+        <v>1362.163319921194</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>3857.121043194276</v>
+        <v>1371.486406510674</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>3881.77142604005</v>
+        <v>1380.799771807536</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>3906.397954324536</v>
+        <v>1390.112051563343</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>3931.025669978069</v>
+        <v>1399.432159327749</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>3955.68031610746</v>
+        <v>1408.769272548307</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>3980.388295347565</v>
+        <v>1418.132818257024</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>4005.176627288684</v>
+        <v>1427.532458393342</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>4030.072905121887</v>
+        <v>1436.978074813176</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>4055.105251645894</v>
+        <v>1446.479754034388</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>4080.302274782764</v>
+        <v>1456.047771770502</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>4105.693022746487</v>
+        <v>1465.692577303503</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>4131.306939012481</v>
+        <v>1475.424777748141</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>4157.173817232601</v>
+        <v>1485.25512225908</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>4183.32375623905</v>
+        <v>1495.194486232012</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>4209.787115280201</v>
+        <v>1505.253855549825</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>4236.594469631098</v>
+        <v>1515.444310925029</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>4263.77656671235</v>
+        <v>1525.777012386575</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>4291.364282854562</v>
+        <v>1536.263183960543</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>4319.388580840691</v>
+        <v>1546.914098592659</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>4347.88046834796</v>
+        <v>1557.741063356919</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>4376.870957419829</v>
+        <v>1568.755404997861</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>4406.391025078421</v>
+        <v>1579.968455847031</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>4436.471575192892</v>
+        <v>1591.391540156112</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>4467.14340171506</v>
+        <v>1603.035960887816</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>4498.437153374854</v>
+        <v>1614.912986999088</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>4530.383299938019</v>
+        <v>1627.033841254738</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>4563.01210011375</v>
+        <v>1639.409688604558</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>4596.35357119249</v>
+        <v>1652.051625154282</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>4630.437460491542</v>
+        <v>1664.970667760021</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>4665.293218678473</v>
+        <v>1678.177744273089</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>4700.949975031485</v>
+        <v>1691.683684458328</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>4737.436514696136</v>
+        <v>1705.499211609225</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>4774.781257983625</v>
+        <v>1719.634934878067</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>4813.013315751738</v>
+        <v>1734.101729294123</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>4852.158295384215</v>
+        <v>1748.909224608358</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>4892.244384082659</v>
+        <v>1764.067996327252</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>4933.298378492728</v>
+        <v>1779.588135385538</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>4975.346638776792</v>
+        <v>1795.479591470881</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>5018.415080787904</v>
+        <v>1811.752169913743</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>5062.529170431182</v>
+        <v>1828.415529359758</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>5107.713920204404</v>
+        <v>1845.47918022383</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>5153.993887906184</v>
+        <v>1862.952483923975</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>5201.393177493668</v>
+        <v>1880.844652890604</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>5249.935442063709</v>
+        <v>1899.164751343969</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>5299.643888929568</v>
+        <v>1917.921696831874</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>5350.541286760186</v>
+        <v>1937.124262517855</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>5402.649974736795</v>
+        <v>1956.781080205565</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>5455.991873686458</v>
+        <v>1976.900644086821</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>5510.588499143219</v>
+        <v>1997.491315197474</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>5566.46097628025</v>
+        <v>2018.561326562594</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>5623.630056658676</v>
+        <v>2040.118789013204</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>5682.116136736475</v>
+        <v>2062.171697655928</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>5741.939278057663</v>
+        <v>2084.727938968462</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>5803.119229078198</v>
+        <v>2107.795298506776</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>5865.675448535477</v>
+        <v>2131.381469191984</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>5929.627130310186</v>
+        <v>2155.494060159893</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>5994.993229682376</v>
+        <v>2180.140606139139</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>6061.792490935276</v>
+        <v>2205.328577342491</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>6130.043476198824</v>
+        <v>2231.065389833517</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>6199.764595475182</v>
+        <v>2257.358416348868</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>6270.974137754935</v>
+        <v>2284.214997544299</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>6343.690303151307</v>
+        <v>2311.642453639084</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>6417.931235957256</v>
+        <v>2339.648096425349</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>6493.715058557258</v>
+        <v>2368.23924161843</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>6571.059906105983</v>
+        <v>2397.423221517228</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>6649.983961884191</v>
+        <v>2427.207397942731</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>6730.505493261829</v>
+        <v>2457.599175429893</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>6812.642888175556</v>
+        <v>2488.606014639715</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>6896.414692041929</v>
+        <v>2520.235445963418</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>6981.839645026794</v>
+        <v>2552.495083290127</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>7068.936719586527</v>
+        <v>2585.392637907746</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>7157.72515819714</v>
+        <v>2618.935932506662</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>7248.224511201574</v>
+        <v>2653.132915261043</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>7340.454674684237</v>
+        <v>2687.991673954688</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>7434.435928296476</v>
+        <v>2723.520450123547</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>7530.188972962143</v>
+        <v>2759.727653189079</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>7627.734968372128</v>
+        <v>2796.621874548925</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>7727.09557020413</v>
+        <v>2834.211901601435</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>7828.29296697983</v>
+        <v>2872.506731671663</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>7931.349916488946</v>
+        <v>2911.515585812596</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>8036.289781701902</v>
+        <v>2951.247922452548</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>8143.136566097754</v>
+        <v>2991.713450861349</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>8251.914948323818</v>
+        <v>3032.922144404049</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>8362.650316122767</v>
+        <v>3074.884253557938</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>8475.368799442824</v>
+        <v>3117.610318661179</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>8590.097302652302</v>
+        <v>3161.111182363258</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>8706.863535791737</v>
+        <v>3205.398001751869</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>8825.696044778668</v>
+        <v>3250.482260123958</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>8946.624240485849</v>
+        <v>3296.375778370795</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>9069.678426616856</v>
+        <v>3343.090725947848</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>9194.889826302348</v>
+        <v>3390.63963140001</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>9322.290607321453</v>
+        <v>3439.035392405672</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>9451.913905885691</v>
+        <v>3488.291285315102</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>9583.793848879912</v>
+        <v>3538.420974142753</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>9717.965574482929</v>
+        <v>3589.438518983358</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>9854.465251091804</v>
+        <v>3641.358383822027</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>9993.330094422421</v>
+        <v>3694.195443689548</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>10134.59838273964</v>
+        <v>3747.964991143668</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>10278.30947008678</v>
+        <v>3802.6827420263</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>10424.50379742492</v>
+        <v>3858.364840461347</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>10573.22290159235</v>
+        <v>3915.027863057775</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>10724.50942196261</v>
+        <v>3972.688822270652</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>10878.40710471158</v>
+        <v>4031.365168884422</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>11034.96080456772</v>
+        <v>4091.074793569285</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>11194.21648394539</v>
+        <v>4151.836027470899</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>11356.22120934024</v>
+        <v>4213.667641785568</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>11521.02314486357</v>
+        <v>4276.588846272406</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>11688.67154280519</v>
+        <v>4340.619286658359</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>11859.21673108728</v>
+        <v>4405.77904088168</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>12032.71009749054</v>
+        <v>4472.088614126498</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>12209.20407051582</v>
+        <v>4539.568932593977</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>12388.75209675477</v>
+        <v>4608.241335959468</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>12571.40861462728</v>
+        <v>4678.127568458805</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>12757.22902435263</v>
+        <v>4749.249768550255</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>12946.26965401175</v>
+        <v>4821.630457094888</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>13138.58772156086</v>
+        <v>4895.292523998951</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>13334.24129265763</v>
+        <v>4970.259213261984</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>13533.28923414311</v>
+        <v>5046.554106367675</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>13735.7911630551</v>
+        <v>5124.201103966129</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>13941.80739101247</v>
+        <v>5203.224405782744</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>14151.39886383751</v>
+        <v>5283.648488698814</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>14364.62709627023</v>
+        <v>5365.498082944069</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>14581.55410163413</v>
+        <v>5448.798146343031</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>14802.24231631722</v>
+        <v>5533.573836558625</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>15026.75451894336</v>
+        <v>5619.850481280469</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>15255.15374408097</v>
+        <v>5707.653546294615</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>15487.50319039504</v>
+        <v>5797.008601393247</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>15723.86612310407</v>
+        <v>5887.941284066346</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>15964.3057706363</v>
+        <v>5980.477260929138</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>16208.88521538297</v>
+        <v>6074.642186840336</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>16457.66727846424</v>
+        <v>6170.461661672956</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>16710.71439841329</v>
+        <v>6267.961184695179</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>16968.08850370824</v>
+        <v>6367.166106527936</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>170351.9151848011</v>
+        <v>63950.2627889759</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>172983.950656219</v>
+        <v>64965.57019517836</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>175660.560210572</v>
+        <v>65998.47691136625</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>178382.3221311968</v>
+        <v>67049.22246415137</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>181149.8024322551</v>
+        <v>68118.04216894071</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>183963.5532280196</v>
+        <v>69205.16650763163</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>186824.1110413086</v>
+        <v>70310.82048183649</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>189731.9950517242</v>
+        <v>71435.22294181149</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>192687.7052847035</v>
+        <v>72578.58589139745</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>195691.7207430576</v>
+        <v>73741.11376953377</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>198744.4974824426</v>
+        <v>74923.00270882051</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>201846.4666326573</v>
+        <v>76124.43977177615</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>204998.0323673681</v>
+        <v>77345.60216570531</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>208199.5698247576</v>
+        <v>78586.65643705623</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>211451.4229820789</v>
+        <v>79847.75764633436</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>214753.9024878272</v>
+        <v>81129.04852491498</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>218107.2834549981</v>
+        <v>82430.65861501383</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>221511.8032198873</v>
+        <v>83752.70339445045</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>224967.659071268</v>
+        <v>85095.2833879875</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>228475.0059546117</v>
+        <v>86458.48326697269</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>232033.9541574446</v>
+        <v>87842.37093955552</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>235644.5669813341</v>
+        <v>89246.99663353057</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>239306.8584076086</v>
+        <v>90672.39197447794</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>243020.7907631451</v>
+        <v>92118.56906158742</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>246786.2723940472</v>
+        <v>93585.5195441268</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>250603.1553550402</v>
+        <v>95073.21370152463</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>254471.233122773</v>
+        <v>96581.5995301863</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>258390.2383419684</v>
+        <v>98110.60184046012</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>262359.8406136276</v>
+        <v>99660.12136727858</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>266379.6443349636</v>
+        <v>101230.0338981928</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>270449.1866009823</v>
+        <v>102820.1894226233</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>274567.9351784032</v>
+        <v>104430.4113064564</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>278735.2865624922</v>
+        <v>106060.4954960835</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>282950.564128036</v>
+        <v>107710.2097562477</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>287213.0163859188</v>
+        <v>109379.2929461615</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>291521.8153568343</v>
+        <v>111067.4543384035</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>295876.0550739697</v>
+        <v>112774.3729852343</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>300274.7502270747</v>
+        <v>114499.6971372046</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>304716.8349595312</v>
+        <v>116243.043718645</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>309201.16183093</v>
+        <v>118003.9978649768</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>313726.5009574239</v>
+        <v>119782.1125267167</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>318291.5393417556</v>
+        <v>121576.9081449159</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>322894.8804053346</v>
+        <v>123387.8724029781</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>327535.0437336411</v>
+        <v>125214.4600593939</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>332210.4650473726</v>
+        <v>127056.0928663854</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>336919.4964095696</v>
+        <v>128912.1595786304</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>341660.4066805966</v>
+        <v>130782.0160568847</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>346431.3822302987</v>
+        <v>132664.985470356</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>351230.5279181035</v>
+        <v>134560.3586022489</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>356055.8683494243</v>
+        <v>136467.3942619937</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>360905.3494173502</v>
+        <v>138385.3198079273</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>365776.840136848</v>
+        <v>140313.3317835236</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>370668.1347785897</v>
+        <v>142250.5966702475</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>375576.9553079315</v>
+        <v>144196.251759505</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>380500.9541339637</v>
+        <v>146149.4061459331</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>369050.8705624518</v>
+        <v>162761.8400206151</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>373787.5972682611</v>
+        <v>164921.6510342393</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>378531.7448634123</v>
+        <v>167086.5931664392</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>383280.8315266414</v>
+        <v>169255.5770679901</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>388032.3265343774</v>
+        <v>171427.4899119613</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>392783.6547066528</v>
+        <v>173601.1973082159</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>397532.2011495968</v>
+        <v>175775.5453539919</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>402275.3162882425</v>
+        <v>177949.3628182017</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>407010.3211832304</v>
+        <v>180121.4634570145</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>411734.5131235154</v>
+        <v>182290.6484576213</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>416445.1714845023</v>
+        <v>184455.7090058855</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>421139.5638415881</v>
+        <v>186615.4289738132</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>425814.9523255658</v>
+        <v>188768.5877211999</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>430468.6002066333</v>
+        <v>190913.9630059188</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>435097.7786916309</v>
+        <v>193050.3339963561</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>439071.6719757121</v>
+        <v>192967.9988594291</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>443637.2610038228</v>
+        <v>195058.7912736518</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>448170.3591652456</v>
+        <v>197137.0997412247</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>452668.3447901118</v>
+        <v>199201.7543683822</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>457128.6406404427</v>
+        <v>201251.6027976793</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>461548.7215848807</v>
+        <v>203285.5136262228</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>465926.1223463375</v>
+        <v>205302.3798649166</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>470258.4452987984</v>
+        <v>207301.122428367</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>474543.3682889745</v>
+        <v>209280.6936448227</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>478778.652457693</v>
+        <v>211240.0807751332</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>546129.6083351235</v>
+        <v>305471.57519757</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>550799.3960605077</v>
+        <v>308217.2846806225</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>555406.1105344964</v>
+        <v>310930.0686329123</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>559947.6842584553</v>
+        <v>313608.7262063008</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>564422.1871289331</v>
+        <v>316252.1314492247</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>568827.834671358</v>
+        <v>318859.2380849511</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>573162.9960700626</v>
+        <v>321429.0841880866</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>577426.2019663628</v>
+        <v>323960.7967431615</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>581616.1519964476</v>
+        <v>326453.5960690822</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>585731.7220421284</v>
+        <v>328906.800093907</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>666142.534005104</v>
+        <v>276119.3932014026</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>670620.0389943835</v>
+        <v>278096.5147628295</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>675010.9941707297</v>
+        <v>280039.4541691231</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>679315.0004911025</v>
+        <v>281948.0010579675</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>683531.8930358425</v>
+        <v>283822.0419145074</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>687661.746649356</v>
+        <v>285661.5626259994</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>691704.8810651614</v>
+        <v>287466.6508288667</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>695661.8654905544</v>
+        <v>289237.4980372289</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>699533.5226300863</v>
+        <v>290974.4015435901</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>703320.9321241783</v>
+        <v>292677.7660811323</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>674827.951425789</v>
+        <v>188869.7025100304</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>678286.1479061649</v>
+        <v>189920.6919353617</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>681668.520212138</v>
+        <v>190951.3619264789</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>684977.1007560181</v>
+        <v>191962.2553469469</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>688214.174564497</v>
+        <v>192953.9868375597</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>691382.2788197548</v>
+        <v>193927.2428450289</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>694484.2017161382</v>
+        <v>194882.7814586867</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>697522.9806123838</v>
+        <v>195821.4320489908</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>700501.8994651431</v>
+        <v>196744.0947032223</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>703424.4855232724</v>
+        <v>197651.7394519827</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>758615.3402602546</v>
+        <v>232639.8959302595</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>761645.8020633222</v>
+        <v>233671.9406729136</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>764628.643773878</v>
+        <v>234690.2772849497</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>767568.6471626979</v>
+        <v>235696.3559985097</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>770470.8249914631</v>
+        <v>236691.7005613773</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>773340.4122883147</v>
+        <v>237677.9057175416</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>776182.8566866323</v>
+        <v>238656.6343930613</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>779003.8078039801</v>
+        <v>239629.6145792286</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>781809.1056387973</v>
+        <v>240598.6359052026</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>784604.7679608744</v>
+        <v>241565.5458917688</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>787396.9766745029</v>
+        <v>242532.2458787427</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>790192.0631297498</v>
+        <v>243500.6866174384</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>792996.4923628988</v>
+        <v>244472.863521328</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>795816.8462431089</v>
+        <v>245450.8115667491</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>798659.8055087305</v>
+        <v>246436.5998374703</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>801532.1306764153</v>
+        <v>247432.3257068087</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>804440.6418087836</v>
+        <v>248440.1086517734</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>807392.1971321276</v>
+        <v>249462.0836954655</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>810393.6704977213</v>
+        <v>250500.3944745953</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>813451.927686094</v>
+        <v>251557.1859307504</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>816573.8015607714</v>
+        <v>252634.596626262</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>819766.066082244</v>
+        <v>253734.7506868343</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>823035.4092040262</v>
+        <v>254859.7493765454</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>826388.4046772365</v>
+        <v>256011.6623122672</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>829831.4828047128</v>
+        <v>257192.5183290915</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>833370.9001910945</v>
+        <v>258404.2960100793</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>837012.7085521908</v>
+        <v>259648.9138989243</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>840762.7226543772</v>
+        <v>260928.2204165008</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>844626.4874729346</v>
+        <v>262243.9835079829</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>848609.2446694094</v>
+        <v>263597.8800507762</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>852715.8985038998</v>
+        <v>264991.4850585387</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>856950.98131539</v>
+        <v>266426.2607220437</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>861318.6187176459</v>
+        <v>267903.5453322537</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>865822.4946760288</v>
+        <v>269424.5421366967</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>870465.8166470577</v>
+        <v>270990.3081855403</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>875251.2809797376</v>
+        <v>272601.7432293203</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>880181.0387958949</v>
+        <v>274259.5787361727</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>885256.6625786995</v>
+        <v>275964.3671003859</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>890479.113721254</v>
+        <v>277716.4711214321</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>895848.7112958017</v>
+        <v>279516.0538356114</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_TH_UFA.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>60465.39213567503</v>
+        <v>60465.39213569658</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>72.84554013272502</v>
+        <v>72.84554013429343</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>74.02874873527672</v>
+        <v>74.0287487369532</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>75.23801121843003</v>
+        <v>75.2380112202265</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>76.47422461527597</v>
+        <v>76.47422461719245</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>77.73832237986035</v>
+        <v>77.73832238186097</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>79.03127547917178</v>
+        <v>79.03127548131634</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>80.3540934773457</v>
+        <v>80.35409347963426</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>81.70782560842552</v>
+        <v>81.70782561085801</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>83.09356183273012</v>
+        <v>83.09356183528269</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>84.51243387350434</v>
+        <v>84.51243387620089</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>85.96561622941582</v>
+        <v>85.96561623229225</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>87.45432715711104</v>
+        <v>87.45432716016737</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>88.97982962043484</v>
+        <v>88.97982962364719</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>90.5434321996174</v>
+        <v>90.54343220300964</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>92.14648995645855</v>
+        <v>92.14648996004266</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>93.79040524867052</v>
+        <v>93.79040525247045</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>95.4766284883806</v>
+        <v>95.47662849238441</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>97.20665883862377</v>
+        <v>97.20665884285536</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>98.98204484104588</v>
+        <v>98.98204484546942</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>100.804384969568</v>
+        <v>100.8043849742673</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>102.675328102228</v>
+        <v>102.6753281071551</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>104.5965739052918</v>
+        <v>104.5965739104946</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>106.5698731228561</v>
+        <v>106.5698731283226</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>108.5970277642282</v>
+        <v>108.5970277699466</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>110.6798911831424</v>
+        <v>110.6798911891843</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>112.8203680407994</v>
+        <v>112.8203680471051</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>115.0204141460344</v>
+        <v>115.0204141526996</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>117.2820361656785</v>
+        <v>117.2820361726435</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>119.6072911972566</v>
+        <v>119.6072912045572</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>121.9982861976492</v>
+        <v>121.9982862052854</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>124.457177260377</v>
+        <v>124.4571772683728</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>126.9861687344645</v>
+        <v>126.9861687428319</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>129.5875121784503</v>
+        <v>129.5875121872013</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>132.2635051425009</v>
+        <v>132.2635051516354</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>135.0164897727693</v>
+        <v>135.0164897823114</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>137.8488512310756</v>
+        <v>137.8488512410372</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>140.7630159250174</v>
+        <v>140.7630159354105</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>143.7614495422591</v>
+        <v>143.7614495531196</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>146.8466548841789</v>
+        <v>146.846654895447</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>150.0211694936851</v>
+        <v>150.0211695054207</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>153.2875630741412</v>
+        <v>153.2875630863323</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>156.6484346938027</v>
+        <v>156.6484347065211</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>160.1064097743316</v>
+        <v>160.1064097875655</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>163.664136859574</v>
+        <v>163.6641368732396</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>167.3242841628187</v>
+        <v>167.3242841770595</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>171.0895358921192</v>
+        <v>171.0895359068874</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>174.9625883515502</v>
+        <v>174.962588366822</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>178.9461458197019</v>
+        <v>178.9461458355491</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>183.042916206285</v>
+        <v>183.0429162226717</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>187.2556064879463</v>
+        <v>187.2556065049085</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>191.5869179267991</v>
+        <v>191.5869179443607</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>196.0395410744535</v>
+        <v>196.0395410925906</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>200.6161505672025</v>
+        <v>200.6161505859391</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>205.3193997163824</v>
+        <v>205.3193997356946</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>210.1519149015586</v>
+        <v>210.1519149214823</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>215.1162897740827</v>
+        <v>215.1162897946419</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>220.2150792783991</v>
+        <v>220.2150792995221</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>225.450793502052</v>
+        <v>225.4507935238465</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>230.8258913646295</v>
+        <v>230.8258913870358</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>236.3427741571363</v>
+        <v>236.3427741801184</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>242.0037789447417</v>
+        <v>242.0037789683954</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>247.8111718477698</v>
+        <v>247.8111718720354</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>253.7671412139373</v>
+        <v>253.7671412388387</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>259.8737907006144</v>
+        <v>259.8737907261876</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>266.1331322815637</v>
+        <v>266.1331323077011</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>272.5470791982219</v>
+        <v>272.5470792249833</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>279.1174388741163</v>
+        <v>279.1174389015019</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>285.845905812196</v>
+        <v>285.8459058402057</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>292.7340544963221</v>
+        <v>292.7340545248964</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>299.7833323195556</v>
+        <v>299.783332348778</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>306.9950525606781</v>
+        <v>306.9950525905008</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>314.3703874338324</v>
+        <v>314.3703874641958</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>321.9103612347153</v>
+        <v>321.9103612656793</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>329.6158436085317</v>
+        <v>329.6158436400125</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>337.4875429650911</v>
+        <v>337.4875429971487</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>345.5260000673207</v>
+        <v>345.5260000999193</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>353.7315818189477</v>
+        <v>353.7315818520274</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>362.1044752788174</v>
+        <v>362.1044753123903</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>370.6446819281413</v>
+        <v>370.6446819622075</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>379.3520122180207</v>
+        <v>379.3520122525324</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>388.2260804242217</v>
+        <v>388.2260804591671</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>397.2662998362715</v>
+        <v>397.2662998716386</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>406.4718783074462</v>
+        <v>406.4718783432231</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>415.8418141925051</v>
+        <v>415.8418142286082</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>425.3748926981862</v>
+        <v>425.3748927346752</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>435.0696826735092</v>
+        <v>435.0696827102648</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>444.9245338637305</v>
+        <v>444.9245339008362</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>454.9375746511441</v>
+        <v>454.9375746884447</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>465.1067103079258</v>
+        <v>465.1067103454931</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>475.4296217813921</v>
+        <v>475.4296218191782</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>485.9037650327926</v>
+        <v>485.9037650706781</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>496.5263709500225</v>
+        <v>496.5263709881029</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>507.2944458519858</v>
+        <v>507.2944458901299</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>518.2047726008865</v>
+        <v>518.2047726390584</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>529.2539123385018</v>
+        <v>529.2539123767492</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>540.438206859044</v>
+        <v>540.4382068972477</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>551.7537816305186</v>
+        <v>551.7537816687382</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>563.19654947406</v>
+        <v>563.1965495121162</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>574.7622149083734</v>
+        <v>574.7622149463739</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>586.4462791660605</v>
+        <v>586.4462792038977</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>598.2440458834445</v>
+        <v>598.2440459210587</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>610.1506274655911</v>
+        <v>610.1506275029942</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>622.1609521262642</v>
+        <v>622.1609521633845</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>634.2697715968357</v>
+        <v>634.2697716336494</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>646.4716695005158</v>
+        <v>646.4716695369751</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>658.761070381178</v>
+        <v>658.761070417271</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>671.1322493773554</v>
+        <v>671.1322494130221</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>683.579342527049</v>
+        <v>683.5793425622418</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>696.096357687182</v>
+        <v>696.0963577218771</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>708.6771860498943</v>
+        <v>708.6771860840319</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>721.315614233558</v>
+        <v>721.3156142671618</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>734.0053369263439</v>
+        <v>734.0053369593184</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>746.7399700553652</v>
+        <v>746.7399700876985</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>759.5130644537284</v>
+        <v>759.5130644853965</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>772.3181199949278</v>
+        <v>772.3181200258948</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>785.1486001620631</v>
+        <v>785.1486001922812</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>797.9979470163992</v>
+        <v>797.9979470458206</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>810.8595965293044</v>
+        <v>810.8595965579532</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>823.7269942382025</v>
+        <v>823.7269942660425</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>836.5936111863491</v>
+        <v>836.593611213297</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>849.452960103928</v>
+        <v>849.4529601300192</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>862.2986117870346</v>
+        <v>862.2986118122334</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>875.1242116293165</v>
+        <v>875.1242116535991</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>887.9234962601382</v>
+        <v>887.9234962834689</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>900.6903102414999</v>
+        <v>900.6903102638901</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>913.4186227762902</v>
+        <v>913.4186227976445</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>926.1025443778192</v>
+        <v>926.1025443982691</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>938.7363434527913</v>
+        <v>938.7363434722051</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>951.3144627458099</v>
+        <v>951.3144627641877</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>963.831535597958</v>
+        <v>963.8315356153475</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>976.2824019680135</v>
+        <v>976.2824019843667</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>988.6621241666292</v>
+        <v>988.6621241819944</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>1000.966002256474</v>
+        <v>1000.966002270743</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>1013.189589066522</v>
+        <v>1013.189589079803</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>1025.328704776507</v>
+        <v>1025.328704788787</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>1037.379451022741</v>
+        <v>1037.379451033985</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>1049.338224480333</v>
+        <v>1049.338224490565</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>1061.201729879285</v>
+        <v>1061.201729888529</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>1072.966992410853</v>
+        <v>1072.966992419096</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>1084.631369484265</v>
+        <v>1084.631369491543</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>1096.192561796331</v>
+        <v>1096.192561802644</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>1107.648623675948</v>
+        <v>1107.648623681357</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>1118.99797267158</v>
+        <v>1118.997972676024</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>1130.23939834819</v>
+        <v>1130.2393983518</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>1141.372070267133</v>
+        <v>1141.372070269838</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1152.395545120118</v>
+        <v>1152.395545121977</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>1163.309772996384</v>
+        <v>1163.309772997434</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>1174.115102761609</v>
+        <v>1174.115102761885</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>1184.812286530383</v>
+        <v>1184.812286529956</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>1195.402483220204</v>
+        <v>1195.40248321904</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>1205.88726117342</v>
+        <v>1205.887261171565</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>1216.268599841615</v>
+        <v>1216.268599839142</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>1226.548890525962</v>
+        <v>1226.548890522846</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>1236.730936173099</v>
+        <v>1236.730936169496</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>1246.817950229563</v>
+        <v>1246.817950225389</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>1256.813554557378</v>
+        <v>1256.8135545528</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>1266.721776422735</v>
+        <v>1266.721776417645</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>1276.547044566767</v>
+        <v>1276.547044561369</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1286.294184375199</v>
+        <v>1286.294184369434</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>1295.968412164222</v>
+        <v>1295.968412158161</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>1305.575328604006</v>
+        <v>1305.575328597745</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>1315.12091130441</v>
+        <v>1315.120911297935</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1324.611506588653</v>
+        <v>1324.611506582037</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>1334.053820486488</v>
+        <v>1334.053820479791</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>1343.454908978378</v>
+        <v>1343.454908971659</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>1352.822167525153</v>
+        <v>1352.822167518413</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1362.163319921194</v>
+        <v>1362.16331991454</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>1371.486406510674</v>
+        <v>1371.486406504129</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>1380.799771807536</v>
+        <v>1380.799771801138</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>1390.112051563343</v>
+        <v>1390.112051557138</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>1399.432159327749</v>
+        <v>1399.432159321856</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>1408.769272548307</v>
+        <v>1408.76927254268</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>1418.132818257024</v>
+        <v>1418.132818251782</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>1427.532458393342</v>
+        <v>1427.53245838846</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>1436.978074813176</v>
+        <v>1436.978074808775</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1446.479754034388</v>
+        <v>1446.479754030491</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1456.047771770502</v>
+        <v>1456.047771767157</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1465.692577303503</v>
+        <v>1465.692577300734</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1475.424777748141</v>
+        <v>1475.424777745995</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1485.25512225908</v>
+        <v>1485.255122257606</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1495.194486232012</v>
+        <v>1495.194486231257</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1505.253855549825</v>
+        <v>1505.253855549837</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1515.444310925029</v>
+        <v>1515.444310925808</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1525.777012386575</v>
+        <v>1525.777012388193</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1536.263183960543</v>
+        <v>1536.263183962975</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1546.914098592659</v>
+        <v>1546.914098596002</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1557.741063356919</v>
+        <v>1557.74106336122</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1568.755404997861</v>
+        <v>1568.755405003095</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1579.968455847031</v>
+        <v>1579.968455853225</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1591.391540156112</v>
+        <v>1591.391540163311</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1603.035960887816</v>
+        <v>1603.035960896093</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1614.912986999088</v>
+        <v>1614.91298700837</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1627.033841254738</v>
+        <v>1627.033841265098</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1639.409688604558</v>
+        <v>1639.409688616043</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1652.051625154282</v>
+        <v>1652.05162516682</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1664.970667760021</v>
+        <v>1664.970667773757</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1678.177744273089</v>
+        <v>1678.177744287878</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1691.683684458328</v>
+        <v>1691.683684474314</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1705.499211609225</v>
+        <v>1705.499211626383</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1719.634934878067</v>
+        <v>1719.634934896375</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1734.101729294123</v>
+        <v>1734.101729313559</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1748.909224608358</v>
+        <v>1748.909224629039</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1764.067996327252</v>
+        <v>1764.067996349058</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1779.588135385538</v>
+        <v>1779.588135408541</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1795.479591470881</v>
+        <v>1795.479591495104</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1811.752169913743</v>
+        <v>1811.752169939092</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1828.415529359758</v>
+        <v>1828.415529386231</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1845.47918022383</v>
+        <v>1845.479180251547</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1862.952483923975</v>
+        <v>1862.952483952841</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1880.844652890604</v>
+        <v>1880.844652920594</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1899.164751343969</v>
+        <v>1899.164751375083</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1917.921696831874</v>
+        <v>1917.921696864113</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1937.124262517855</v>
+        <v>1937.124262551194</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1956.781080205565</v>
+        <v>1956.78108023998</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1976.900644086821</v>
+        <v>1976.90064412236</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>1997.491315197474</v>
+        <v>1997.491315234041</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>2018.561326562594</v>
+        <v>2018.561326600284</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>2040.118789013204</v>
+        <v>2040.118789051802</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>2062.171697655928</v>
+        <v>2062.171697695602</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>2084.727938968462</v>
+        <v>2084.727939009019</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>2107.795298506776</v>
+        <v>2107.795298548384</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>2131.381469191984</v>
+        <v>2131.381469234475</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>2155.494060159893</v>
+        <v>2155.494060203292</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>2180.140606139139</v>
+        <v>2180.140606183492</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>2205.328577342491</v>
+        <v>2205.328577387584</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>2231.065389833517</v>
+        <v>2231.065389879491</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2257.358416348868</v>
+        <v>2257.358416395677</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2284.214997544299</v>
+        <v>2284.21499759187</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2311.642453639084</v>
+        <v>2311.642453687321</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2339.648096425349</v>
+        <v>2339.648096474372</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2368.23924161843</v>
+        <v>2368.239241668166</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2397.423221517228</v>
+        <v>2397.423221567557</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>2427.207397942731</v>
+        <v>2427.207397993724</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>2457.599175429893</v>
+        <v>2457.599175481478</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>2488.606014639715</v>
+        <v>2488.606014691845</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>2520.235445963418</v>
+        <v>2520.235446016115</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>2552.495083290127</v>
+        <v>2552.495083343271</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>2585.392637907746</v>
+        <v>2585.392637961409</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>2618.935932506662</v>
+        <v>2618.935932560723</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>2653.132915261043</v>
+        <v>2653.132915315574</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>2687.991673954688</v>
+        <v>2687.991674009568</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>2723.520450123547</v>
+        <v>2723.520450178776</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>2759.727653189079</v>
+        <v>2759.727653244633</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>2796.621874548925</v>
+        <v>2796.62187460473</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>2834.211901601435</v>
+        <v>2834.211901657516</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>2872.506731671663</v>
+        <v>2872.506731728018</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>2911.515585812596</v>
+        <v>2911.515585869106</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>2951.247922452548</v>
+        <v>2951.247922509234</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>2991.713450861349</v>
+        <v>2991.713450918164</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>3032.922144404049</v>
+        <v>3032.922144460944</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>3074.884253557938</v>
+        <v>3074.884253614912</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>3117.610318661179</v>
+        <v>3117.610318718231</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>3161.111182363258</v>
+        <v>3161.111182420292</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>3205.398001751869</v>
+        <v>3205.398001808933</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>3250.482260123958</v>
+        <v>3250.482260180953</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>3296.375778370795</v>
+        <v>3296.37577842777</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>3343.090725947848</v>
+        <v>3343.090726004657</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>3390.63963140001</v>
+        <v>3390.639631456701</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>3439.035392405672</v>
+        <v>3439.035392462195</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>3488.291285315102</v>
+        <v>3488.291285371553</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>3538.420974142753</v>
+        <v>3538.420974198891</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>3589.438518983358</v>
+        <v>3589.438519039421</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>3641.358383822027</v>
+        <v>3641.358383877633</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>3694.195443689548</v>
+        <v>3694.195443744934</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>3747.964991143668</v>
+        <v>3747.964991198784</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>3802.6827420263</v>
+        <v>3802.682742081051</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>3858.364840461347</v>
+        <v>3858.364840515732</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>3915.027863057775</v>
+        <v>3915.027863111841</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>3972.688822270652</v>
+        <v>3972.688822324253</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>4031.365168884422</v>
+        <v>4031.365168937606</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>4091.074793569285</v>
+        <v>4091.074793622051</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>4151.836027470899</v>
+        <v>4151.836027523152</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>4213.667641785568</v>
+        <v>4213.667641837256</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>4276.588846272406</v>
+        <v>4276.588846323627</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>4340.619286658359</v>
+        <v>4340.619286709063</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>4405.77904088168</v>
+        <v>4405.779040931772</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>4472.088614126498</v>
+        <v>4472.088614175881</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>4539.568932593977</v>
+        <v>4539.568932642889</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>4608.241335959468</v>
+        <v>4608.24133600767</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>4678.127568458805</v>
+        <v>4678.127568506344</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>4749.249768550255</v>
+        <v>4749.24976859713</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>4821.630457094888</v>
+        <v>4821.630457141054</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>4895.292523998951</v>
+        <v>4895.292524044358</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>4970.259213261984</v>
+        <v>4970.259213306584</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>5046.554106367675</v>
+        <v>5046.554106411611</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>5124.201103966129</v>
+        <v>5124.201104009165</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>5203.224405782744</v>
+        <v>5203.224405824925</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>5283.648488698814</v>
+        <v>5283.648488740287</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>5365.498082944069</v>
+        <v>5365.498082984548</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>5448.798146343031</v>
+        <v>5448.798146382515</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>5533.573836558625</v>
+        <v>5533.573836597402</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>5619.850481280469</v>
+        <v>5619.85048131811</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>5707.653546294615</v>
+        <v>5707.653546331314</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>5797.008601393247</v>
+        <v>5797.008601429052</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>5887.941284066346</v>
+        <v>5887.941284101021</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>5980.477260929138</v>
+        <v>5980.477260962731</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>6074.642186840336</v>
+        <v>6074.642186872897</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>6170.461661672956</v>
+        <v>6170.461661704441</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>6267.961184695179</v>
+        <v>6267.961184725543</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>6367.166106527936</v>
+        <v>6367.166106557084</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>63950.2627889759</v>
+        <v>63950.26278925256</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>64965.57019517836</v>
+        <v>64965.5701954426</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>65998.47691136625</v>
+        <v>65998.47691161856</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>67049.22246415137</v>
+        <v>67049.22246439083</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>68118.04216894071</v>
+        <v>68118.04216916687</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>69205.16650763163</v>
+        <v>69205.16650784548</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>70310.82048183649</v>
+        <v>70310.82048203617</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>71435.22294181149</v>
+        <v>71435.22294199611</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>72578.58589139745</v>
+        <v>72578.58589156796</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>73741.11376953377</v>
+        <v>73741.11376969212</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>74923.00270882051</v>
+        <v>74923.002708962</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>76124.43977177615</v>
+        <v>76124.43977190269</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>77345.60216570531</v>
+        <v>77345.60216581599</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>78586.65643705623</v>
+        <v>78586.65643715016</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>79847.75764633436</v>
+        <v>79847.75764641345</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>81129.04852491498</v>
+        <v>81129.04852497643</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>82430.65861501383</v>
+        <v>82430.6586150567</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>83752.70339445045</v>
+        <v>83752.70339447669</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>85095.2833879875</v>
+        <v>85095.28338799617</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>86458.48326697269</v>
+        <v>86458.48326696195</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>87842.37093955552</v>
+        <v>87842.37093952442</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>89246.99663353057</v>
+        <v>89246.99663348199</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>90672.39197447794</v>
+        <v>90672.39197440902</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>92118.56906158742</v>
+        <v>92118.56906149631</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>93585.5195441268</v>
+        <v>93585.51954401635</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>95073.21370152463</v>
+        <v>95073.213701392</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>96581.5995301863</v>
+        <v>96581.5995300315</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>98110.60184046012</v>
+        <v>98110.60184028036</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>99660.12136727858</v>
+        <v>99660.12136707666</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>101230.0338981928</v>
+        <v>101230.0338979696</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>102820.1894226233</v>
+        <v>102820.1894223733</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>104430.4113064564</v>
+        <v>104430.4113061804</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>106060.4954960835</v>
+        <v>106060.4954957834</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>107710.2097562477</v>
+        <v>107710.2097559206</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>109379.2929461615</v>
+        <v>109379.2929458075</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>111067.4543384035</v>
+        <v>111067.4543380216</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>112774.3729852343</v>
+        <v>112774.3729848235</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>114499.6971372046</v>
+        <v>114499.6971367677</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>116243.043718645</v>
+        <v>116243.0437181745</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>118003.9978649768</v>
+        <v>118003.9978644793</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>119782.1125267167</v>
+        <v>119782.1125261846</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>121576.9081449159</v>
+        <v>121576.9081443557</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>123387.8724029781</v>
+        <v>123387.8724023832</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>125214.4600593939</v>
+        <v>125214.4600587671</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>127056.0928663854</v>
+        <v>127056.0928657248</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>128912.1595786304</v>
+        <v>128912.1595779379</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>130782.0160568847</v>
+        <v>130782.0160561527</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>132664.985470356</v>
+        <v>132664.9854695892</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>134560.3586022489</v>
+        <v>134560.3586014491</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>136467.3942619937</v>
+        <v>136467.3942611543</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>138385.3198079273</v>
+        <v>138385.3198070502</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>140313.3317835236</v>
+        <v>140313.3317826097</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>142250.5966702475</v>
+        <v>142250.596669294</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>144196.251759505</v>
+        <v>144196.2517585138</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>146149.4061459331</v>
+        <v>146149.4061448994</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>162761.8400206151</v>
+        <v>162761.8400194355</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>164921.6510342393</v>
+        <v>164921.651033016</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>167086.5931664392</v>
+        <v>167086.5931651723</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>169255.5770679901</v>
+        <v>169255.5770666796</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>171427.4899119613</v>
+        <v>171427.4899106009</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>173601.1973082159</v>
+        <v>173601.1973068097</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>175775.5453539919</v>
+        <v>175775.545352542</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>177949.3628182017</v>
+        <v>177949.3628166998</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>180121.4634570145</v>
+        <v>180121.4634554689</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>182290.6484576213</v>
+        <v>182290.6484560321</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>184455.7090058855</v>
+        <v>184455.7090042483</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>186615.4289738132</v>
+        <v>186615.4289721323</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>188768.5877211999</v>
+        <v>188768.587719467</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>190913.9630059188</v>
+        <v>190913.9630041422</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>193050.3339963561</v>
+        <v>193050.3339945399</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>192967.9988594291</v>
+        <v>192967.9988575821</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>195058.7912736518</v>
+        <v>195058.7912717678</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>197137.0997412247</v>
+        <v>197137.0997392995</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>199201.7543683822</v>
+        <v>199201.7543664097</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>201251.6027976793</v>
+        <v>201251.6027956717</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>203285.5136262228</v>
+        <v>203285.51362417</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>205302.3798649166</v>
+        <v>205302.379862835</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>207301.122428367</v>
+        <v>207301.1224262505</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>209280.6936448227</v>
+        <v>209280.693642667</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>211240.0807751332</v>
+        <v>211240.0807729507</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>305471.57519757</v>
+        <v>305471.5751943984</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>308217.2846806225</v>
+        <v>308217.2846774184</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>310930.0686329123</v>
+        <v>310930.0686296669</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>313608.7262063008</v>
+        <v>313608.7262030318</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>316252.1314492247</v>
+        <v>316252.1314459321</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>318859.2380849511</v>
+        <v>318859.2380816319</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>321429.0841880866</v>
+        <v>321429.0841847615</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>323960.7967431615</v>
+        <v>323960.7967398246</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>326453.5960690822</v>
+        <v>326453.596065754</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>328906.800093907</v>
+        <v>328906.8000905758</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>276119.3932014026</v>
+        <v>276119.3931986436</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>278096.5147628295</v>
+        <v>278096.5147600827</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>280039.4541691231</v>
+        <v>280039.4541664008</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>281948.0010579675</v>
+        <v>281948.0010552795</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>283822.0419145074</v>
+        <v>283822.0419118585</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>285661.5626259994</v>
+        <v>285661.562623402</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>287466.6508288667</v>
+        <v>287466.6508263257</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>289237.4980372289</v>
+        <v>289237.4980347542</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>290974.4015435901</v>
+        <v>290974.4015411914</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>292677.7660811323</v>
+        <v>292677.7660788243</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>188869.7025100304</v>
+        <v>188869.7025086092</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>189920.6919353617</v>
+        <v>189920.6919340145</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>190951.3619264789</v>
+        <v>190951.3619252056</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>191962.2553469469</v>
+        <v>191962.2553457603</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>192953.9868375597</v>
+        <v>192953.9868364721</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>193927.2428450289</v>
+        <v>193927.242844039</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>194882.7814586867</v>
+        <v>194882.7814578085</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>195821.4320489908</v>
+        <v>195821.4320482337</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>196744.0947032223</v>
+        <v>196744.0947025927</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>197651.7394519827</v>
+        <v>197651.739451498</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>232639.8959302595</v>
+        <v>232639.8959298723</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>233671.9406729136</v>
+        <v>233671.9406727109</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>234690.2772849497</v>
+        <v>234690.2772849425</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>235696.3559985097</v>
+        <v>235696.3559987163</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>236691.7005613773</v>
+        <v>236691.70056182</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>237677.9057175416</v>
+        <v>237677.9057182204</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>238656.6343930613</v>
+        <v>238656.6343939946</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>239629.6145792286</v>
+        <v>239629.6145804349</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>240598.6359052026</v>
+        <v>240598.6359066856</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>241565.5458917688</v>
+        <v>241565.5458935432</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>242532.2458787427</v>
+        <v>242532.2458808306</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>243500.6866174384</v>
+        <v>243500.6866198509</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>244472.863521328</v>
+        <v>244472.8635240762</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>245450.8115667491</v>
+        <v>245450.811569844</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>246436.5998374703</v>
+        <v>246436.5998409342</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>247432.3257068087</v>
+        <v>247432.3257106487</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>248440.1086517734</v>
+        <v>248440.108655997</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>249462.0836954655</v>
+        <v>249462.0837001023</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>250500.3944745953</v>
+        <v>250500.3944796378</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>251557.1859307504</v>
+        <v>251557.1859362099</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>252634.596626262</v>
+        <v>252634.5966321641</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>253734.7506868343</v>
+        <v>253734.7506931864</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>254859.7493765454</v>
+        <v>254859.7493833476</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>256011.6623122672</v>
+        <v>256011.6623195193</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>257192.5183290915</v>
+        <v>257192.5183368232</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>258404.2960100793</v>
+        <v>258404.2960182721</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>259648.9138989243</v>
+        <v>259648.9139075929</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>260928.2204165008</v>
+        <v>260928.2204256527</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>262243.9835079829</v>
+        <v>262243.9835176143</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>263597.8800507762</v>
+        <v>263597.8800608835</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>264991.4850585387</v>
+        <v>264991.4850691181</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>266426.2607220437</v>
+        <v>266426.260733099</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>267903.5453322537</v>
+        <v>267903.5453437663</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>269424.5421366967</v>
+        <v>269424.5421486742</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>270990.3081855403</v>
+        <v>270990.3081979494</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>272601.7432293203</v>
+        <v>272601.7432421683</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>274259.5787361727</v>
+        <v>274259.5787494412</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>275964.3671003859</v>
+        <v>275964.3671140455</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>277716.4711214321</v>
+        <v>277716.4711354679</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>279516.0538356114</v>
+        <v>279516.0538500161</v>
       </c>
     </row>
   </sheetData>
